--- a/cardGame/cards.xlsx
+++ b/cardGame/cards.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"顯微鏡"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#"#REF!"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"動物界"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#"#REF!"</definedName>
   </definedNames>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21" count="21">
   <si>
     <t>name</t>
   </si>
@@ -51,169 +51,40 @@
     <t>複式顯微鏡</t>
   </si>
   <si>
-    <t>{"name":"孢子","category":"複式顯微鏡"},</t>
-  </si>
-  <si>
-    <t>紅血球</t>
-  </si>
-  <si>
-    <t>{"name":"紅血球","category":"複式顯微鏡"},</t>
-  </si>
-  <si>
-    <t>{"name":"草履蟲","category":"複式顯微鏡"},</t>
-  </si>
-  <si>
-    <t>{"name":"昆布","category":"複式顯微鏡"},</t>
-  </si>
-  <si>
-    <t>{"name":"花粉","category":"複式顯微鏡"},</t>
-  </si>
-  <si>
     <t>解剖顯微鏡</t>
   </si>
   <si>
-    <t>{"name":"柱頭","category":"解剖顯微鏡"},</t>
-  </si>
-  <si>
     <t>images_Animals/</t>
   </si>
   <si>
     <t>刺絲胞</t>
   </si>
   <si>
-    <t>{"name":"水母","img":"images_Animals/1.jpg","category":"刺絲胞"},</t>
-  </si>
-  <si>
-    <t>{"name":"珊瑚","img":"images_Animals/2.jpg","category":"刺絲胞"},</t>
-  </si>
-  <si>
-    <t>{"name":"水螅","img":"images_Animals/3.jpg","category":"刺絲胞"},</t>
-  </si>
-  <si>
-    <t>{"name":"海葵","img":"images_Animals/4.jpg","category":"刺絲胞"},</t>
-  </si>
-  <si>
     <t>絛蟲</t>
   </si>
   <si>
     <t>扁形</t>
   </si>
   <si>
-    <t>{"name":"絛蟲","img":"images_Animals/5.jpg","category":"扁形"},</t>
-  </si>
-  <si>
-    <t>{"name":"渦蟲","img":"images_Animals/6.jpg","category":"扁形"},</t>
-  </si>
-  <si>
-    <t>{"name":"絛蟲","img":"images_Animals/7.jpg","category":"扁形"},</t>
-  </si>
-  <si>
     <t>軟體</t>
   </si>
   <si>
-    <t>{"name":"蝸牛","img":"images_Animals/8.jpg","category":"軟體"},</t>
-  </si>
-  <si>
-    <t>{"name":"蛞蝓","img":"images_Animals/9.jpg","category":"軟體"},</t>
-  </si>
-  <si>
-    <t>{"name":"文蛤","img":"images_Animals/10.jpg","category":"軟體"},</t>
-  </si>
-  <si>
-    <t>{"name":"章魚","img":"images_Animals/11.jpg","category":"軟體"},</t>
-  </si>
-  <si>
-    <t>{"name":"烏賊","img":"images_Animals/12.jpg","category":"軟體"},</t>
-  </si>
-  <si>
     <t>環節</t>
   </si>
   <si>
-    <t>{"name":"蚯蚓","img":"images_Animals/13.jpg","category":"環節"},</t>
-  </si>
-  <si>
     <t>水蛭</t>
   </si>
   <si>
-    <t>{"name":"水蛭","img":"images_Animals/14.jpg","category":"環節"},</t>
-  </si>
-  <si>
-    <t>{"name":"沙蠶","img":"images_Animals/15.jpg","category":"環節"},</t>
-  </si>
-  <si>
-    <t>{"name":"水蛭","img":"images_Animals/16.jpg","category":"環節"},</t>
-  </si>
-  <si>
     <t>節肢</t>
   </si>
   <si>
-    <t>{"name":"蜈蚣","img":"images_Animals/17.jpg","category":"節肢"},</t>
-  </si>
-  <si>
-    <t>{"name":"蝴蝶","img":"images_Animals/18.jpg","category":"節肢"},</t>
-  </si>
-  <si>
-    <t>{"name":"螃蟹","img":"images_Animals/19.jpg","category":"節肢"},</t>
-  </si>
-  <si>
-    <t>{"name":"蜘蛛","img":"images_Animals/20.jpg","category":"節肢"},</t>
-  </si>
-  <si>
-    <t>{"name":"蝦","img":"images_Animals/21.jpg","category":"節肢"},</t>
-  </si>
-  <si>
-    <t>{"name":"蒼蠅","img":"images_Animals/22.jpg","category":"節肢"},</t>
-  </si>
-  <si>
     <t>棘皮</t>
   </si>
   <si>
-    <t>{"name":"海星","img":"images_Animals/23.jpg","category":"棘皮"},</t>
-  </si>
-  <si>
-    <t>{"name":"海蛇尾","img":"images_Animals/24.jpg","category":"棘皮"},</t>
-  </si>
-  <si>
-    <t>{"name":"海膽","img":"images_Animals/25.jpg","category":"棘皮"},</t>
-  </si>
-  <si>
     <t>海參</t>
   </si>
   <si>
-    <t>{"name":"海參","img":"images_Animals/26.jpg","category":"棘皮"},</t>
-  </si>
-  <si>
-    <t>{"name":"海參","img":"images_Animals/27.jpg","category":"棘皮"},</t>
-  </si>
-  <si>
     <t>脊索</t>
-  </si>
-  <si>
-    <t>{"name":"鯊魚","img":"images_Animals/28.jpg","category":"脊索"},</t>
-  </si>
-  <si>
-    <t>{"name":"魚","img":"images_Animals/29.jpg","category":"脊索"},</t>
-  </si>
-  <si>
-    <t>{"name":"青蛙","img":"images_Animals/30.jpg","category":"脊索"},</t>
-  </si>
-  <si>
-    <t>{"name":"蠑螈","img":"images_Animals/31.jpg","category":"脊索"},</t>
-  </si>
-  <si>
-    <t>{"name":"蜥蜴","img":"images_Animals/32.jpg","category":"脊索"},</t>
-  </si>
-  <si>
-    <t>{"name":"蛇","img":"images_Animals/33.jpg","category":"脊索"},</t>
-  </si>
-  <si>
-    <t>{"name":"龜","img":"images_Animals/34.jpg","category":"脊索"},</t>
-  </si>
-  <si>
-    <t>{"name":"企鵝","img":"images_Animals/35.jpg","category":"脊索"},</t>
-  </si>
-  <si>
-    <t>{"name":"穿山甲","img":"images_Animals/36.jpg","category":"脊索"},</t>
   </si>
 </sst>
 </file>
@@ -308,19 +179,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:XFD18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="7" style="1" width="24.569951923076925" customWidth="1"/>
-    <col min="8" max="16384" style="1" width="24.569951923076925"/>
+    <col min="8" max="16384" style="1" width="24.569951923076925" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25">
+    <row r="1" spans="1:16384" ht="23.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -341,7 +212,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="23.25">
+    <row r="2" spans="1:16384" ht="23.25">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>孢子</t>
@@ -361,12 +232,12 @@
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2" t="str">
         <f>"{""name"":"""&amp;A2&amp;IF(E2,""",""img"":"""&amp;D2,"")&amp;""",""category"":"""&amp;F2&amp;"""},"</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="23.25">
+        <v>{"name":"孢子","category":"複式顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16384" ht="23.25">
       <c r="A3" t="inlineStr">
         <is>
           <t>孢子囊紋路</t>
@@ -391,9 +262,11 @@
         <v>{"name":"孢子囊紋路","category":"複式顯微鏡"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="23.25">
-      <c r="A4" t="s">
-        <v>10</v>
+    <row r="4" spans="1:16384" ht="23.25">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>紅血球</t>
+        </is>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -409,12 +282,12 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2" t="str">
         <f>"{""name"":"""&amp;A4&amp;IF(E4,""",""img"":"""&amp;D4,"")&amp;""",""category"":"""&amp;F4&amp;"""},"</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25">
+        <v>{"name":"紅血球","category":"複式顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16384" ht="23.25">
       <c r="A5" t="inlineStr">
         <is>
           <t>草履蟲</t>
@@ -434,12 +307,12 @@
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2" t="str">
         <f>"{""name"":"""&amp;A5&amp;IF(E5,""",""img"":"""&amp;D5,"")&amp;""",""category"":"""&amp;F5&amp;"""},"</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="23.25">
+        <v>{"name":"草履蟲","category":"複式顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16384" ht="23.25">
       <c r="A6" t="inlineStr">
         <is>
           <t>單胞藻</t>
@@ -464,7 +337,7 @@
         <v>{"name":"單胞藻","category":"複式顯微鏡"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="23.25">
+    <row r="7" spans="1:16384" ht="23.25">
       <c r="A7" t="inlineStr">
         <is>
           <t>昆布</t>
@@ -482,14 +355,14 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="str">
         <f>"{""name"":"""&amp;A7&amp;IF(E7,""",""img"":"""&amp;D7,"")&amp;""",""category"":"""&amp;F7&amp;"""},"</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="23.25">
+        <v>{"name":"昆布","category":"解剖顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16384" ht="23.25">
       <c r="A8" t="inlineStr">
         <is>
           <t>花粉</t>
@@ -509,12 +382,12 @@
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2" t="str">
         <f>"{""name"":"""&amp;A8&amp;IF(E8,""",""img"":"""&amp;D8,"")&amp;""",""category"":"""&amp;F8&amp;"""},"</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.25">
+        <v>{"name":"花粉","category":"複式顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16384" ht="23.25">
       <c r="A9" t="inlineStr">
         <is>
           <t>柱頭</t>
@@ -532,14 +405,14 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <f>"{""name"":"""&amp;A9&amp;IF(E9,""",""img"":"""&amp;D9,"")&amp;""",""category"":"""&amp;F9&amp;"""},"</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="23.25">
+        <v>{"name":"柱頭","category":"解剖顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16384" ht="23.25">
       <c r="A10" t="inlineStr">
         <is>
           <t>子房</t>
@@ -557,55 +430,55 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>"{""name"":"""&amp;A10&amp;IF(E10,""",""img"":"""&amp;D10,"")&amp;""",""category"":"""&amp;F10&amp;"""},"</f>
         <v>{"name":"子房","category":"解剖顯微鏡"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="23.25">
+    <row r="11" spans="1:16384" ht="23.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="23.25">
+    <row r="12" spans="1:16384" ht="23.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="23.25">
+    <row r="13" spans="1:16384" ht="23.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="23.25">
+    <row r="14" spans="1:16384" ht="23.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="23.25">
+    <row r="15" spans="1:16384" ht="23.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="23.25">
+    <row r="16" spans="1:16384" ht="23.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="23.25">
+    <row r="17" spans="1:16384" ht="23.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="23.25">
+    <row r="18" spans="1:16384" ht="23.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -627,7 +500,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G37"/>
@@ -645,7 +518,7 @@
     <col min="8" max="16384" style="3" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25">
+    <row r="1" spans="1:7" ht="23.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,14 +538,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="23.25">
+    <row r="2" spans="1:7" ht="23.25">
       <c r="A2" t="inlineStr">
         <is>
           <t>水母</t>
         </is>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -685,21 +558,21 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="str">
         <f>"{""name"":"""&amp;A2&amp;IF(E2,""",""img"":"""&amp;D2,"")&amp;""",""category"":"""&amp;F2&amp;"""},"</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="23.25">
+        <v>{"name":"水母","img":"images_Animals/1.jpg","category":"刺絲胞"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.25">
       <c r="A3" t="inlineStr">
         <is>
           <t>珊瑚</t>
         </is>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -712,21 +585,21 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="str">
         <f>"{""name"":"""&amp;A3&amp;IF(E3,""",""img"":"""&amp;D3,"")&amp;""",""category"":"""&amp;F3&amp;"""},"</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="23.25">
+        <v>{"name":"珊瑚","img":"images_Animals/2.jpg","category":"刺絲胞"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25">
       <c r="A4" t="inlineStr">
         <is>
           <t>水螅</t>
         </is>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -739,21 +612,21 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="str">
         <f>"{""name"":"""&amp;A4&amp;IF(E4,""",""img"":"""&amp;D4,"")&amp;""",""category"":"""&amp;F4&amp;"""},"</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="23.25">
+        <v>{"name":"水螅","img":"images_Animals/3.jpg","category":"刺絲胞"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.25">
       <c r="A5" t="inlineStr">
         <is>
           <t>海葵</t>
         </is>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -766,19 +639,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="str">
         <f>"{""name"":"""&amp;A5&amp;IF(E5,""",""img"":"""&amp;D5,"")&amp;""",""category"":"""&amp;F5&amp;"""},"</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="23.25">
+        <v>{"name":"海葵","img":"images_Animals/4.jpg","category":"刺絲胞"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -791,21 +664,21 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="str">
         <f>"{""name"":"""&amp;A6&amp;IF(E6,""",""img"":"""&amp;D6,"")&amp;""",""category"":"""&amp;F6&amp;"""},"</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="23.25">
+        <v>{"name":"絛蟲","img":"images_Animals/5.jpg","category":"扁形"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.25">
       <c r="A7" t="inlineStr">
         <is>
           <t>渦蟲</t>
         </is>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -818,19 +691,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="str">
         <f>"{""name"":"""&amp;A7&amp;IF(E7,""",""img"":"""&amp;D7,"")&amp;""",""category"":"""&amp;F7&amp;"""},"</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="23.25">
+        <v>{"name":"渦蟲","img":"images_Animals/6.jpg","category":"扁形"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="23.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -843,21 +716,21 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="str">
         <f>"{""name"":"""&amp;A8&amp;IF(E8,""",""img"":"""&amp;D8,"")&amp;""",""category"":"""&amp;F8&amp;"""},"</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="23.25">
+        <v>{"name":"絛蟲","img":"images_Animals/7.jpg","category":"扁形"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.25">
       <c r="A9" t="inlineStr">
         <is>
           <t>蝸牛</t>
         </is>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -870,21 +743,21 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <f>"{""name"":"""&amp;A9&amp;IF(E9,""",""img"":"""&amp;D9,"")&amp;""",""category"":"""&amp;F9&amp;"""},"</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="23.25">
+        <v>{"name":"蝸牛","img":"images_Animals/8.jpg","category":"軟體"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.25">
       <c r="A10" t="inlineStr">
         <is>
           <t>蛞蝓</t>
         </is>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -897,21 +770,21 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="str">
         <f>"{""name"":"""&amp;A10&amp;IF(E10,""",""img"":"""&amp;D10,"")&amp;""",""category"":"""&amp;F10&amp;"""},"</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="23.25">
+        <v>{"name":"蛞蝓","img":"images_Animals/9.jpg","category":"軟體"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.25">
       <c r="A11" t="inlineStr">
         <is>
           <t>文蛤</t>
         </is>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -924,21 +797,21 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2" t="str">
         <f>"{""name"":"""&amp;A11&amp;IF(E11,""",""img"":"""&amp;D11,"")&amp;""",""category"":"""&amp;F11&amp;"""},"</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="23.25">
+        <v>{"name":"文蛤","img":"images_Animals/10.jpg","category":"軟體"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23.25">
       <c r="A12" t="inlineStr">
         <is>
           <t>章魚</t>
         </is>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -951,21 +824,21 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="str">
         <f>"{""name"":"""&amp;A12&amp;IF(E12,""",""img"":"""&amp;D12,"")&amp;""",""category"":"""&amp;F12&amp;"""},"</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="23.25">
+        <v>{"name":"章魚","img":"images_Animals/11.jpg","category":"軟體"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23.25">
       <c r="A13" t="inlineStr">
         <is>
           <t>烏賊</t>
         </is>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -978,21 +851,21 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="str">
         <f>"{""name"":"""&amp;A13&amp;IF(E13,""",""img"":"""&amp;D13,"")&amp;""",""category"":"""&amp;F13&amp;"""},"</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="23.25">
+        <v>{"name":"烏賊","img":"images_Animals/12.jpg","category":"軟體"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.25">
       <c r="A14" t="inlineStr">
         <is>
           <t>蚯蚓</t>
         </is>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1005,19 +878,19 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2" t="str">
         <f>"{""name"":"""&amp;A14&amp;IF(E14,""",""img"":"""&amp;D14,"")&amp;""",""category"":"""&amp;F14&amp;"""},"</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="23.25">
+        <v>{"name":"蚯蚓","img":"images_Animals/13.jpg","category":"環節"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1030,21 +903,21 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="str">
         <f>"{""name"":"""&amp;A15&amp;IF(E15,""",""img"":"""&amp;D15,"")&amp;""",""category"":"""&amp;F15&amp;"""},"</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="23.25">
+        <v>{"name":"水蛭","img":"images_Animals/14.jpg","category":"環節"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23.25">
       <c r="A16" t="inlineStr">
         <is>
           <t>沙蠶</t>
         </is>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1057,19 +930,19 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="str">
         <f>"{""name"":"""&amp;A16&amp;IF(E16,""",""img"":"""&amp;D16,"")&amp;""",""category"":"""&amp;F16&amp;"""},"</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="23.25">
+        <v>{"name":"沙蠶","img":"images_Animals/15.jpg","category":"環節"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="23.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1082,21 +955,21 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2" t="str">
         <f>"{""name"":"""&amp;A17&amp;IF(E17,""",""img"":"""&amp;D17,"")&amp;""",""category"":"""&amp;F17&amp;"""},"</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="23.25">
+        <v>{"name":"水蛭","img":"images_Animals/16.jpg","category":"環節"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.25">
       <c r="A18" t="inlineStr">
         <is>
           <t>蜈蚣</t>
         </is>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1109,21 +982,21 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="str">
         <f>"{""name"":"""&amp;A18&amp;IF(E18,""",""img"":"""&amp;D18,"")&amp;""",""category"":"""&amp;F18&amp;"""},"</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="23.25">
+        <v>{"name":"蜈蚣","img":"images_Animals/17.jpg","category":"節肢"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="23.25">
       <c r="A19" t="inlineStr">
         <is>
           <t>蝴蝶</t>
         </is>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1136,21 +1009,21 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="str">
         <f>"{""name"":"""&amp;A19&amp;IF(E19,""",""img"":"""&amp;D19,"")&amp;""",""category"":"""&amp;F19&amp;"""},"</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="23.25">
+        <v>{"name":"蝴蝶","img":"images_Animals/18.jpg","category":"節肢"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="23.25">
       <c r="A20" t="inlineStr">
         <is>
           <t>螃蟹</t>
         </is>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1163,21 +1036,21 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="str">
         <f>"{""name"":"""&amp;A20&amp;IF(E20,""",""img"":"""&amp;D20,"")&amp;""",""category"":"""&amp;F20&amp;"""},"</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="23.25">
+        <v>{"name":"螃蟹","img":"images_Animals/19.jpg","category":"節肢"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.25">
       <c r="A21" t="inlineStr">
         <is>
           <t>蜘蛛</t>
         </is>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1190,21 +1063,21 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="str">
         <f>"{""name"":"""&amp;A21&amp;IF(E21,""",""img"":"""&amp;D21,"")&amp;""",""category"":"""&amp;F21&amp;"""},"</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="23.25">
+        <v>{"name":"蜘蛛","img":"images_Animals/20.jpg","category":"節肢"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="23.25">
       <c r="A22" t="inlineStr">
         <is>
           <t>蝦</t>
         </is>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1217,21 +1090,21 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2" t="str">
         <f>"{""name"":"""&amp;A22&amp;IF(E22,""",""img"":"""&amp;D22,"")&amp;""",""category"":"""&amp;F22&amp;"""},"</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="23.25">
+        <v>{"name":"蝦","img":"images_Animals/21.jpg","category":"節肢"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23.25">
       <c r="A23" t="inlineStr">
         <is>
           <t>蒼蠅</t>
         </is>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1244,21 +1117,21 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2" t="str">
         <f>"{""name"":"""&amp;A23&amp;IF(E23,""",""img"":"""&amp;D23,"")&amp;""",""category"":"""&amp;F23&amp;"""},"</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="23.25">
+        <v>{"name":"蒼蠅","img":"images_Animals/22.jpg","category":"節肢"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="23.25">
       <c r="A24" t="inlineStr">
         <is>
           <t>海星</t>
         </is>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1271,21 +1144,21 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="str">
         <f>"{""name"":"""&amp;A24&amp;IF(E24,""",""img"":"""&amp;D24,"")&amp;""",""category"":"""&amp;F24&amp;"""},"</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="23.25">
+        <v>{"name":"海星","img":"images_Animals/23.jpg","category":"棘皮"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.25">
       <c r="A25" t="inlineStr">
         <is>
           <t>海蛇尾</t>
         </is>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1298,21 +1171,21 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2" t="str">
         <f>"{""name"":"""&amp;A25&amp;IF(E25,""",""img"":"""&amp;D25,"")&amp;""",""category"":"""&amp;F25&amp;"""},"</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="23.25">
+        <v>{"name":"海蛇尾","img":"images_Animals/24.jpg","category":"棘皮"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="23.25">
       <c r="A26" t="inlineStr">
         <is>
           <t>海膽</t>
         </is>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1325,19 +1198,19 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="2" t="str">
         <f>"{""name"":"""&amp;A26&amp;IF(E26,""",""img"":"""&amp;D26,"")&amp;""",""category"":"""&amp;F26&amp;"""},"</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="23.25">
+        <v>{"name":"海膽","img":"images_Animals/25.jpg","category":"棘皮"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="23.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1350,19 +1223,19 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="2" t="str">
         <f>"{""name"":"""&amp;A27&amp;IF(E27,""",""img"":"""&amp;D27,"")&amp;""",""category"":"""&amp;F27&amp;"""},"</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="23.25">
+        <v>{"name":"海參","img":"images_Animals/26.jpg","category":"棘皮"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="23.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1375,21 +1248,21 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="2" t="str">
         <f>"{""name"":"""&amp;A28&amp;IF(E28,""",""img"":"""&amp;D28,"")&amp;""",""category"":"""&amp;F28&amp;"""},"</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="23.25">
+        <v>{"name":"海參","img":"images_Animals/27.jpg","category":"棘皮"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="23.25">
       <c r="A29" t="inlineStr">
         <is>
           <t>鯊魚</t>
         </is>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1402,21 +1275,21 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="str">
         <f>"{""name"":"""&amp;A29&amp;IF(E29,""",""img"":"""&amp;D29,"")&amp;""",""category"":"""&amp;F29&amp;"""},"</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="23.25">
+        <v>{"name":"鯊魚","img":"images_Animals/28.jpg","category":"脊索"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.25">
       <c r="A30" t="inlineStr">
         <is>
           <t>魚</t>
         </is>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1429,21 +1302,21 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2" t="str">
         <f>"{""name"":"""&amp;A30&amp;IF(E30,""",""img"":"""&amp;D30,"")&amp;""",""category"":"""&amp;F30&amp;"""},"</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="23.25">
+        <v>{"name":"魚","img":"images_Animals/29.jpg","category":"脊索"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="23.25">
       <c r="A31" t="inlineStr">
         <is>
           <t>青蛙</t>
         </is>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1456,21 +1329,21 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="str">
         <f>"{""name"":"""&amp;A31&amp;IF(E31,""",""img"":"""&amp;D31,"")&amp;""",""category"":"""&amp;F31&amp;"""},"</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="23.25">
+        <v>{"name":"青蛙","img":"images_Animals/30.jpg","category":"脊索"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="23.25">
       <c r="A32" t="inlineStr">
         <is>
           <t>蠑螈</t>
         </is>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1483,21 +1356,21 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="str">
         <f>"{""name"":"""&amp;A32&amp;IF(E32,""",""img"":"""&amp;D32,"")&amp;""",""category"":"""&amp;F32&amp;"""},"</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="23.25">
+        <v>{"name":"蠑螈","img":"images_Animals/31.jpg","category":"脊索"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="23.25">
       <c r="A33" t="inlineStr">
         <is>
           <t>蜥蜴</t>
         </is>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1510,21 +1383,21 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="str">
         <f>"{""name"":"""&amp;A33&amp;IF(E33,""",""img"":"""&amp;D33,"")&amp;""",""category"":"""&amp;F33&amp;"""},"</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="23.25">
+        <v>{"name":"蜥蜴","img":"images_Animals/32.jpg","category":"脊索"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="23.25">
       <c r="A34" t="inlineStr">
         <is>
           <t>蛇</t>
         </is>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1537,21 +1410,21 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="2" t="str">
         <f>"{""name"":"""&amp;A34&amp;IF(E34,""",""img"":"""&amp;D34,"")&amp;""",""category"":"""&amp;F34&amp;"""},"</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="23.25">
+        <v>{"name":"蛇","img":"images_Animals/33.jpg","category":"脊索"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="23.25">
       <c r="A35" t="inlineStr">
         <is>
           <t>龜</t>
         </is>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1564,21 +1437,21 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2" t="str">
         <f>"{""name"":"""&amp;A35&amp;IF(E35,""",""img"":"""&amp;D35,"")&amp;""",""category"":"""&amp;F35&amp;"""},"</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="23.25">
+        <v>{"name":"龜","img":"images_Animals/34.jpg","category":"脊索"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="23.25">
       <c r="A36" t="inlineStr">
         <is>
           <t>企鵝</t>
         </is>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1591,21 +1464,21 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2" t="str">
         <f>"{""name"":"""&amp;A36&amp;IF(E36,""",""img"":"""&amp;D36,"")&amp;""",""category"":"""&amp;F36&amp;"""},"</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="23.25">
+        <v>{"name":"企鵝","img":"images_Animals/35.jpg","category":"脊索"},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="23.25">
       <c r="A37" t="inlineStr">
         <is>
           <t>穿山甲</t>
         </is>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1618,14 +1491,14 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="str">
         <f>"{""name"":"""&amp;A37&amp;IF(E37,""",""img"":"""&amp;D37,"")&amp;""",""category"":"""&amp;F37&amp;"""},"</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="23.25"/>
+        <v>{"name":"穿山甲","img":"images_Animals/36.jpg","category":"脊索"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="23.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>

--- a/cardGame/cards.xlsx
+++ b/cardGame/cards.xlsx
@@ -7,14 +7,20 @@
     <workbookView activeTab="0" windowWidth="18660" windowHeight="7870"/>
   </bookViews>
   <sheets>
-    <sheet name="顯微鏡" sheetId="1" r:id="rId1"/>
-    <sheet name="動物界" sheetId="2" r:id="rId2"/>
+    <sheet name="循環系統" sheetId="1" r:id="rId1"/>
+    <sheet name="無脊椎動物" sheetId="2" r:id="rId2"/>
+    <sheet name="顯微鏡" sheetId="3" r:id="rId3"/>
+    <sheet name="動物界" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"顯微鏡"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#"#REF!"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"動物界"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#"#REF!"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"循環系統"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"無脊椎動物"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"顯微鏡"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">#"#REF!"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"動物界"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">#"#REF!"</definedName>
   </definedNames>
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" codePage="1252"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44" count="44">
   <si>
     <t>name</t>
   </si>
@@ -48,6 +54,84 @@
     <t>folder/.jpg</t>
   </si>
   <si>
+    <t>正確</t>
+  </si>
+  <si>
+    <t>水母</t>
+  </si>
+  <si>
+    <t>刺絲胞動物</t>
+  </si>
+  <si>
+    <t>水螅</t>
+  </si>
+  <si>
+    <t>珊瑚</t>
+  </si>
+  <si>
+    <t>海葵</t>
+  </si>
+  <si>
+    <t>絛蟲</t>
+  </si>
+  <si>
+    <t>扁形動物</t>
+  </si>
+  <si>
+    <t>渦蟲</t>
+  </si>
+  <si>
+    <t>蝸牛</t>
+  </si>
+  <si>
+    <t>軟體動物</t>
+  </si>
+  <si>
+    <t>文蛤</t>
+  </si>
+  <si>
+    <t>章魚</t>
+  </si>
+  <si>
+    <t>烏賊</t>
+  </si>
+  <si>
+    <t>蚯蚓</t>
+  </si>
+  <si>
+    <t>環節動物</t>
+  </si>
+  <si>
+    <t>水蛭</t>
+  </si>
+  <si>
+    <t>沙蠶</t>
+  </si>
+  <si>
+    <t>節肢動物</t>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>蝦</t>
+  </si>
+  <si>
+    <t>海星</t>
+  </si>
+  <si>
+    <t>棘皮動物</t>
+  </si>
+  <si>
+    <t>海膽</t>
+  </si>
+  <si>
+    <t>{"name":"海膽","category":"棘皮動物"},</t>
+  </si>
+  <si>
+    <t>海參</t>
+  </si>
+  <si>
     <t>複式顯微鏡</t>
   </si>
   <si>
@@ -60,9 +144,6 @@
     <t>刺絲胞</t>
   </si>
   <si>
-    <t>絛蟲</t>
-  </si>
-  <si>
     <t>扁形</t>
   </si>
   <si>
@@ -72,16 +153,10 @@
     <t>環節</t>
   </si>
   <si>
-    <t>水蛭</t>
-  </si>
-  <si>
     <t>節肢</t>
   </si>
   <si>
     <t>棘皮</t>
-  </si>
-  <si>
-    <t>海參</t>
   </si>
   <si>
     <t>脊索</t>
@@ -159,11 +234,11 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="general" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0">
@@ -179,309 +254,340 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:XFD18"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="7" style="1" width="24.569951923076925" customWidth="1"/>
-    <col min="8" max="16384" style="1" width="24.569951923076925" bestFit="1" customWidth="1"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="23.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:16384" ht="23.25">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>孢子</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+          <t>肺靜脈</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <f>B2&amp;C2&amp;".jpg"</f>
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <f>"{""name"":"""&amp;A2&amp;IF(E2,""",""img"":"""&amp;D2,"")&amp;""",""category"":"""&amp;F2&amp;"""},"</f>
-        <v>{"name":"孢子","category":"複式顯微鏡"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16384" ht="23.25">
+        <v>{"name":"肺靜脈","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5">
       <c r="A3" t="inlineStr">
         <is>
-          <t>孢子囊紋路</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+          <t>左心房</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <f>B3&amp;C3&amp;".jpg"</f>
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <f>"{""name"":"""&amp;A3&amp;IF(E3,""",""img"":"""&amp;D3,"")&amp;""",""category"":"""&amp;F3&amp;"""},"</f>
-        <v>{"name":"孢子囊紋路","category":"複式顯微鏡"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16384" ht="23.25">
+        <v>{"name":"左心房","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5">
       <c r="A4" t="inlineStr">
         <is>
-          <t>紅血球</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+          <t>左心室</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <f>B4&amp;C4&amp;".jpg"</f>
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <f>"{""name"":"""&amp;A4&amp;IF(E4,""",""img"":"""&amp;D4,"")&amp;""",""category"":"""&amp;F4&amp;"""},"</f>
-        <v>{"name":"紅血球","category":"複式顯微鏡"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16384" ht="23.25">
+        <v>{"name":"左心室","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>草履蟲</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+          <t>主動脈</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <f>B5&amp;C5&amp;".jpg"</f>
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <f>"{""name"":"""&amp;A5&amp;IF(E5,""",""img"":"""&amp;D5,"")&amp;""",""category"":"""&amp;F5&amp;"""},"</f>
-        <v>{"name":"草履蟲","category":"複式顯微鏡"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16384" ht="23.25">
+        <v>{"name":"主動脈","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5">
       <c r="A6" t="inlineStr">
         <is>
-          <t>單胞藻</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+          <t>小動脈</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <f>B6&amp;C6&amp;".jpg"</f>
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <f>"{""name"":"""&amp;A6&amp;IF(E6,""",""img"":"""&amp;D6,"")&amp;""",""category"":"""&amp;F6&amp;"""},"</f>
-        <v>{"name":"單胞藻","category":"複式顯微鏡"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16384" ht="23.25">
+        <v>{"name":"小動脈","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5">
       <c r="A7" t="inlineStr">
         <is>
-          <t>昆布</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+          <t>組織微血管</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <f>B7&amp;C7&amp;".jpg"</f>
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="2" t="str">
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f>"{""name"":"""&amp;A7&amp;IF(E7,""",""img"":"""&amp;D7,"")&amp;""",""category"":"""&amp;F7&amp;"""},"</f>
-        <v>{"name":"昆布","category":"解剖顯微鏡"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16384" ht="23.25">
+        <v>{"name":"組織微血管","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5">
       <c r="A8" t="inlineStr">
         <is>
-          <t>花粉</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+          <t>小靜脈</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <f>B8&amp;C8&amp;".jpg"</f>
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <f>"{""name"":"""&amp;A8&amp;IF(E8,""",""img"":"""&amp;D8,"")&amp;""",""category"":"""&amp;F8&amp;"""},"</f>
-        <v>{"name":"花粉","category":"複式顯微鏡"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16384" ht="23.25">
+        <v>{"name":"小靜脈","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5">
       <c r="A9" t="inlineStr">
         <is>
-          <t>柱頭</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+          <t>大靜脈</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <f>B9&amp;C9&amp;".jpg"</f>
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="str">
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f>"{""name"":"""&amp;A9&amp;IF(E9,""",""img"":"""&amp;D9,"")&amp;""",""category"":"""&amp;F9&amp;"""},"</f>
-        <v>{"name":"柱頭","category":"解剖顯微鏡"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16384" ht="23.25">
+        <v>{"name":"大靜脈","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5">
       <c r="A10" t="inlineStr">
         <is>
-          <t>子房</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+          <t>右心房</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <f>B10&amp;C10&amp;".jpg"</f>
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="2" t="str">
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f>"{""name"":"""&amp;A10&amp;IF(E10,""",""img"":"""&amp;D10,"")&amp;""",""category"":"""&amp;F10&amp;"""},"</f>
-        <v>{"name":"子房","category":"解剖顯微鏡"},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16384" ht="23.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:16384" ht="23.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:16384" ht="23.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:16384" ht="23.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:16384" ht="23.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:16384" ht="23.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:16384" ht="23.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:16384" ht="23.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>{"name":"右心房","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>右心室</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <f>B11&amp;C11&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>"{""name"":"""&amp;A11&amp;IF(E11,""",""img"":"""&amp;D11,"")&amp;""",""category"":"""&amp;F11&amp;"""},"</f>
+        <v>{"name":"右心室","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>肺動脈</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <f>B12&amp;C12&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>"{""name"":"""&amp;A12&amp;IF(E12,""",""img"":"""&amp;D12,"")&amp;""",""category"":"""&amp;F12&amp;"""},"</f>
+        <v>{"name":"肺動脈","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>肺部微血管</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <f>B13&amp;C13&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>"{""name"":"""&amp;A13&amp;IF(E13,""",""img"":"""&amp;D13,"")&amp;""",""category"":"""&amp;F13&amp;"""},"</f>
+        <v>{"name":"肺部微血管","category":"正確"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -496,6 +602,1018 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" style="2" width="8.285216346153847" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" style="2" width="14.999098557692308" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" style="2" width="12.142127403846155" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" style="2" width="14.570552884615386" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" style="2" width="12.142127403846155" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" style="2" width="14.999098557692308" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" style="2" width="58.282211538461546" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" style="2" width="9.142307692307693"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <f>B2&amp;C2&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>"{""name"":"""&amp;A2&amp;IF(E2,""",""img"":"""&amp;D2,"")&amp;""",""category"":"""&amp;F2&amp;"""},"</f>
+        <v>{"name":"水母","category":"刺絲胞動物"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <f>B3&amp;C3&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>"{""name"":"""&amp;A3&amp;IF(E3,""",""img"":"""&amp;D3,"")&amp;""",""category"":"""&amp;F3&amp;"""},"</f>
+        <v>{"name":"水螅","category":"刺絲胞動物"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="23.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <f>B4&amp;C4&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>"{""name"":"""&amp;A4&amp;IF(E4,""",""img"":"""&amp;D4,"")&amp;""",""category"":"""&amp;F4&amp;"""},"</f>
+        <v>{"name":"珊瑚","category":"刺絲胞動物"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <f>B5&amp;C5&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>"{""name"":"""&amp;A5&amp;IF(E5,""",""img"":"""&amp;D5,"")&amp;""",""category"":"""&amp;F5&amp;"""},"</f>
+        <v>{"name":"海葵","category":"刺絲胞動物"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="23.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <f>B6&amp;C6&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>"{""name"":"""&amp;A6&amp;IF(E6,""",""img"":"""&amp;D6,"")&amp;""",""category"":"""&amp;F6&amp;"""},"</f>
+        <v>{"name":"絛蟲","category":"扁形動物"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="23.25">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>吸蟲</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <f>B7&amp;C7&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>"{""name"":"""&amp;A7&amp;IF(E7,""",""img"":"""&amp;D7,"")&amp;""",""category"":"""&amp;F7&amp;"""},"</f>
+        <v>{"name":"吸蟲","category":"扁形動物"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="23.25">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>肝吸蟲</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <f>B8&amp;C8&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>"{""name"":"""&amp;A8&amp;IF(E8,""",""img"":"""&amp;D8,"")&amp;""",""category"":"""&amp;F8&amp;"""},"</f>
+        <v>{"name":"肝吸蟲","category":"扁形動物"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="23.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <f>B9&amp;C9&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>"{""name"":"""&amp;A9&amp;IF(E9,""",""img"":"""&amp;D9,"")&amp;""",""category"":"""&amp;F9&amp;"""},"</f>
+        <v>{"name":"渦蟲","category":"扁形動物"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="23.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <f>B10&amp;C10&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>"{""name"":"""&amp;A10&amp;IF(E10,""",""img"":"""&amp;D10,"")&amp;""",""category"":"""&amp;F10&amp;"""},"</f>
+        <v>{"name":"蝸牛","category":"軟體動物"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="23.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <f>B11&amp;C11&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>"{""name"":"""&amp;A11&amp;IF(E11,""",""img"":"""&amp;D11,"")&amp;""",""category"":"""&amp;F11&amp;"""},"</f>
+        <v>{"name":"文蛤","category":"軟體動物"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="23.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <f>B12&amp;C12&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>"{""name"":"""&amp;A12&amp;IF(E12,""",""img"":"""&amp;D12,"")&amp;""",""category"":"""&amp;F12&amp;"""},"</f>
+        <v>{"name":"章魚","category":"軟體動物"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="23.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <f>B13&amp;C13&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f>"{""name"":"""&amp;A13&amp;IF(E13,""",""img"":"""&amp;D13,"")&amp;""",""category"":"""&amp;F13&amp;"""},"</f>
+        <v>{"name":"烏賊","category":"軟體動物"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <f>B14&amp;C14&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>"{""name"":"""&amp;A14&amp;IF(E14,""",""img"":"""&amp;D14,"")&amp;""",""category"":"""&amp;F14&amp;"""},"</f>
+        <v>{"name":"蚯蚓","category":"環節動物"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <f>B15&amp;C15&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>"{""name"":"""&amp;A15&amp;IF(E15,""",""img"":"""&amp;D15,"")&amp;""",""category"":"""&amp;F15&amp;"""},"</f>
+        <v>{"name":"水蛭","category":"環節動物"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23.25">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>蛭</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <f>B16&amp;C16&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>"{""name"":"""&amp;A16&amp;IF(E16,""",""img"":"""&amp;D16,"")&amp;""",""category"":"""&amp;F16&amp;"""},"</f>
+        <v>{"name":"蛭","category":"環節動物"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="23.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <f>B17&amp;C17&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f>"{""name"":"""&amp;A17&amp;IF(E17,""",""img"":"""&amp;D17,"")&amp;""",""category"":"""&amp;F17&amp;"""},"</f>
+        <v>{"name":"沙蠶","category":"環節動物"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.25">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>昆蟲</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <f>B18&amp;C18&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f>"{""name"":"""&amp;A18&amp;IF(E18,""",""img"":"""&amp;D18,"")&amp;""",""category"":"""&amp;F18&amp;"""},"</f>
+        <v>{"name":"昆蟲","category":"節肢動物"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="23.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <f>B19&amp;C19&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f>"{""name"":"""&amp;A19&amp;IF(E19,""",""img"":"""&amp;D19,"")&amp;""",""category"":"""&amp;F19&amp;"""},"</f>
+        <v>{"name":"蜘蛛","category":"節肢動物"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="23.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <f>B20&amp;C20&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>"{""name"":"""&amp;A20&amp;IF(E20,""",""img"":"""&amp;D20,"")&amp;""",""category"":"""&amp;F20&amp;"""},"</f>
+        <v>{"name":"蝦","category":"節肢動物"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.25">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>蟹</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <f>B21&amp;C21&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f>"{""name"":"""&amp;A21&amp;IF(E21,""",""img"":"""&amp;D21,"")&amp;""",""category"":"""&amp;F21&amp;"""},"</f>
+        <v>{"name":"蟹","category":"節肢動物"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="23.25">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>蟬</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <f>B22&amp;C22&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>"{""name"":"""&amp;A22&amp;IF(E22,""",""img"":"""&amp;D22,"")&amp;""",""category"":"""&amp;F22&amp;"""},"</f>
+        <v>{"name":"蟬","category":"節肢動物"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="23.25">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>衣魚</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <f>B23&amp;C23&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f>"{""name"":"""&amp;A23&amp;IF(E23,""",""img"":"""&amp;D23,"")&amp;""",""category"":"""&amp;F23&amp;"""},"</f>
+        <v>{"name":"衣魚","category":"節肢動物"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="23.25">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>頭蝨</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <f>B24&amp;C24&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f>"{""name"":"""&amp;A24&amp;IF(E24,""",""img"":"""&amp;D24,"")&amp;""",""category"":"""&amp;F24&amp;"""},"</f>
+        <v>{"name":"頭蝨","category":"節肢動物"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="23.25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>螞蟻</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <f>B25&amp;C25&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>"{""name"":"""&amp;A25&amp;IF(E25,""",""img"":"""&amp;D25,"")&amp;""",""category"":"""&amp;F25&amp;"""},"</f>
+        <v>{"name":"螞蟻","category":"節肢動物"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="23.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <f>B26&amp;C26&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f>"{""name"":"""&amp;A26&amp;IF(E26,""",""img"":"""&amp;D26,"")&amp;""",""category"":"""&amp;F26&amp;"""},"</f>
+        <v>{"name":"海星","category":"棘皮動物"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="23.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <f>B27&amp;C27&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <f>"{""name"":"""&amp;A27&amp;IF(E27,""",""img"":"""&amp;D27,"")&amp;""",""category"":"""&amp;F27&amp;"""},"</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="23.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <f>B28&amp;C28&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>"{""name"":"""&amp;A28&amp;IF(E28,""",""img"":"""&amp;D28,"")&amp;""",""category"":"""&amp;F28&amp;"""},"</f>
+        <v>{"name":"海參","category":"棘皮動物"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="23.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <f>B29&amp;C29&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <f>"{""name"":"""&amp;A29&amp;IF(E29,""",""img"":"""&amp;D29,"")&amp;""",""category"":"""&amp;F29&amp;"""},"</f>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:XFD18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="7" style="2" width="24.569951923076925" customWidth="1"/>
+    <col min="8" max="16384" style="2" width="24.569951923076925" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16384" ht="23.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:16384" ht="23.25">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>孢子</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <f>B2&amp;C2&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>"{""name"":"""&amp;A2&amp;IF(E2,""",""img"":"""&amp;D2,"")&amp;""",""category"":"""&amp;F2&amp;"""},"</f>
+        <v>{"name":"孢子","category":"複式顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16384" ht="23.25">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>孢子囊紋路</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <f>B3&amp;C3&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f>"{""name"":"""&amp;A3&amp;IF(E3,""",""img"":"""&amp;D3,"")&amp;""",""category"":"""&amp;F3&amp;"""},"</f>
+        <v>{"name":"孢子囊紋路","category":"複式顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16384" ht="23.25">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>紅血球</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <f>B4&amp;C4&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>"{""name"":"""&amp;A4&amp;IF(E4,""",""img"":"""&amp;D4,"")&amp;""",""category"":"""&amp;F4&amp;"""},"</f>
+        <v>{"name":"紅血球","category":"複式顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16384" ht="23.25">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>草履蟲</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <f>B5&amp;C5&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f>"{""name"":"""&amp;A5&amp;IF(E5,""",""img"":"""&amp;D5,"")&amp;""",""category"":"""&amp;F5&amp;"""},"</f>
+        <v>{"name":"草履蟲","category":"複式顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16384" ht="23.25">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>單胞藻</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <f>B6&amp;C6&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>"{""name"":"""&amp;A6&amp;IF(E6,""",""img"":"""&amp;D6,"")&amp;""",""category"":"""&amp;F6&amp;"""},"</f>
+        <v>{"name":"單胞藻","category":"複式顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16384" ht="23.25">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>昆布</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <f>B7&amp;C7&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>"{""name"":"""&amp;A7&amp;IF(E7,""",""img"":"""&amp;D7,"")&amp;""",""category"":"""&amp;F7&amp;"""},"</f>
+        <v>{"name":"昆布","category":"解剖顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16384" ht="23.25">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>花粉</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <f>B8&amp;C8&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>"{""name"":"""&amp;A8&amp;IF(E8,""",""img"":"""&amp;D8,"")&amp;""",""category"":"""&amp;F8&amp;"""},"</f>
+        <v>{"name":"花粉","category":"複式顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16384" ht="23.25">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>柱頭</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <f>B9&amp;C9&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>"{""name"":"""&amp;A9&amp;IF(E9,""",""img"":"""&amp;D9,"")&amp;""",""category"":"""&amp;F9&amp;"""},"</f>
+        <v>{"name":"柱頭","category":"解剖顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16384" ht="23.25">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>子房</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <f>B10&amp;C10&amp;".jpg"</f>
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>"{""name"":"""&amp;A10&amp;IF(E10,""",""img"":"""&amp;D10,"")&amp;""",""category"":"""&amp;F10&amp;"""},"</f>
+        <v>{"name":"子房","category":"解剖顯微鏡"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16384" ht="23.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:16384" ht="23.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:16384" ht="23.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:16384" ht="23.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:16384" ht="23.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:16384" ht="23.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:16384" ht="23.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:16384" ht="23.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
+  <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
@@ -539,13 +1657,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.25">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>水母</t>
-        </is>
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -558,21 +1674,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="str">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="str">
         <f>"{""name"":"""&amp;A2&amp;IF(E2,""",""img"":"""&amp;D2,"")&amp;""",""category"":"""&amp;F2&amp;"""},"</f>
         <v>{"name":"水母","img":"images_Animals/1.jpg","category":"刺絲胞"},</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="23.25">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>珊瑚</t>
-        </is>
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -585,21 +1699,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="str">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="str">
         <f>"{""name"":"""&amp;A3&amp;IF(E3,""",""img"":"""&amp;D3,"")&amp;""",""category"":"""&amp;F3&amp;"""},"</f>
         <v>{"name":"珊瑚","img":"images_Animals/2.jpg","category":"刺絲胞"},</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.25">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>水螅</t>
-        </is>
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -612,21 +1724,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="str">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="str">
         <f>"{""name"":"""&amp;A4&amp;IF(E4,""",""img"":"""&amp;D4,"")&amp;""",""category"":"""&amp;F4&amp;"""},"</f>
         <v>{"name":"水螅","img":"images_Animals/3.jpg","category":"刺絲胞"},</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.25">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>海葵</t>
-        </is>
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -639,19 +1749,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="str">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="str">
         <f>"{""name"":"""&amp;A5&amp;IF(E5,""",""img"":"""&amp;D5,"")&amp;""",""category"":"""&amp;F5&amp;"""},"</f>
         <v>{"name":"海葵","img":"images_Animals/4.jpg","category":"刺絲胞"},</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -664,21 +1774,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="str">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="str">
         <f>"{""name"":"""&amp;A6&amp;IF(E6,""",""img"":"""&amp;D6,"")&amp;""",""category"":"""&amp;F6&amp;"""},"</f>
         <v>{"name":"絛蟲","img":"images_Animals/5.jpg","category":"扁形"},</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.25">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>渦蟲</t>
-        </is>
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -691,19 +1799,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="str">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="str">
         <f>"{""name"":"""&amp;A7&amp;IF(E7,""",""img"":"""&amp;D7,"")&amp;""",""category"":"""&amp;F7&amp;"""},"</f>
         <v>{"name":"渦蟲","img":"images_Animals/6.jpg","category":"扁形"},</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -716,21 +1824,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="str">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="str">
         <f>"{""name"":"""&amp;A8&amp;IF(E8,""",""img"":"""&amp;D8,"")&amp;""",""category"":"""&amp;F8&amp;"""},"</f>
         <v>{"name":"絛蟲","img":"images_Animals/7.jpg","category":"扁形"},</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.25">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>蝸牛</t>
-        </is>
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -743,9 +1849,9 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="str">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="str">
         <f>"{""name"":"""&amp;A9&amp;IF(E9,""",""img"":"""&amp;D9,"")&amp;""",""category"":"""&amp;F9&amp;"""},"</f>
         <v>{"name":"蝸牛","img":"images_Animals/8.jpg","category":"軟體"},</v>
       </c>
@@ -757,7 +1863,7 @@
         </is>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -770,21 +1876,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="str">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="str">
         <f>"{""name"":"""&amp;A10&amp;IF(E10,""",""img"":"""&amp;D10,"")&amp;""",""category"":"""&amp;F10&amp;"""},"</f>
         <v>{"name":"蛞蝓","img":"images_Animals/9.jpg","category":"軟體"},</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="23.25">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>文蛤</t>
-        </is>
+      <c r="A11" t="s">
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -797,21 +1901,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="str">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="str">
         <f>"{""name"":"""&amp;A11&amp;IF(E11,""",""img"":"""&amp;D11,"")&amp;""",""category"":"""&amp;F11&amp;"""},"</f>
         <v>{"name":"文蛤","img":"images_Animals/10.jpg","category":"軟體"},</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="23.25">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>章魚</t>
-        </is>
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -824,21 +1926,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2" t="str">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="str">
         <f>"{""name"":"""&amp;A12&amp;IF(E12,""",""img"":"""&amp;D12,"")&amp;""",""category"":"""&amp;F12&amp;"""},"</f>
         <v>{"name":"章魚","img":"images_Animals/11.jpg","category":"軟體"},</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="23.25">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>烏賊</t>
-        </is>
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -851,21 +1951,19 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2" t="str">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="str">
         <f>"{""name"":"""&amp;A13&amp;IF(E13,""",""img"":"""&amp;D13,"")&amp;""",""category"":"""&amp;F13&amp;"""},"</f>
         <v>{"name":"烏賊","img":"images_Animals/12.jpg","category":"軟體"},</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.25">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>蚯蚓</t>
-        </is>
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -878,19 +1976,19 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2" t="str">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="str">
         <f>"{""name"":"""&amp;A14&amp;IF(E14,""",""img"":"""&amp;D14,"")&amp;""",""category"":"""&amp;F14&amp;"""},"</f>
         <v>{"name":"蚯蚓","img":"images_Animals/13.jpg","category":"環節"},</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="23.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -903,21 +2001,19 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="2" t="str">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1" t="str">
         <f>"{""name"":"""&amp;A15&amp;IF(E15,""",""img"":"""&amp;D15,"")&amp;""",""category"":"""&amp;F15&amp;"""},"</f>
         <v>{"name":"水蛭","img":"images_Animals/14.jpg","category":"環節"},</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23.25">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>沙蠶</t>
-        </is>
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -930,19 +2026,19 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2" t="str">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f>"{""name"":"""&amp;A16&amp;IF(E16,""",""img"":"""&amp;D16,"")&amp;""",""category"":"""&amp;F16&amp;"""},"</f>
         <v>{"name":"沙蠶","img":"images_Animals/15.jpg","category":"環節"},</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="23.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -955,9 +2051,9 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="2" t="str">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="str">
         <f>"{""name"":"""&amp;A17&amp;IF(E17,""",""img"":"""&amp;D17,"")&amp;""",""category"":"""&amp;F17&amp;"""},"</f>
         <v>{"name":"水蛭","img":"images_Animals/16.jpg","category":"環節"},</v>
       </c>
@@ -969,7 +2065,7 @@
         </is>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -982,9 +2078,9 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="2" t="str">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1" t="str">
         <f>"{""name"":"""&amp;A18&amp;IF(E18,""",""img"":"""&amp;D18,"")&amp;""",""category"":"""&amp;F18&amp;"""},"</f>
         <v>{"name":"蜈蚣","img":"images_Animals/17.jpg","category":"節肢"},</v>
       </c>
@@ -996,7 +2092,7 @@
         </is>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1009,9 +2105,9 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="2" t="str">
+        <v>41</v>
+      </c>
+      <c r="G19" s="1" t="str">
         <f>"{""name"":"""&amp;A19&amp;IF(E19,""",""img"":"""&amp;D19,"")&amp;""",""category"":"""&amp;F19&amp;"""},"</f>
         <v>{"name":"蝴蝶","img":"images_Animals/18.jpg","category":"節肢"},</v>
       </c>
@@ -1023,7 +2119,7 @@
         </is>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1036,21 +2132,19 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2" t="str">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1" t="str">
         <f>"{""name"":"""&amp;A20&amp;IF(E20,""",""img"":"""&amp;D20,"")&amp;""",""category"":"""&amp;F20&amp;"""},"</f>
         <v>{"name":"螃蟹","img":"images_Animals/19.jpg","category":"節肢"},</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>蜘蛛</t>
-        </is>
+      <c r="A21" t="s">
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1063,21 +2157,19 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="2" t="str">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1" t="str">
         <f>"{""name"":"""&amp;A21&amp;IF(E21,""",""img"":"""&amp;D21,"")&amp;""",""category"":"""&amp;F21&amp;"""},"</f>
         <v>{"name":"蜘蛛","img":"images_Animals/20.jpg","category":"節肢"},</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="23.25">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>蝦</t>
-        </is>
+      <c r="A22" t="s">
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1090,9 +2182,9 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="2" t="str">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="str">
         <f>"{""name"":"""&amp;A22&amp;IF(E22,""",""img"":"""&amp;D22,"")&amp;""",""category"":"""&amp;F22&amp;"""},"</f>
         <v>{"name":"蝦","img":"images_Animals/21.jpg","category":"節肢"},</v>
       </c>
@@ -1104,7 +2196,7 @@
         </is>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1117,21 +2209,19 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="2" t="str">
+        <v>41</v>
+      </c>
+      <c r="G23" s="1" t="str">
         <f>"{""name"":"""&amp;A23&amp;IF(E23,""",""img"":"""&amp;D23,"")&amp;""",""category"":"""&amp;F23&amp;"""},"</f>
         <v>{"name":"蒼蠅","img":"images_Animals/22.jpg","category":"節肢"},</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="23.25">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>海星</t>
-        </is>
+      <c r="A24" t="s">
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1144,9 +2234,9 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="2" t="str">
+        <v>42</v>
+      </c>
+      <c r="G24" s="1" t="str">
         <f>"{""name"":"""&amp;A24&amp;IF(E24,""",""img"":"""&amp;D24,"")&amp;""",""category"":"""&amp;F24&amp;"""},"</f>
         <v>{"name":"海星","img":"images_Animals/23.jpg","category":"棘皮"},</v>
       </c>
@@ -1158,7 +2248,7 @@
         </is>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1171,21 +2261,19 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="2" t="str">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1" t="str">
         <f>"{""name"":"""&amp;A25&amp;IF(E25,""",""img"":"""&amp;D25,"")&amp;""",""category"":"""&amp;F25&amp;"""},"</f>
         <v>{"name":"海蛇尾","img":"images_Animals/24.jpg","category":"棘皮"},</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="23.25">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>海膽</t>
-        </is>
+      <c r="A26" t="s">
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1198,19 +2286,19 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="2" t="str">
+        <v>42</v>
+      </c>
+      <c r="G26" s="1" t="str">
         <f>"{""name"":"""&amp;A26&amp;IF(E26,""",""img"":"""&amp;D26,"")&amp;""",""category"":"""&amp;F26&amp;"""},"</f>
         <v>{"name":"海膽","img":"images_Animals/25.jpg","category":"棘皮"},</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="23.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1223,19 +2311,19 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="2" t="str">
+        <v>42</v>
+      </c>
+      <c r="G27" s="1" t="str">
         <f>"{""name"":"""&amp;A27&amp;IF(E27,""",""img"":"""&amp;D27,"")&amp;""",""category"":"""&amp;F27&amp;"""},"</f>
         <v>{"name":"海參","img":"images_Animals/26.jpg","category":"棘皮"},</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="23.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1248,9 +2336,9 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="2" t="str">
+        <v>42</v>
+      </c>
+      <c r="G28" s="1" t="str">
         <f>"{""name"":"""&amp;A28&amp;IF(E28,""",""img"":"""&amp;D28,"")&amp;""",""category"":"""&amp;F28&amp;"""},"</f>
         <v>{"name":"海參","img":"images_Animals/27.jpg","category":"棘皮"},</v>
       </c>
@@ -1262,7 +2350,7 @@
         </is>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1275,9 +2363,9 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="str">
         <f>"{""name"":"""&amp;A29&amp;IF(E29,""",""img"":"""&amp;D29,"")&amp;""",""category"":"""&amp;F29&amp;"""},"</f>
         <v>{"name":"鯊魚","img":"images_Animals/28.jpg","category":"脊索"},</v>
       </c>
@@ -1289,7 +2377,7 @@
         </is>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1302,9 +2390,9 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="G30" s="1" t="str">
         <f>"{""name"":"""&amp;A30&amp;IF(E30,""",""img"":"""&amp;D30,"")&amp;""",""category"":"""&amp;F30&amp;"""},"</f>
         <v>{"name":"魚","img":"images_Animals/29.jpg","category":"脊索"},</v>
       </c>
@@ -1316,7 +2404,7 @@
         </is>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1329,9 +2417,9 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="G31" s="1" t="str">
         <f>"{""name"":"""&amp;A31&amp;IF(E31,""",""img"":"""&amp;D31,"")&amp;""",""category"":"""&amp;F31&amp;"""},"</f>
         <v>{"name":"青蛙","img":"images_Animals/30.jpg","category":"脊索"},</v>
       </c>
@@ -1343,7 +2431,7 @@
         </is>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1356,9 +2444,9 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="G32" s="1" t="str">
         <f>"{""name"":"""&amp;A32&amp;IF(E32,""",""img"":"""&amp;D32,"")&amp;""",""category"":"""&amp;F32&amp;"""},"</f>
         <v>{"name":"蠑螈","img":"images_Animals/31.jpg","category":"脊索"},</v>
       </c>
@@ -1370,7 +2458,7 @@
         </is>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1383,9 +2471,9 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="G33" s="1" t="str">
         <f>"{""name"":"""&amp;A33&amp;IF(E33,""",""img"":"""&amp;D33,"")&amp;""",""category"":"""&amp;F33&amp;"""},"</f>
         <v>{"name":"蜥蜴","img":"images_Animals/32.jpg","category":"脊索"},</v>
       </c>
@@ -1397,7 +2485,7 @@
         </is>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1410,9 +2498,9 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="G34" s="1" t="str">
         <f>"{""name"":"""&amp;A34&amp;IF(E34,""",""img"":"""&amp;D34,"")&amp;""",""category"":"""&amp;F34&amp;"""},"</f>
         <v>{"name":"蛇","img":"images_Animals/33.jpg","category":"脊索"},</v>
       </c>
@@ -1424,7 +2512,7 @@
         </is>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1437,9 +2525,9 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="G35" s="1" t="str">
         <f>"{""name"":"""&amp;A35&amp;IF(E35,""",""img"":"""&amp;D35,"")&amp;""",""category"":"""&amp;F35&amp;"""},"</f>
         <v>{"name":"龜","img":"images_Animals/34.jpg","category":"脊索"},</v>
       </c>
@@ -1451,7 +2539,7 @@
         </is>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1464,9 +2552,9 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1" t="str">
         <f>"{""name"":"""&amp;A36&amp;IF(E36,""",""img"":"""&amp;D36,"")&amp;""",""category"":"""&amp;F36&amp;"""},"</f>
         <v>{"name":"企鵝","img":"images_Animals/35.jpg","category":"脊索"},</v>
       </c>
@@ -1478,7 +2566,7 @@
         </is>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1491,9 +2579,9 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="2" t="str">
+        <v>43</v>
+      </c>
+      <c r="G37" s="1" t="str">
         <f>"{""name"":"""&amp;A37&amp;IF(E37,""",""img"":"""&amp;D37,"")&amp;""",""category"":"""&amp;F37&amp;"""},"</f>
         <v>{"name":"穿山甲","img":"images_Animals/36.jpg","category":"脊索"},</v>
       </c>

--- a/cardGame/cards.xlsx
+++ b/cardGame/cards.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G13" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/cardGame/cards.xlsx
+++ b/cardGame/cards.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\chihhsiangchien.github.io\cardGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\chihhsiangchien.github.io\cardGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36BD857-72AF-4E99-95BE-C7B980AB7C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="7870" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="7872" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="生物交互關係" sheetId="7" r:id="rId1"/>
@@ -33,13 +32,13 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="4">"無脊椎動物"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="5">"顯微鏡"</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="162913" iterate="1"/>
   <webPublishing css="0" allowPng="1" codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="602">
   <si>
     <t>name</t>
   </si>
@@ -1898,11 +1897,27 @@
     <t>錯誤</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>images/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -2311,16 +2326,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2592C282-F56F-4C9F-B9C0-D0F3DE292203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +2356,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="6" t="s">
         <v>110</v>
       </c>
@@ -2364,7 +2379,7 @@
         <v>{"name":"山貓與兔","category":"掠食"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4" t="s">
         <v>111</v>
       </c>
@@ -2387,7 +2402,7 @@
         <v>{"name":"獵豹與羚羊","category":"掠食"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -2410,7 +2425,7 @@
         <v>{"name":"榕樹與小草","category":"競爭"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
@@ -2433,7 +2448,7 @@
         <v>{"name":"腸道菌之間","category":"競爭"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2456,7 +2471,7 @@
         <v>{"name":"人與共生菌","category":"互利共生"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2479,7 +2494,7 @@
         <v>{"name":"海葵與寄居蟹","category":"互利共生"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="4" t="s">
         <v>118</v>
       </c>
@@ -2502,7 +2517,7 @@
         <v>{"name":"蚜蟲與螞蟻","category":"互利共生"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="4" t="s">
         <v>122</v>
       </c>
@@ -2525,7 +2540,7 @@
         <v>{"name":"蚜蟲與植物","category":"掠食"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="4" t="s">
         <v>121</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>{"name":"鮣魚與鯊魚","category":"片利共生"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="4" t="s">
         <v>123</v>
       </c>
@@ -2571,7 +2586,7 @@
         <v>{"name":"鳥巢蕨與樹","category":"片利共生"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="4" t="s">
         <v>124</v>
       </c>
@@ -2594,7 +2609,7 @@
         <v>{"name":"菟絲子與樹","category":"寄生"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="4" t="s">
         <v>125</v>
       </c>
@@ -2624,23 +2639,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="92" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="3"/>
+    <col min="8" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2668,14 +2683,14 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D37" si="0">B2&amp;C2&amp;".jpg"</f>
-        <v>images/動物/1.jpg</v>
+        <v>images/1.jpg</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2685,7 +2700,7 @@
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" ref="G2:G37" si="1">"{""name"":"""&amp;A2&amp;IF(E2,""",""img"":"""&amp;D2,"")&amp;""",""category"":"""&amp;F2&amp;"""},"</f>
-        <v>{"name":"水母","img":"images/動物/1.jpg","category":"刺絲胞"},</v>
+        <v>{"name":"水母","img":"images/1.jpg","category":"刺絲胞"},</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2693,14 +2708,14 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/2.jpg</v>
+        <v>images/2.jpg</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2710,7 +2725,7 @@
       </c>
       <c r="G3" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"珊瑚","img":"images/動物/2.jpg","category":"刺絲胞"},</v>
+        <v>{"name":"珊瑚","img":"images/2.jpg","category":"刺絲胞"},</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2718,14 +2733,14 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/3.jpg</v>
+        <v>images/3.jpg</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2735,7 +2750,7 @@
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"水螅","img":"images/動物/3.jpg","category":"刺絲胞"},</v>
+        <v>{"name":"水螅","img":"images/3.jpg","category":"刺絲胞"},</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2743,14 +2758,14 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/4.jpg</v>
+        <v>images/4.jpg</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2760,7 +2775,7 @@
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"海葵","img":"images/動物/4.jpg","category":"刺絲胞"},</v>
+        <v>{"name":"海葵","img":"images/4.jpg","category":"刺絲胞"},</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2768,14 +2783,14 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/5.jpg</v>
+        <v>images/5.jpg</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2785,7 +2800,7 @@
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"絛蟲","img":"images/動物/5.jpg","category":"扁形"},</v>
+        <v>{"name":"絛蟲","img":"images/5.jpg","category":"扁形"},</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2793,14 +2808,14 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/6.jpg</v>
+        <v>images/6.jpg</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2810,7 +2825,7 @@
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"渦蟲","img":"images/動物/6.jpg","category":"扁形"},</v>
+        <v>{"name":"渦蟲","img":"images/6.jpg","category":"扁形"},</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2818,14 +2833,14 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/7.jpg</v>
+        <v>images/7.jpg</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2835,7 +2850,7 @@
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"絛蟲","img":"images/動物/7.jpg","category":"扁形"},</v>
+        <v>{"name":"絛蟲","img":"images/7.jpg","category":"扁形"},</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2843,14 +2858,14 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/8.jpg</v>
+        <v>images/8.jpg</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2860,7 +2875,7 @@
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蝸牛","img":"images/動物/8.jpg","category":"軟體"},</v>
+        <v>{"name":"蝸牛","img":"images/8.jpg","category":"軟體"},</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2868,14 +2883,14 @@
         <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/9.jpg</v>
+        <v>images/9.jpg</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -2885,7 +2900,7 @@
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蛞蝓","img":"images/動物/9.jpg","category":"軟體"},</v>
+        <v>{"name":"蛞蝓","img":"images/9.jpg","category":"軟體"},</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2893,14 +2908,14 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/10.jpg</v>
+        <v>images/10.jpg</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -2910,7 +2925,7 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"文蛤","img":"images/動物/10.jpg","category":"軟體"},</v>
+        <v>{"name":"文蛤","img":"images/10.jpg","category":"軟體"},</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2918,14 +2933,14 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/11.jpg</v>
+        <v>images/11.jpg</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2935,7 +2950,7 @@
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"章魚","img":"images/動物/11.jpg","category":"軟體"},</v>
+        <v>{"name":"章魚","img":"images/11.jpg","category":"軟體"},</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2943,14 +2958,14 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/12.jpg</v>
+        <v>images/12.jpg</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2960,7 +2975,7 @@
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"烏賊","img":"images/動物/12.jpg","category":"軟體"},</v>
+        <v>{"name":"烏賊","img":"images/12.jpg","category":"軟體"},</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2968,14 +2983,14 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/13.jpg</v>
+        <v>images/13.jpg</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2985,7 +3000,7 @@
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蚯蚓","img":"images/動物/13.jpg","category":"環節"},</v>
+        <v>{"name":"蚯蚓","img":"images/13.jpg","category":"環節"},</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2993,14 +3008,14 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/14.jpg</v>
+        <v>images/14.jpg</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -3010,7 +3025,7 @@
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"水蛭","img":"images/動物/14.jpg","category":"環節"},</v>
+        <v>{"name":"水蛭","img":"images/14.jpg","category":"環節"},</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3018,14 +3033,14 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/15.jpg</v>
+        <v>images/15.jpg</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -3035,7 +3050,7 @@
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"沙蠶","img":"images/動物/15.jpg","category":"環節"},</v>
+        <v>{"name":"沙蠶","img":"images/15.jpg","category":"環節"},</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3043,14 +3058,14 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/16.jpg</v>
+        <v>images/16.jpg</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -3060,7 +3075,7 @@
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"水蛭","img":"images/動物/16.jpg","category":"環節"},</v>
+        <v>{"name":"水蛭","img":"images/16.jpg","category":"環節"},</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3068,14 +3083,14 @@
         <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/17.jpg</v>
+        <v>images/17.jpg</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -3085,7 +3100,7 @@
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蜈蚣","img":"images/動物/17.jpg","category":"節肢"},</v>
+        <v>{"name":"蜈蚣","img":"images/17.jpg","category":"節肢"},</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3093,14 +3108,14 @@
         <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/18.jpg</v>
+        <v>images/18.jpg</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -3110,7 +3125,7 @@
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蝴蝶","img":"images/動物/18.jpg","category":"節肢"},</v>
+        <v>{"name":"蝴蝶","img":"images/18.jpg","category":"節肢"},</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3118,14 +3133,14 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/19.jpg</v>
+        <v>images/19.jpg</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -3135,7 +3150,7 @@
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"螃蟹","img":"images/動物/19.jpg","category":"節肢"},</v>
+        <v>{"name":"螃蟹","img":"images/19.jpg","category":"節肢"},</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3143,14 +3158,14 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/20.jpg</v>
+        <v>images/20.jpg</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -3160,7 +3175,7 @@
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蜘蛛","img":"images/動物/20.jpg","category":"節肢"},</v>
+        <v>{"name":"蜘蛛","img":"images/20.jpg","category":"節肢"},</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3168,14 +3183,14 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/21.jpg</v>
+        <v>images/21.jpg</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -3185,7 +3200,7 @@
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蝦","img":"images/動物/21.jpg","category":"節肢"},</v>
+        <v>{"name":"蝦","img":"images/21.jpg","category":"節肢"},</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3193,14 +3208,14 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/22.jpg</v>
+        <v>images/22.jpg</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -3210,7 +3225,7 @@
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蒼蠅","img":"images/動物/22.jpg","category":"節肢"},</v>
+        <v>{"name":"蒼蠅","img":"images/22.jpg","category":"節肢"},</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3218,14 +3233,14 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/23.jpg</v>
+        <v>images/23.jpg</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -3235,7 +3250,7 @@
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"海星","img":"images/動物/23.jpg","category":"棘皮"},</v>
+        <v>{"name":"海星","img":"images/23.jpg","category":"棘皮"},</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3243,14 +3258,14 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/24.jpg</v>
+        <v>images/24.jpg</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -3260,7 +3275,7 @@
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"海蛇尾","img":"images/動物/24.jpg","category":"棘皮"},</v>
+        <v>{"name":"海蛇尾","img":"images/24.jpg","category":"棘皮"},</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3268,14 +3283,14 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/25.jpg</v>
+        <v>images/25.jpg</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -3285,7 +3300,7 @@
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"海膽","img":"images/動物/25.jpg","category":"棘皮"},</v>
+        <v>{"name":"海膽","img":"images/25.jpg","category":"棘皮"},</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3293,14 +3308,14 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/26.jpg</v>
+        <v>images/26.jpg</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -3310,7 +3325,7 @@
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"海參","img":"images/動物/26.jpg","category":"棘皮"},</v>
+        <v>{"name":"海參","img":"images/26.jpg","category":"棘皮"},</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3318,14 +3333,14 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/27.jpg</v>
+        <v>images/27.jpg</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -3335,7 +3350,7 @@
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"海參","img":"images/動物/27.jpg","category":"棘皮"},</v>
+        <v>{"name":"海參","img":"images/27.jpg","category":"棘皮"},</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3343,14 +3358,14 @@
         <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/28.jpg</v>
+        <v>images/28.jpg</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -3360,7 +3375,7 @@
       </c>
       <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"鯊魚","img":"images/動物/28.jpg","category":"脊索"},</v>
+        <v>{"name":"鯊魚","img":"images/28.jpg","category":"脊索"},</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3368,14 +3383,14 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/29.jpg</v>
+        <v>images/29.jpg</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -3385,7 +3400,7 @@
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"魚","img":"images/動物/29.jpg","category":"脊索"},</v>
+        <v>{"name":"魚","img":"images/29.jpg","category":"脊索"},</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3393,14 +3408,14 @@
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/30.jpg</v>
+        <v>images/30.jpg</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -3410,7 +3425,7 @@
       </c>
       <c r="G31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"青蛙","img":"images/動物/30.jpg","category":"脊索"},</v>
+        <v>{"name":"青蛙","img":"images/30.jpg","category":"脊索"},</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3418,14 +3433,14 @@
         <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/31.jpg</v>
+        <v>images/31.jpg</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -3435,7 +3450,7 @@
       </c>
       <c r="G32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蠑螈","img":"images/動物/31.jpg","category":"脊索"},</v>
+        <v>{"name":"蠑螈","img":"images/31.jpg","category":"脊索"},</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3443,14 +3458,14 @@
         <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/32.jpg</v>
+        <v>images/32.jpg</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -3460,7 +3475,7 @@
       </c>
       <c r="G33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蜥蜴","img":"images/動物/32.jpg","category":"脊索"},</v>
+        <v>{"name":"蜥蜴","img":"images/32.jpg","category":"脊索"},</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3468,14 +3483,14 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/33.jpg</v>
+        <v>images/33.jpg</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -3485,7 +3500,7 @@
       </c>
       <c r="G34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"蛇","img":"images/動物/33.jpg","category":"脊索"},</v>
+        <v>{"name":"蛇","img":"images/33.jpg","category":"脊索"},</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3493,14 +3508,14 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/34.jpg</v>
+        <v>images/34.jpg</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -3510,7 +3525,7 @@
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"龜","img":"images/動物/34.jpg","category":"脊索"},</v>
+        <v>{"name":"龜","img":"images/34.jpg","category":"脊索"},</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3518,14 +3533,14 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/35.jpg</v>
+        <v>images/35.jpg</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -3535,7 +3550,7 @@
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"企鵝","img":"images/動物/35.jpg","category":"脊索"},</v>
+        <v>{"name":"企鵝","img":"images/35.jpg","category":"脊索"},</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3543,14 +3558,14 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>601</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>images/動物/36.jpg</v>
+        <v>images/36.jpg</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -3560,7 +3575,7 @@
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>{"name":"穿山甲","img":"images/動物/36.jpg","category":"脊索"},</v>
+        <v>{"name":"穿山甲","img":"images/36.jpg","category":"脊索"},</v>
       </c>
     </row>
   </sheetData>
@@ -3572,19 +3587,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F0743D-999C-4150-A5B5-1C5AA4BA8AE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3605,7 +3620,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:7" ht="16.2">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -3628,7 +3643,7 @@
         <v>{"name":"地錢","category":"蘚苔"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17">
+    <row r="3" spans="1:7" ht="16.2">
       <c r="A3" s="7" t="s">
         <v>129</v>
       </c>
@@ -3651,7 +3666,7 @@
         <v>{"name":"土馬騌","category":"蘚苔"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:7" ht="16.2">
       <c r="A4" s="7" t="s">
         <v>130</v>
       </c>
@@ -3674,7 +3689,7 @@
         <v>{"name":"水苔","category":"蘚苔"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:7" ht="16.2">
       <c r="A5" s="7" t="s">
         <v>128</v>
       </c>
@@ -3697,7 +3712,7 @@
         <v>{"name":"地錢","category":"蘚苔"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:7" ht="16.2">
       <c r="A6" s="7" t="s">
         <v>131</v>
       </c>
@@ -3720,7 +3735,7 @@
         <v>{"name":"鐵線蕨","category":"蕨類"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17">
+    <row r="7" spans="1:7" ht="16.2">
       <c r="A7" s="7" t="s">
         <v>132</v>
       </c>
@@ -3743,7 +3758,7 @@
         <v>{"name":"鳥巢蕨","category":"蕨類"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:7" ht="16.2">
       <c r="A8" s="7" t="s">
         <v>133</v>
       </c>
@@ -3766,7 +3781,7 @@
         <v>{"name":"臺灣水韭","category":"蕨類"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7" ht="16.2">
       <c r="A9" s="7" t="s">
         <v>134</v>
       </c>
@@ -3789,7 +3804,7 @@
         <v>{"name":"腎蕨","category":"蕨類"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17">
+    <row r="10" spans="1:7" ht="16.2">
       <c r="A10" s="7" t="s">
         <v>135</v>
       </c>
@@ -3812,7 +3827,7 @@
         <v>{"name":"矮松","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17">
+    <row r="11" spans="1:7" ht="16.2">
       <c r="A11" s="7" t="s">
         <v>136</v>
       </c>
@@ -3835,7 +3850,7 @@
         <v>{"name":"臺灣二葉松","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17">
+    <row r="12" spans="1:7" ht="16.2">
       <c r="A12" s="7" t="s">
         <v>137</v>
       </c>
@@ -3858,7 +3873,7 @@
         <v>{"name":"歐洲赤松","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:7" ht="16.2">
       <c r="A13" s="7" t="s">
         <v>138</v>
       </c>
@@ -3881,7 +3896,7 @@
         <v>{"name":"剛葉松","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17">
+    <row r="14" spans="1:7" ht="16.2">
       <c r="A14" s="7" t="s">
         <v>139</v>
       </c>
@@ -3904,7 +3919,7 @@
         <v>{"name":"銀杏","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17">
+    <row r="15" spans="1:7" ht="16.2">
       <c r="A15" s="7" t="s">
         <v>140</v>
       </c>
@@ -3927,7 +3942,7 @@
         <v>{"name":"蘇鐵","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17">
+    <row r="16" spans="1:7" ht="16.2">
       <c r="A16" s="7" t="s">
         <v>141</v>
       </c>
@@ -3950,7 +3965,7 @@
         <v>{"name":"紅檜","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17">
+    <row r="17" spans="1:7" ht="16.2">
       <c r="A17" s="7" t="s">
         <v>161</v>
       </c>
@@ -3973,7 +3988,7 @@
         <v>{"name":"松樹","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17">
+    <row r="18" spans="1:7" ht="16.2">
       <c r="A18" s="7" t="s">
         <v>142</v>
       </c>
@@ -3996,7 +4011,7 @@
         <v>{"name":"花生","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17">
+    <row r="19" spans="1:7" ht="16.2">
       <c r="A19" s="7" t="s">
         <v>143</v>
       </c>
@@ -4019,7 +4034,7 @@
         <v>{"name":"綠豆","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17">
+    <row r="20" spans="1:7" ht="16.2">
       <c r="A20" s="7" t="s">
         <v>144</v>
       </c>
@@ -4042,7 +4057,7 @@
         <v>{"name":"向日葵","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17">
+    <row r="21" spans="1:7" ht="16.2">
       <c r="A21" s="7" t="s">
         <v>145</v>
       </c>
@@ -4065,7 +4080,7 @@
         <v>{"name":"菩提","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17">
+    <row r="22" spans="1:7" ht="16.2">
       <c r="A22" s="7" t="s">
         <v>146</v>
       </c>
@@ -4088,7 +4103,7 @@
         <v>{"name":"油菜","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17">
+    <row r="23" spans="1:7" ht="16.2">
       <c r="A23" s="7" t="s">
         <v>147</v>
       </c>
@@ -4111,7 +4126,7 @@
         <v>{"name":"油桐","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17">
+    <row r="24" spans="1:7" ht="16.2">
       <c r="A24" s="7" t="s">
         <v>148</v>
       </c>
@@ -4134,7 +4149,7 @@
         <v>{"name":"櫻花","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17">
+    <row r="25" spans="1:7" ht="16.2">
       <c r="A25" s="7" t="s">
         <v>149</v>
       </c>
@@ -4157,7 +4172,7 @@
         <v>{"name":"臺灣百合","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17">
+    <row r="26" spans="1:7" ht="16.2">
       <c r="A26" s="7" t="s">
         <v>150</v>
       </c>
@@ -4180,7 +4195,7 @@
         <v>{"name":"竹子","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17">
+    <row r="27" spans="1:7" ht="16.2">
       <c r="A27" s="7" t="s">
         <v>151</v>
       </c>
@@ -4203,7 +4218,7 @@
         <v>{"name":"玉米","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17">
+    <row r="28" spans="1:7" ht="16.2">
       <c r="A28" s="7" t="s">
         <v>152</v>
       </c>
@@ -4226,7 +4241,7 @@
         <v>{"name":"蔥","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17">
+    <row r="29" spans="1:7" ht="16.2">
       <c r="A29" s="7" t="s">
         <v>153</v>
       </c>
@@ -4249,7 +4264,7 @@
         <v>{"name":"紫錦草","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17">
+    <row r="30" spans="1:7" ht="16.2">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
@@ -4272,7 +4287,7 @@
         <v>{"name":"稻","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17">
+    <row r="31" spans="1:7" ht="16.2">
       <c r="A31" s="7" t="s">
         <v>155</v>
       </c>
@@ -4295,7 +4310,7 @@
         <v>{"name":"蘭花","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17">
+    <row r="32" spans="1:7" ht="16.2">
       <c r="A32" s="7" t="s">
         <v>156</v>
       </c>
@@ -4318,7 +4333,7 @@
         <v>{"name":"橘子","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17">
+    <row r="33" spans="1:7" ht="16.2">
       <c r="A33" s="7" t="s">
         <v>162</v>
       </c>
@@ -4344,20 +4359,21 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B28E5A-3418-4FC0-A18D-7A0B2706E4F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4378,7 +4394,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>98</v>
       </c>
@@ -4401,7 +4417,7 @@
         <v>{"name":"綠色植物","category":"生產者"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4" t="s">
         <v>99</v>
       </c>
@@ -4424,7 +4440,7 @@
         <v>{"name":"藻類","category":"生產者"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="4" t="s">
         <v>100</v>
       </c>
@@ -4447,7 +4463,7 @@
         <v>{"name":"藍綠菌","category":"生產者"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -4470,7 +4486,7 @@
         <v>{"name":"動物","category":"消費者"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="4" t="s">
         <v>102</v>
       </c>
@@ -4493,7 +4509,7 @@
         <v>{"name":"人類","category":"消費者"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="4" t="s">
         <v>103</v>
       </c>
@@ -4516,7 +4532,7 @@
         <v>{"name":"蜜蜂","category":"消費者"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="4" t="s">
         <v>104</v>
       </c>
@@ -4539,7 +4555,7 @@
         <v>{"name":"細菌","category":"分解者"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="4" t="s">
         <v>105</v>
       </c>
@@ -4562,7 +4578,7 @@
         <v>{"name":"真菌","category":"分解者"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="4" t="s">
         <v>106</v>
       </c>
@@ -4592,16 +4608,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C0C343-3B3F-4B58-8C63-439FC214D134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4622,7 +4638,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -4645,7 +4661,7 @@
         <v>{"name":"DNA","category":"正確"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="4" t="s">
         <v>87</v>
       </c>
@@ -4668,7 +4684,7 @@
         <v>{"name":"細胞核","category":"正確"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="4" t="s">
         <v>88</v>
       </c>
@@ -4691,7 +4707,7 @@
         <v>{"name":"細胞","category":"正確"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="4" t="s">
         <v>89</v>
       </c>
@@ -4714,7 +4730,7 @@
         <v>{"name":"組織","category":"正確"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
@@ -4737,7 +4753,7 @@
         <v>{"name":"器官","category":"正確"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="4" t="s">
         <v>91</v>
       </c>
@@ -4760,7 +4776,7 @@
         <v>{"name":"器官系統","category":"正確"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -4783,7 +4799,7 @@
         <v>{"name":"個體","category":"正確"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="4" t="s">
         <v>93</v>
       </c>
@@ -4806,7 +4822,7 @@
         <v>{"name":"族群","category":"正確"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
@@ -4829,7 +4845,7 @@
         <v>{"name":"群集","category":"正確"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="4" t="s">
         <v>95</v>
       </c>
@@ -4852,7 +4868,7 @@
         <v>{"name":"生態系","category":"正確"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="4" t="s">
         <v>96</v>
       </c>
@@ -4875,7 +4891,7 @@
         <v>{"name":"生物圈","category":"正確"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
@@ -4905,16 +4921,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4935,7 +4951,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -4958,7 +4974,7 @@
         <v>{"name":"肺靜脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -4981,7 +4997,7 @@
         <v>{"name":"左心房","category":"正確"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5004,7 +5020,7 @@
         <v>{"name":"左心室","category":"正確"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5027,7 +5043,7 @@
         <v>{"name":"主動脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5050,7 +5066,7 @@
         <v>{"name":"小動脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -5073,7 +5089,7 @@
         <v>{"name":"組織微血管","category":"正確"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5096,7 +5112,7 @@
         <v>{"name":"小靜脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -5119,7 +5135,7 @@
         <v>{"name":"大靜脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -5142,7 +5158,7 @@
         <v>{"name":"右心房","category":"正確"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -5165,7 +5181,7 @@
         <v>{"name":"右心室","category":"正確"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5188,7 +5204,7 @@
         <v>{"name":"肺動脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5224,23 +5240,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="58.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5894,18 +5910,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.54296875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="24.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="24.54296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="24.54296875" style="2"/>
+    <col min="1" max="7" width="24.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="24.5546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6195,16 +6211,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FE4D93-A5EF-4E9D-BEA7-1667C00661EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:7" ht="16.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6225,7 +6241,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:7" ht="16.2">
       <c r="A2" s="7" t="s">
         <v>163</v>
       </c>
@@ -6247,7 +6263,7 @@
         <v>{"name":"魟魚","category":"魚類"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17">
+    <row r="3" spans="1:7" ht="16.2">
       <c r="A3" s="7" t="s">
         <v>77</v>
       </c>
@@ -6269,7 +6285,7 @@
         <v>{"name":"鯊魚","category":"魚類"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:7" ht="16.2">
       <c r="A4" s="7" t="s">
         <v>164</v>
       </c>
@@ -6291,7 +6307,7 @@
         <v>{"name":"小丑魚","category":"魚類"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:7" ht="16.2">
       <c r="A5" s="7" t="s">
         <v>165</v>
       </c>
@@ -6313,7 +6329,7 @@
         <v>{"name":"海馬","category":"魚類"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:7" ht="16.2">
       <c r="A6" s="7" t="s">
         <v>166</v>
       </c>
@@ -6335,7 +6351,7 @@
         <v>{"name":"吳郭魚","category":"魚類"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17">
+    <row r="7" spans="1:7" ht="16.2">
       <c r="A7" s="7" t="s">
         <v>184</v>
       </c>
@@ -6357,7 +6373,7 @@
         <v>{"name":"鯉魚","category":"魚類"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:7" ht="16.2">
       <c r="A8" s="7" t="s">
         <v>190</v>
       </c>
@@ -6379,7 +6395,7 @@
         <v>{"name":"蟾蜍","category":"兩生類"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7" ht="16.2">
       <c r="A9" s="7" t="s">
         <v>189</v>
       </c>
@@ -6401,7 +6417,7 @@
         <v>{"name":"山椒魚","category":"兩生類"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17">
+    <row r="10" spans="1:7" ht="16.2">
       <c r="A10" s="7" t="s">
         <v>188</v>
       </c>
@@ -6423,7 +6439,7 @@
         <v>{"name":"蠑螈","category":"兩生類"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17">
+    <row r="11" spans="1:7" ht="16.2">
       <c r="A11" s="7" t="s">
         <v>191</v>
       </c>
@@ -6445,7 +6461,7 @@
         <v>{"name":"娃娃魚","category":"兩生類"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17">
+    <row r="12" spans="1:7" ht="16.2">
       <c r="A12" s="7" t="s">
         <v>185</v>
       </c>
@@ -6467,7 +6483,7 @@
         <v>{"name":"赤蛙","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:7" ht="16.2">
       <c r="A13" s="7" t="s">
         <v>186</v>
       </c>
@@ -6489,7 +6505,7 @@
         <v>{"name":"南蛇","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17">
+    <row r="14" spans="1:7" ht="16.2">
       <c r="A14" s="7" t="s">
         <v>187</v>
       </c>
@@ -6511,7 +6527,7 @@
         <v>{"name":"攀蜥","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17">
+    <row r="15" spans="1:7" ht="16.2">
       <c r="A15" s="7" t="s">
         <v>167</v>
       </c>
@@ -6533,7 +6549,7 @@
         <v>{"name":"短吻鱷","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17">
+    <row r="16" spans="1:7" ht="16.2">
       <c r="A16" s="7" t="s">
         <v>168</v>
       </c>
@@ -6555,7 +6571,7 @@
         <v>{"name":"斑龜","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17">
+    <row r="17" spans="1:7" ht="16.2">
       <c r="A17" s="7" t="s">
         <v>192</v>
       </c>
@@ -6577,7 +6593,7 @@
         <v>{"name":"蜥蜴","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17">
+    <row r="18" spans="1:7" ht="16.2">
       <c r="A18" s="7" t="s">
         <v>169</v>
       </c>
@@ -6599,7 +6615,7 @@
         <v>{"name":"小白鷺","category":"鳥類"},</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17">
+    <row r="19" spans="1:7" ht="16.2">
       <c r="A19" s="7" t="s">
         <v>170</v>
       </c>
@@ -6621,7 +6637,7 @@
         <v>{"name":"臺灣藍鵲","category":"鳥類"},</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17">
+    <row r="20" spans="1:7" ht="16.2">
       <c r="A20" s="7" t="s">
         <v>171</v>
       </c>
@@ -6643,7 +6659,7 @@
         <v>{"name":"五色鳥","category":"鳥類"},</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17">
+    <row r="21" spans="1:7" ht="16.2">
       <c r="A21" s="7" t="s">
         <v>84</v>
       </c>
@@ -6665,7 +6681,7 @@
         <v>{"name":"企鵝","category":"鳥類"},</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17">
+    <row r="22" spans="1:7" ht="16.2">
       <c r="A22" s="7" t="s">
         <v>172</v>
       </c>
@@ -6687,7 +6703,7 @@
         <v>{"name":"象","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17">
+    <row r="23" spans="1:7" ht="16.2">
       <c r="A23" s="7" t="s">
         <v>173</v>
       </c>
@@ -6709,7 +6725,7 @@
         <v>{"name":"蝙蝠","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17">
+    <row r="24" spans="1:7" ht="16.2">
       <c r="A24" s="7" t="s">
         <v>174</v>
       </c>
@@ -6731,7 +6747,7 @@
         <v>{"name":"鴨嘴獸","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17">
+    <row r="25" spans="1:7" ht="16.2">
       <c r="A25" s="7" t="s">
         <v>175</v>
       </c>
@@ -6753,7 +6769,7 @@
         <v>{"name":"針鼴","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17">
+    <row r="26" spans="1:7" ht="16.2">
       <c r="A26" s="7" t="s">
         <v>176</v>
       </c>
@@ -6775,7 +6791,7 @@
         <v>{"name":"袋鼠","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17">
+    <row r="27" spans="1:7" ht="16.2">
       <c r="A27" s="7" t="s">
         <v>177</v>
       </c>
@@ -6797,7 +6813,7 @@
         <v>{"name":"無尾熊","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17">
+    <row r="28" spans="1:7" ht="16.2">
       <c r="A28" s="7" t="s">
         <v>178</v>
       </c>
@@ -6819,7 +6835,7 @@
         <v>{"name":"虎鯨","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17">
+    <row r="29" spans="1:7" ht="16.2">
       <c r="A29" s="7" t="s">
         <v>193</v>
       </c>
@@ -6848,16 +6864,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4487E58F-ED66-4E33-B4AF-E78959665031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G371"/>
   <sheetViews>
     <sheetView topLeftCell="A280" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:7" ht="16.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6878,7 +6894,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="17">
+    <row r="2" spans="1:7" ht="16.2">
       <c r="A2" s="3" t="s">
         <v>194</v>
       </c>
@@ -6900,7 +6916,7 @@
         <v>{"name":"中正區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17">
+    <row r="3" spans="1:7" ht="16.2">
       <c r="A3" s="3" t="s">
         <v>195</v>
       </c>
@@ -6922,7 +6938,7 @@
         <v>{"name":"大同區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17">
+    <row r="4" spans="1:7" ht="16.2">
       <c r="A4" s="3" t="s">
         <v>196</v>
       </c>
@@ -6944,7 +6960,7 @@
         <v>{"name":"中山區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17">
+    <row r="5" spans="1:7" ht="16.2">
       <c r="A5" s="3" t="s">
         <v>197</v>
       </c>
@@ -6966,7 +6982,7 @@
         <v>{"name":"松山區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17">
+    <row r="6" spans="1:7" ht="16.2">
       <c r="A6" s="3" t="s">
         <v>198</v>
       </c>
@@ -6988,7 +7004,7 @@
         <v>{"name":"大安區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17">
+    <row r="7" spans="1:7" ht="16.2">
       <c r="A7" s="3" t="s">
         <v>199</v>
       </c>
@@ -7010,7 +7026,7 @@
         <v>{"name":"萬華區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17">
+    <row r="8" spans="1:7" ht="16.2">
       <c r="A8" s="3" t="s">
         <v>200</v>
       </c>
@@ -7032,7 +7048,7 @@
         <v>{"name":"信義區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17">
+    <row r="9" spans="1:7" ht="16.2">
       <c r="A9" s="3" t="s">
         <v>201</v>
       </c>
@@ -7054,7 +7070,7 @@
         <v>{"name":"士林區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17">
+    <row r="10" spans="1:7" ht="16.2">
       <c r="A10" s="3" t="s">
         <v>202</v>
       </c>
@@ -7076,7 +7092,7 @@
         <v>{"name":"北投區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17">
+    <row r="11" spans="1:7" ht="16.2">
       <c r="A11" s="3" t="s">
         <v>203</v>
       </c>
@@ -7098,7 +7114,7 @@
         <v>{"name":"內湖區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17">
+    <row r="12" spans="1:7" ht="16.2">
       <c r="A12" s="3" t="s">
         <v>204</v>
       </c>
@@ -7120,7 +7136,7 @@
         <v>{"name":"南港區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17">
+    <row r="13" spans="1:7" ht="16.2">
       <c r="A13" s="3" t="s">
         <v>205</v>
       </c>
@@ -7142,7 +7158,7 @@
         <v>{"name":"文山區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17">
+    <row r="14" spans="1:7" ht="16.2">
       <c r="A14" s="3" t="s">
         <v>206</v>
       </c>
@@ -7164,7 +7180,7 @@
         <v>{"name":"仁愛區","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17">
+    <row r="15" spans="1:7" ht="16.2">
       <c r="A15" s="3" t="s">
         <v>200</v>
       </c>
@@ -7186,7 +7202,7 @@
         <v>{"name":"信義區","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17">
+    <row r="16" spans="1:7" ht="16.2">
       <c r="A16" s="3" t="s">
         <v>207</v>
       </c>
@@ -7208,7 +7224,7 @@
         <v>{"name":"中正區基","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17">
+    <row r="17" spans="1:7" ht="16.2">
       <c r="A17" s="3" t="s">
         <v>208</v>
       </c>
@@ -7230,7 +7246,7 @@
         <v>{"name":"中山區基","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17">
+    <row r="18" spans="1:7" ht="16.2">
       <c r="A18" s="3" t="s">
         <v>209</v>
       </c>
@@ -7252,7 +7268,7 @@
         <v>{"name":"安樂區","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17">
+    <row r="19" spans="1:7" ht="16.2">
       <c r="A19" s="3" t="s">
         <v>210</v>
       </c>
@@ -7274,7 +7290,7 @@
         <v>{"name":"暖暖區","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17">
+    <row r="20" spans="1:7" ht="16.2">
       <c r="A20" s="3" t="s">
         <v>211</v>
       </c>
@@ -7296,7 +7312,7 @@
         <v>{"name":"七堵區","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17">
+    <row r="21" spans="1:7" ht="16.2">
       <c r="A21" s="3" t="s">
         <v>212</v>
       </c>
@@ -7318,7 +7334,7 @@
         <v>{"name":"萬里區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17">
+    <row r="22" spans="1:7" ht="16.2">
       <c r="A22" s="3" t="s">
         <v>213</v>
       </c>
@@ -7340,7 +7356,7 @@
         <v>{"name":"金山區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17">
+    <row r="23" spans="1:7" ht="16.2">
       <c r="A23" s="3" t="s">
         <v>214</v>
       </c>
@@ -7362,7 +7378,7 @@
         <v>{"name":"南竿鄉","category":"連江縣"},</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17">
+    <row r="24" spans="1:7" ht="16.2">
       <c r="A24" s="3" t="s">
         <v>215</v>
       </c>
@@ -7384,7 +7400,7 @@
         <v>{"name":"北竿鄉","category":"連江縣"},</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17">
+    <row r="25" spans="1:7" ht="16.2">
       <c r="A25" s="3" t="s">
         <v>216</v>
       </c>
@@ -7406,7 +7422,7 @@
         <v>{"name":"莒光鄉","category":"連江縣"},</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17">
+    <row r="26" spans="1:7" ht="16.2">
       <c r="A26" s="3" t="s">
         <v>217</v>
       </c>
@@ -7428,7 +7444,7 @@
         <v>{"name":"東引鄉","category":"連江縣"},</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17">
+    <row r="27" spans="1:7" ht="16.2">
       <c r="A27" s="3" t="s">
         <v>218</v>
       </c>
@@ -7450,7 +7466,7 @@
         <v>{"name":"板橋區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17">
+    <row r="28" spans="1:7" ht="16.2">
       <c r="A28" s="3" t="s">
         <v>219</v>
       </c>
@@ -7472,7 +7488,7 @@
         <v>{"name":"汐止區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17">
+    <row r="29" spans="1:7" ht="16.2">
       <c r="A29" s="3" t="s">
         <v>220</v>
       </c>
@@ -7494,7 +7510,7 @@
         <v>{"name":"深坑區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17">
+    <row r="30" spans="1:7" ht="16.2">
       <c r="A30" s="3" t="s">
         <v>221</v>
       </c>
@@ -7516,7 +7532,7 @@
         <v>{"name":"石碇區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17">
+    <row r="31" spans="1:7" ht="16.2">
       <c r="A31" s="3" t="s">
         <v>222</v>
       </c>
@@ -7538,7 +7554,7 @@
         <v>{"name":"瑞芳區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17">
+    <row r="32" spans="1:7" ht="16.2">
       <c r="A32" s="3" t="s">
         <v>223</v>
       </c>
@@ -7560,7 +7576,7 @@
         <v>{"name":"平溪區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17">
+    <row r="33" spans="1:7" ht="16.2">
       <c r="A33" s="3" t="s">
         <v>224</v>
       </c>
@@ -7582,7 +7598,7 @@
         <v>{"name":"雙溪區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17">
+    <row r="34" spans="1:7" ht="16.2">
       <c r="A34" s="3" t="s">
         <v>225</v>
       </c>
@@ -7604,7 +7620,7 @@
         <v>{"name":"貢寮區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17">
+    <row r="35" spans="1:7" ht="16.2">
       <c r="A35" s="3" t="s">
         <v>226</v>
       </c>
@@ -7626,7 +7642,7 @@
         <v>{"name":"新店區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17">
+    <row r="36" spans="1:7" ht="16.2">
       <c r="A36" s="3" t="s">
         <v>227</v>
       </c>
@@ -7648,7 +7664,7 @@
         <v>{"name":"坪林區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17">
+    <row r="37" spans="1:7" ht="16.2">
       <c r="A37" s="3" t="s">
         <v>228</v>
       </c>
@@ -7670,7 +7686,7 @@
         <v>{"name":"烏來區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17">
+    <row r="38" spans="1:7" ht="16.2">
       <c r="A38" s="3" t="s">
         <v>229</v>
       </c>
@@ -7692,7 +7708,7 @@
         <v>{"name":"永和區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17">
+    <row r="39" spans="1:7" ht="16.2">
       <c r="A39" s="3" t="s">
         <v>230</v>
       </c>
@@ -7714,7 +7730,7 @@
         <v>{"name":"中和區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17">
+    <row r="40" spans="1:7" ht="16.2">
       <c r="A40" s="3" t="s">
         <v>231</v>
       </c>
@@ -7736,7 +7752,7 @@
         <v>{"name":"土城區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17">
+    <row r="41" spans="1:7" ht="16.2">
       <c r="A41" s="3" t="s">
         <v>232</v>
       </c>
@@ -7758,7 +7774,7 @@
         <v>{"name":"三峽區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17">
+    <row r="42" spans="1:7" ht="16.2">
       <c r="A42" s="3" t="s">
         <v>233</v>
       </c>
@@ -7780,7 +7796,7 @@
         <v>{"name":"樹林區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17">
+    <row r="43" spans="1:7" ht="16.2">
       <c r="A43" s="3" t="s">
         <v>234</v>
       </c>
@@ -7802,7 +7818,7 @@
         <v>{"name":"鶯歌區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17">
+    <row r="44" spans="1:7" ht="16.2">
       <c r="A44" s="3" t="s">
         <v>235</v>
       </c>
@@ -7824,7 +7840,7 @@
         <v>{"name":"三重區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17">
+    <row r="45" spans="1:7" ht="16.2">
       <c r="A45" s="3" t="s">
         <v>236</v>
       </c>
@@ -7846,7 +7862,7 @@
         <v>{"name":"新莊區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17">
+    <row r="46" spans="1:7" ht="16.2">
       <c r="A46" s="3" t="s">
         <v>237</v>
       </c>
@@ -7868,7 +7884,7 @@
         <v>{"name":"泰山區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17">
+    <row r="47" spans="1:7" ht="16.2">
       <c r="A47" s="3" t="s">
         <v>238</v>
       </c>
@@ -7890,7 +7906,7 @@
         <v>{"name":"林口區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17">
+    <row r="48" spans="1:7" ht="16.2">
       <c r="A48" s="3" t="s">
         <v>239</v>
       </c>
@@ -7912,7 +7928,7 @@
         <v>{"name":"蘆洲區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17">
+    <row r="49" spans="1:7" ht="16.2">
       <c r="A49" s="3" t="s">
         <v>240</v>
       </c>
@@ -7934,7 +7950,7 @@
         <v>{"name":"五股區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17">
+    <row r="50" spans="1:7" ht="16.2">
       <c r="A50" s="3" t="s">
         <v>241</v>
       </c>
@@ -7956,7 +7972,7 @@
         <v>{"name":"八里區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17">
+    <row r="51" spans="1:7" ht="16.2">
       <c r="A51" s="3" t="s">
         <v>242</v>
       </c>
@@ -7978,7 +7994,7 @@
         <v>{"name":"淡水區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17">
+    <row r="52" spans="1:7" ht="16.2">
       <c r="A52" s="3" t="s">
         <v>243</v>
       </c>
@@ -8000,7 +8016,7 @@
         <v>{"name":"三芝區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17">
+    <row r="53" spans="1:7" ht="16.2">
       <c r="A53" s="3" t="s">
         <v>244</v>
       </c>
@@ -8022,7 +8038,7 @@
         <v>{"name":"石門區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17">
+    <row r="54" spans="1:7" ht="16.2">
       <c r="A54" s="3" t="s">
         <v>245</v>
       </c>
@@ -8044,7 +8060,7 @@
         <v>{"name":"宜蘭市","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17">
+    <row r="55" spans="1:7" ht="16.2">
       <c r="A55" s="3" t="s">
         <v>246</v>
       </c>
@@ -8066,7 +8082,7 @@
         <v>{"name":"頭城鎮","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17">
+    <row r="56" spans="1:7" ht="16.2">
       <c r="A56" s="3" t="s">
         <v>247</v>
       </c>
@@ -8088,7 +8104,7 @@
         <v>{"name":"礁溪鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17">
+    <row r="57" spans="1:7" ht="16.2">
       <c r="A57" s="3" t="s">
         <v>248</v>
       </c>
@@ -8110,7 +8126,7 @@
         <v>{"name":"壯圍鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17">
+    <row r="58" spans="1:7" ht="16.2">
       <c r="A58" s="3" t="s">
         <v>249</v>
       </c>
@@ -8132,7 +8148,7 @@
         <v>{"name":"員山鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17">
+    <row r="59" spans="1:7" ht="16.2">
       <c r="A59" s="3" t="s">
         <v>250</v>
       </c>
@@ -8154,7 +8170,7 @@
         <v>{"name":"羅東鎮","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="17">
+    <row r="60" spans="1:7" ht="16.2">
       <c r="A60" s="3" t="s">
         <v>251</v>
       </c>
@@ -8176,7 +8192,7 @@
         <v>{"name":"三星鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17">
+    <row r="61" spans="1:7" ht="16.2">
       <c r="A61" s="3" t="s">
         <v>252</v>
       </c>
@@ -8198,7 +8214,7 @@
         <v>{"name":"大同鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17">
+    <row r="62" spans="1:7" ht="16.2">
       <c r="A62" s="3" t="s">
         <v>253</v>
       </c>
@@ -8220,7 +8236,7 @@
         <v>{"name":"五結鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17">
+    <row r="63" spans="1:7" ht="16.2">
       <c r="A63" s="3" t="s">
         <v>254</v>
       </c>
@@ -8242,7 +8258,7 @@
         <v>{"name":"冬山鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17">
+    <row r="64" spans="1:7" ht="16.2">
       <c r="A64" s="3" t="s">
         <v>255</v>
       </c>
@@ -8264,7 +8280,7 @@
         <v>{"name":"蘇澳鎮","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17">
+    <row r="65" spans="1:7" ht="16.2">
       <c r="A65" s="3" t="s">
         <v>256</v>
       </c>
@@ -8286,7 +8302,7 @@
         <v>{"name":"南澳鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17">
+    <row r="66" spans="1:7" ht="16.2">
       <c r="A66" s="3" t="s">
         <v>257</v>
       </c>
@@ -8308,7 +8324,7 @@
         <v>{"name":"東區竹","category":"新竹市"},</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17">
+    <row r="67" spans="1:7" ht="16.2">
       <c r="A67" s="3" t="s">
         <v>258</v>
       </c>
@@ -8330,7 +8346,7 @@
         <v>{"name":"北區竹","category":"新竹市"},</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17">
+    <row r="68" spans="1:7" ht="16.2">
       <c r="A68" s="3" t="s">
         <v>259</v>
       </c>
@@ -8352,7 +8368,7 @@
         <v>{"name":"香山區","category":"新竹市"},</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17">
+    <row r="69" spans="1:7" ht="16.2">
       <c r="A69" s="3" t="s">
         <v>260</v>
       </c>
@@ -8374,7 +8390,7 @@
         <v>{"name":"竹北市","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17">
+    <row r="70" spans="1:7" ht="16.2">
       <c r="A70" s="3" t="s">
         <v>261</v>
       </c>
@@ -8396,7 +8412,7 @@
         <v>{"name":"湖口鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17">
+    <row r="71" spans="1:7" ht="16.2">
       <c r="A71" s="3" t="s">
         <v>262</v>
       </c>
@@ -8418,7 +8434,7 @@
         <v>{"name":"新豐鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17">
+    <row r="72" spans="1:7" ht="16.2">
       <c r="A72" s="3" t="s">
         <v>263</v>
       </c>
@@ -8440,7 +8456,7 @@
         <v>{"name":"新埔鎮","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17">
+    <row r="73" spans="1:7" ht="16.2">
       <c r="A73" s="3" t="s">
         <v>264</v>
       </c>
@@ -8462,7 +8478,7 @@
         <v>{"name":"關西鎮","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="17">
+    <row r="74" spans="1:7" ht="16.2">
       <c r="A74" s="3" t="s">
         <v>265</v>
       </c>
@@ -8484,7 +8500,7 @@
         <v>{"name":"芎林鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="17">
+    <row r="75" spans="1:7" ht="16.2">
       <c r="A75" s="3" t="s">
         <v>266</v>
       </c>
@@ -8506,7 +8522,7 @@
         <v>{"name":"寶山鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="17">
+    <row r="76" spans="1:7" ht="16.2">
       <c r="A76" s="3" t="s">
         <v>267</v>
       </c>
@@ -8528,7 +8544,7 @@
         <v>{"name":"竹東鎮","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17">
+    <row r="77" spans="1:7" ht="16.2">
       <c r="A77" s="3" t="s">
         <v>268</v>
       </c>
@@ -8550,7 +8566,7 @@
         <v>{"name":"五峰鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17">
+    <row r="78" spans="1:7" ht="16.2">
       <c r="A78" s="3" t="s">
         <v>269</v>
       </c>
@@ -8572,7 +8588,7 @@
         <v>{"name":"橫山鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="17">
+    <row r="79" spans="1:7" ht="16.2">
       <c r="A79" s="3" t="s">
         <v>270</v>
       </c>
@@ -8594,7 +8610,7 @@
         <v>{"name":"尖石鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17">
+    <row r="80" spans="1:7" ht="16.2">
       <c r="A80" s="3" t="s">
         <v>271</v>
       </c>
@@ -8616,7 +8632,7 @@
         <v>{"name":"北埔鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="17">
+    <row r="81" spans="1:7" ht="16.2">
       <c r="A81" s="3" t="s">
         <v>272</v>
       </c>
@@ -8638,7 +8654,7 @@
         <v>{"name":"峨眉鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="17">
+    <row r="82" spans="1:7" ht="16.2">
       <c r="A82" s="3" t="s">
         <v>273</v>
       </c>
@@ -8660,7 +8676,7 @@
         <v>{"name":"中壢區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="17">
+    <row r="83" spans="1:7" ht="16.2">
       <c r="A83" s="3" t="s">
         <v>274</v>
       </c>
@@ -8682,7 +8698,7 @@
         <v>{"name":"平鎮區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17">
+    <row r="84" spans="1:7" ht="16.2">
       <c r="A84" s="3" t="s">
         <v>275</v>
       </c>
@@ -8704,7 +8720,7 @@
         <v>{"name":"龍潭區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="17">
+    <row r="85" spans="1:7" ht="16.2">
       <c r="A85" s="3" t="s">
         <v>276</v>
       </c>
@@ -8726,7 +8742,7 @@
         <v>{"name":"楊梅區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="17">
+    <row r="86" spans="1:7" ht="16.2">
       <c r="A86" s="3" t="s">
         <v>277</v>
       </c>
@@ -8748,7 +8764,7 @@
         <v>{"name":"新屋區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="17">
+    <row r="87" spans="1:7" ht="16.2">
       <c r="A87" s="3" t="s">
         <v>278</v>
       </c>
@@ -8770,7 +8786,7 @@
         <v>{"name":"觀音區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17">
+    <row r="88" spans="1:7" ht="16.2">
       <c r="A88" s="3" t="s">
         <v>279</v>
       </c>
@@ -8792,7 +8808,7 @@
         <v>{"name":"桃園區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17">
+    <row r="89" spans="1:7" ht="16.2">
       <c r="A89" s="3" t="s">
         <v>280</v>
       </c>
@@ -8814,7 +8830,7 @@
         <v>{"name":"龜山區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="17">
+    <row r="90" spans="1:7" ht="16.2">
       <c r="A90" s="3" t="s">
         <v>281</v>
       </c>
@@ -8836,7 +8852,7 @@
         <v>{"name":"八德區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17">
+    <row r="91" spans="1:7" ht="16.2">
       <c r="A91" s="3" t="s">
         <v>282</v>
       </c>
@@ -8858,7 +8874,7 @@
         <v>{"name":"大溪區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17">
+    <row r="92" spans="1:7" ht="16.2">
       <c r="A92" s="3" t="s">
         <v>283</v>
       </c>
@@ -8880,7 +8896,7 @@
         <v>{"name":"復興區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="17">
+    <row r="93" spans="1:7" ht="16.2">
       <c r="A93" s="3" t="s">
         <v>284</v>
       </c>
@@ -8902,7 +8918,7 @@
         <v>{"name":"大園區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="17">
+    <row r="94" spans="1:7" ht="16.2">
       <c r="A94" s="3" t="s">
         <v>285</v>
       </c>
@@ -8924,7 +8940,7 @@
         <v>{"name":"蘆竹區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17">
+    <row r="95" spans="1:7" ht="16.2">
       <c r="A95" s="3" t="s">
         <v>286</v>
       </c>
@@ -8946,7 +8962,7 @@
         <v>{"name":"竹南鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="17">
+    <row r="96" spans="1:7" ht="16.2">
       <c r="A96" s="3" t="s">
         <v>287</v>
       </c>
@@ -8968,7 +8984,7 @@
         <v>{"name":"頭份鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17">
+    <row r="97" spans="1:7" ht="16.2">
       <c r="A97" s="3" t="s">
         <v>288</v>
       </c>
@@ -8990,7 +9006,7 @@
         <v>{"name":"三灣鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="17">
+    <row r="98" spans="1:7" ht="16.2">
       <c r="A98" s="3" t="s">
         <v>289</v>
       </c>
@@ -9012,7 +9028,7 @@
         <v>{"name":"南庄鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17">
+    <row r="99" spans="1:7" ht="16.2">
       <c r="A99" s="3" t="s">
         <v>290</v>
       </c>
@@ -9034,7 +9050,7 @@
         <v>{"name":"獅潭鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17">
+    <row r="100" spans="1:7" ht="16.2">
       <c r="A100" s="3" t="s">
         <v>291</v>
       </c>
@@ -9056,7 +9072,7 @@
         <v>{"name":"後龍鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17">
+    <row r="101" spans="1:7" ht="16.2">
       <c r="A101" s="3" t="s">
         <v>292</v>
       </c>
@@ -9078,7 +9094,7 @@
         <v>{"name":"通霄鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="17">
+    <row r="102" spans="1:7" ht="16.2">
       <c r="A102" s="3" t="s">
         <v>293</v>
       </c>
@@ -9100,7 +9116,7 @@
         <v>{"name":"苑裡鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="17">
+    <row r="103" spans="1:7" ht="16.2">
       <c r="A103" s="3" t="s">
         <v>294</v>
       </c>
@@ -9122,7 +9138,7 @@
         <v>{"name":"苗栗市","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="17">
+    <row r="104" spans="1:7" ht="16.2">
       <c r="A104" s="3" t="s">
         <v>295</v>
       </c>
@@ -9144,7 +9160,7 @@
         <v>{"name":"造橋鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17">
+    <row r="105" spans="1:7" ht="16.2">
       <c r="A105" s="3" t="s">
         <v>296</v>
       </c>
@@ -9166,7 +9182,7 @@
         <v>{"name":"頭屋鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17">
+    <row r="106" spans="1:7" ht="16.2">
       <c r="A106" s="3" t="s">
         <v>297</v>
       </c>
@@ -9188,7 +9204,7 @@
         <v>{"name":"公館鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17">
+    <row r="107" spans="1:7" ht="16.2">
       <c r="A107" s="3" t="s">
         <v>298</v>
       </c>
@@ -9210,7 +9226,7 @@
         <v>{"name":"大湖鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17">
+    <row r="108" spans="1:7" ht="16.2">
       <c r="A108" s="3" t="s">
         <v>299</v>
       </c>
@@ -9232,7 +9248,7 @@
         <v>{"name":"泰安鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="17">
+    <row r="109" spans="1:7" ht="16.2">
       <c r="A109" s="3" t="s">
         <v>300</v>
       </c>
@@ -9254,7 +9270,7 @@
         <v>{"name":"銅鑼鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17">
+    <row r="110" spans="1:7" ht="16.2">
       <c r="A110" s="3" t="s">
         <v>301</v>
       </c>
@@ -9276,7 +9292,7 @@
         <v>{"name":"三義鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17">
+    <row r="111" spans="1:7" ht="16.2">
       <c r="A111" s="3" t="s">
         <v>302</v>
       </c>
@@ -9298,7 +9314,7 @@
         <v>{"name":"西湖鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="17">
+    <row r="112" spans="1:7" ht="16.2">
       <c r="A112" s="3" t="s">
         <v>303</v>
       </c>
@@ -9320,7 +9336,7 @@
         <v>{"name":"卓蘭鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="17">
+    <row r="113" spans="1:7" ht="16.2">
       <c r="A113" s="3" t="s">
         <v>304</v>
       </c>
@@ -9342,7 +9358,7 @@
         <v>{"name":"中區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="17">
+    <row r="114" spans="1:7" ht="16.2">
       <c r="A114" s="3" t="s">
         <v>305</v>
       </c>
@@ -9364,7 +9380,7 @@
         <v>{"name":"東區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="17">
+    <row r="115" spans="1:7" ht="16.2">
       <c r="A115" s="3" t="s">
         <v>306</v>
       </c>
@@ -9386,7 +9402,7 @@
         <v>{"name":"南區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="17">
+    <row r="116" spans="1:7" ht="16.2">
       <c r="A116" s="3" t="s">
         <v>307</v>
       </c>
@@ -9408,7 +9424,7 @@
         <v>{"name":"西區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="17">
+    <row r="117" spans="1:7" ht="16.2">
       <c r="A117" s="3" t="s">
         <v>308</v>
       </c>
@@ -9430,7 +9446,7 @@
         <v>{"name":"北區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="17">
+    <row r="118" spans="1:7" ht="16.2">
       <c r="A118" s="3" t="s">
         <v>309</v>
       </c>
@@ -9452,7 +9468,7 @@
         <v>{"name":"北屯區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="17">
+    <row r="119" spans="1:7" ht="16.2">
       <c r="A119" s="3" t="s">
         <v>310</v>
       </c>
@@ -9474,7 +9490,7 @@
         <v>{"name":"西屯區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="17">
+    <row r="120" spans="1:7" ht="16.2">
       <c r="A120" s="3" t="s">
         <v>311</v>
       </c>
@@ -9496,7 +9512,7 @@
         <v>{"name":"南屯區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17">
+    <row r="121" spans="1:7" ht="16.2">
       <c r="A121" s="3" t="s">
         <v>312</v>
       </c>
@@ -9518,7 +9534,7 @@
         <v>{"name":"太平區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="17">
+    <row r="122" spans="1:7" ht="16.2">
       <c r="A122" s="3" t="s">
         <v>313</v>
       </c>
@@ -9540,7 +9556,7 @@
         <v>{"name":"大里區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17">
+    <row r="123" spans="1:7" ht="16.2">
       <c r="A123" s="3" t="s">
         <v>314</v>
       </c>
@@ -9562,7 +9578,7 @@
         <v>{"name":"霧峰區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="17">
+    <row r="124" spans="1:7" ht="16.2">
       <c r="A124" s="3" t="s">
         <v>315</v>
       </c>
@@ -9584,7 +9600,7 @@
         <v>{"name":"烏日區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17">
+    <row r="125" spans="1:7" ht="16.2">
       <c r="A125" s="3" t="s">
         <v>316</v>
       </c>
@@ -9606,7 +9622,7 @@
         <v>{"name":"豐原區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="17">
+    <row r="126" spans="1:7" ht="16.2">
       <c r="A126" s="3" t="s">
         <v>317</v>
       </c>
@@ -9628,7 +9644,7 @@
         <v>{"name":"后里區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="17">
+    <row r="127" spans="1:7" ht="16.2">
       <c r="A127" s="3" t="s">
         <v>318</v>
       </c>
@@ -9650,7 +9666,7 @@
         <v>{"name":"石岡區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="17">
+    <row r="128" spans="1:7" ht="16.2">
       <c r="A128" s="3" t="s">
         <v>319</v>
       </c>
@@ -9672,7 +9688,7 @@
         <v>{"name":"東勢區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="17">
+    <row r="129" spans="1:7" ht="16.2">
       <c r="A129" s="3" t="s">
         <v>320</v>
       </c>
@@ -9694,7 +9710,7 @@
         <v>{"name":"和平區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="17">
+    <row r="130" spans="1:7" ht="16.2">
       <c r="A130" s="3" t="s">
         <v>321</v>
       </c>
@@ -9716,7 +9732,7 @@
         <v>{"name":"新社區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="17">
+    <row r="131" spans="1:7" ht="16.2">
       <c r="A131" s="3" t="s">
         <v>322</v>
       </c>
@@ -9738,7 +9754,7 @@
         <v>{"name":"潭子區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="17">
+    <row r="132" spans="1:7" ht="16.2">
       <c r="A132" s="3" t="s">
         <v>323</v>
       </c>
@@ -9760,7 +9776,7 @@
         <v>{"name":"大雅區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="17">
+    <row r="133" spans="1:7" ht="16.2">
       <c r="A133" s="3" t="s">
         <v>324</v>
       </c>
@@ -9782,7 +9798,7 @@
         <v>{"name":"神岡區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="17">
+    <row r="134" spans="1:7" ht="16.2">
       <c r="A134" s="3" t="s">
         <v>325</v>
       </c>
@@ -9804,7 +9820,7 @@
         <v>{"name":"大肚區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="17">
+    <row r="135" spans="1:7" ht="16.2">
       <c r="A135" s="3" t="s">
         <v>326</v>
       </c>
@@ -9826,7 +9842,7 @@
         <v>{"name":"沙鹿區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="17">
+    <row r="136" spans="1:7" ht="16.2">
       <c r="A136" s="3" t="s">
         <v>327</v>
       </c>
@@ -9848,7 +9864,7 @@
         <v>{"name":"龍井區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="17">
+    <row r="137" spans="1:7" ht="16.2">
       <c r="A137" s="3" t="s">
         <v>328</v>
       </c>
@@ -9870,7 +9886,7 @@
         <v>{"name":"梧棲區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="17">
+    <row r="138" spans="1:7" ht="16.2">
       <c r="A138" s="3" t="s">
         <v>329</v>
       </c>
@@ -9892,7 +9908,7 @@
         <v>{"name":"清水區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="17">
+    <row r="139" spans="1:7" ht="16.2">
       <c r="A139" s="3" t="s">
         <v>330</v>
       </c>
@@ -9914,7 +9930,7 @@
         <v>{"name":"大甲區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="17">
+    <row r="140" spans="1:7" ht="16.2">
       <c r="A140" s="3" t="s">
         <v>331</v>
       </c>
@@ -9936,7 +9952,7 @@
         <v>{"name":"外埔區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="17">
+    <row r="141" spans="1:7" ht="16.2">
       <c r="A141" s="3" t="s">
         <v>198</v>
       </c>
@@ -9958,7 +9974,7 @@
         <v>{"name":"大安區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="17">
+    <row r="142" spans="1:7" ht="16.2">
       <c r="A142" s="3" t="s">
         <v>332</v>
       </c>
@@ -9980,7 +9996,7 @@
         <v>{"name":"彰化市","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="17">
+    <row r="143" spans="1:7" ht="16.2">
       <c r="A143" s="3" t="s">
         <v>333</v>
       </c>
@@ -10002,7 +10018,7 @@
         <v>{"name":"芬園鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="17">
+    <row r="144" spans="1:7" ht="16.2">
       <c r="A144" s="3" t="s">
         <v>334</v>
       </c>
@@ -10024,7 +10040,7 @@
         <v>{"name":"花壇鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="17">
+    <row r="145" spans="1:7" ht="16.2">
       <c r="A145" s="3" t="s">
         <v>335</v>
       </c>
@@ -10046,7 +10062,7 @@
         <v>{"name":"秀水鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="17">
+    <row r="146" spans="1:7" ht="16.2">
       <c r="A146" s="3" t="s">
         <v>336</v>
       </c>
@@ -10068,7 +10084,7 @@
         <v>{"name":"鹿港鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="17">
+    <row r="147" spans="1:7" ht="16.2">
       <c r="A147" s="3" t="s">
         <v>337</v>
       </c>
@@ -10090,7 +10106,7 @@
         <v>{"name":"福興鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="17">
+    <row r="148" spans="1:7" ht="16.2">
       <c r="A148" s="3" t="s">
         <v>338</v>
       </c>
@@ -10112,7 +10128,7 @@
         <v>{"name":"線西鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="17">
+    <row r="149" spans="1:7" ht="16.2">
       <c r="A149" s="3" t="s">
         <v>339</v>
       </c>
@@ -10134,7 +10150,7 @@
         <v>{"name":"和美鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="17">
+    <row r="150" spans="1:7" ht="16.2">
       <c r="A150" s="3" t="s">
         <v>340</v>
       </c>
@@ -10156,7 +10172,7 @@
         <v>{"name":"伸港鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="17">
+    <row r="151" spans="1:7" ht="16.2">
       <c r="A151" s="3" t="s">
         <v>341</v>
       </c>
@@ -10178,7 +10194,7 @@
         <v>{"name":"員林鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="17">
+    <row r="152" spans="1:7" ht="16.2">
       <c r="A152" s="3" t="s">
         <v>342</v>
       </c>
@@ -10200,7 +10216,7 @@
         <v>{"name":"社頭鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="17">
+    <row r="153" spans="1:7" ht="16.2">
       <c r="A153" s="3" t="s">
         <v>343</v>
       </c>
@@ -10222,7 +10238,7 @@
         <v>{"name":"永靖鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="17">
+    <row r="154" spans="1:7" ht="16.2">
       <c r="A154" s="3" t="s">
         <v>344</v>
       </c>
@@ -10244,7 +10260,7 @@
         <v>{"name":"埔心鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="17">
+    <row r="155" spans="1:7" ht="16.2">
       <c r="A155" s="3" t="s">
         <v>345</v>
       </c>
@@ -10266,7 +10282,7 @@
         <v>{"name":"溪湖鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="17">
+    <row r="156" spans="1:7" ht="16.2">
       <c r="A156" s="3" t="s">
         <v>346</v>
       </c>
@@ -10288,7 +10304,7 @@
         <v>{"name":"大村鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="17">
+    <row r="157" spans="1:7" ht="16.2">
       <c r="A157" s="3" t="s">
         <v>347</v>
       </c>
@@ -10310,7 +10326,7 @@
         <v>{"name":"埔鹽鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="17">
+    <row r="158" spans="1:7" ht="16.2">
       <c r="A158" s="3" t="s">
         <v>348</v>
       </c>
@@ -10332,7 +10348,7 @@
         <v>{"name":"田中鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="17">
+    <row r="159" spans="1:7" ht="16.2">
       <c r="A159" s="3" t="s">
         <v>349</v>
       </c>
@@ -10354,7 +10370,7 @@
         <v>{"name":"北斗鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="17">
+    <row r="160" spans="1:7" ht="16.2">
       <c r="A160" s="3" t="s">
         <v>350</v>
       </c>
@@ -10376,7 +10392,7 @@
         <v>{"name":"田尾鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="17">
+    <row r="161" spans="1:7" ht="16.2">
       <c r="A161" s="3" t="s">
         <v>351</v>
       </c>
@@ -10398,7 +10414,7 @@
         <v>{"name":"埤頭鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17">
+    <row r="162" spans="1:7" ht="16.2">
       <c r="A162" s="3" t="s">
         <v>352</v>
       </c>
@@ -10420,7 +10436,7 @@
         <v>{"name":"溪州鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="17">
+    <row r="163" spans="1:7" ht="16.2">
       <c r="A163" s="3" t="s">
         <v>353</v>
       </c>
@@ -10442,7 +10458,7 @@
         <v>{"name":"竹塘鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="17">
+    <row r="164" spans="1:7" ht="16.2">
       <c r="A164" s="3" t="s">
         <v>354</v>
       </c>
@@ -10464,7 +10480,7 @@
         <v>{"name":"二林鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="17">
+    <row r="165" spans="1:7" ht="16.2">
       <c r="A165" s="3" t="s">
         <v>355</v>
       </c>
@@ -10486,7 +10502,7 @@
         <v>{"name":"大城鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="17">
+    <row r="166" spans="1:7" ht="16.2">
       <c r="A166" s="3" t="s">
         <v>356</v>
       </c>
@@ -10508,7 +10524,7 @@
         <v>{"name":"芳苑鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17">
+    <row r="167" spans="1:7" ht="16.2">
       <c r="A167" s="3" t="s">
         <v>357</v>
       </c>
@@ -10530,7 +10546,7 @@
         <v>{"name":"二水鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="17">
+    <row r="168" spans="1:7" ht="16.2">
       <c r="A168" s="3" t="s">
         <v>358</v>
       </c>
@@ -10552,7 +10568,7 @@
         <v>{"name":"南投市","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="17">
+    <row r="169" spans="1:7" ht="16.2">
       <c r="A169" s="3" t="s">
         <v>359</v>
       </c>
@@ -10574,7 +10590,7 @@
         <v>{"name":"中寮鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="17">
+    <row r="170" spans="1:7" ht="16.2">
       <c r="A170" s="3" t="s">
         <v>360</v>
       </c>
@@ -10596,7 +10612,7 @@
         <v>{"name":"草屯鎮","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="17">
+    <row r="171" spans="1:7" ht="16.2">
       <c r="A171" s="3" t="s">
         <v>361</v>
       </c>
@@ -10618,7 +10634,7 @@
         <v>{"name":"國姓鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="17">
+    <row r="172" spans="1:7" ht="16.2">
       <c r="A172" s="3" t="s">
         <v>362</v>
       </c>
@@ -10640,7 +10656,7 @@
         <v>{"name":"埔里鎮","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="17">
+    <row r="173" spans="1:7" ht="16.2">
       <c r="A173" s="3" t="s">
         <v>363</v>
       </c>
@@ -10662,7 +10678,7 @@
         <v>{"name":"仁愛鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="17">
+    <row r="174" spans="1:7" ht="16.2">
       <c r="A174" s="3" t="s">
         <v>364</v>
       </c>
@@ -10684,7 +10700,7 @@
         <v>{"name":"名間鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="17">
+    <row r="175" spans="1:7" ht="16.2">
       <c r="A175" s="3" t="s">
         <v>365</v>
       </c>
@@ -10706,7 +10722,7 @@
         <v>{"name":"集集鎮","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="17">
+    <row r="176" spans="1:7" ht="16.2">
       <c r="A176" s="3" t="s">
         <v>366</v>
       </c>
@@ -10728,7 +10744,7 @@
         <v>{"name":"水里鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="17">
+    <row r="177" spans="1:7" ht="16.2">
       <c r="A177" s="3" t="s">
         <v>367</v>
       </c>
@@ -10750,7 +10766,7 @@
         <v>{"name":"魚池鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="17">
+    <row r="178" spans="1:7" ht="16.2">
       <c r="A178" s="3" t="s">
         <v>368</v>
       </c>
@@ -10772,7 +10788,7 @@
         <v>{"name":"信義鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17">
+    <row r="179" spans="1:7" ht="16.2">
       <c r="A179" s="3" t="s">
         <v>369</v>
       </c>
@@ -10794,7 +10810,7 @@
         <v>{"name":"竹山鎮","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="17">
+    <row r="180" spans="1:7" ht="16.2">
       <c r="A180" s="3" t="s">
         <v>370</v>
       </c>
@@ -10816,7 +10832,7 @@
         <v>{"name":"鹿谷鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="17">
+    <row r="181" spans="1:7" ht="16.2">
       <c r="A181" s="3" t="s">
         <v>371</v>
       </c>
@@ -10838,7 +10854,7 @@
         <v>{"name":"東區嘉","category":"嘉義市"},</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="17">
+    <row r="182" spans="1:7" ht="16.2">
       <c r="A182" s="3" t="s">
         <v>372</v>
       </c>
@@ -10860,7 +10876,7 @@
         <v>{"name":"西區嘉","category":"嘉義市"},</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="17">
+    <row r="183" spans="1:7" ht="16.2">
       <c r="A183" s="3" t="s">
         <v>373</v>
       </c>
@@ -10882,7 +10898,7 @@
         <v>{"name":"番路鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="17">
+    <row r="184" spans="1:7" ht="16.2">
       <c r="A184" s="3" t="s">
         <v>374</v>
       </c>
@@ -10904,7 +10920,7 @@
         <v>{"name":"梅山鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="17">
+    <row r="185" spans="1:7" ht="16.2">
       <c r="A185" s="3" t="s">
         <v>375</v>
       </c>
@@ -10926,7 +10942,7 @@
         <v>{"name":"竹崎鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="17">
+    <row r="186" spans="1:7" ht="16.2">
       <c r="A186" s="3" t="s">
         <v>376</v>
       </c>
@@ -10948,7 +10964,7 @@
         <v>{"name":"阿里山鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="17">
+    <row r="187" spans="1:7" ht="16.2">
       <c r="A187" s="3" t="s">
         <v>377</v>
       </c>
@@ -10970,7 +10986,7 @@
         <v>{"name":"中埔鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="17">
+    <row r="188" spans="1:7" ht="16.2">
       <c r="A188" s="3" t="s">
         <v>378</v>
       </c>
@@ -10992,7 +11008,7 @@
         <v>{"name":"大埔鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="17">
+    <row r="189" spans="1:7" ht="16.2">
       <c r="A189" s="3" t="s">
         <v>379</v>
       </c>
@@ -11014,7 +11030,7 @@
         <v>{"name":"水上鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="17">
+    <row r="190" spans="1:7" ht="16.2">
       <c r="A190" s="3" t="s">
         <v>380</v>
       </c>
@@ -11036,7 +11052,7 @@
         <v>{"name":"鹿草鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="17">
+    <row r="191" spans="1:7" ht="16.2">
       <c r="A191" s="3" t="s">
         <v>381</v>
       </c>
@@ -11058,7 +11074,7 @@
         <v>{"name":"太保市","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="17">
+    <row r="192" spans="1:7" ht="16.2">
       <c r="A192" s="3" t="s">
         <v>382</v>
       </c>
@@ -11080,7 +11096,7 @@
         <v>{"name":"朴子市","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="17">
+    <row r="193" spans="1:7" ht="16.2">
       <c r="A193" s="3" t="s">
         <v>383</v>
       </c>
@@ -11102,7 +11118,7 @@
         <v>{"name":"東石鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="17">
+    <row r="194" spans="1:7" ht="16.2">
       <c r="A194" s="3" t="s">
         <v>384</v>
       </c>
@@ -11124,7 +11140,7 @@
         <v>{"name":"六腳鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="17">
+    <row r="195" spans="1:7" ht="16.2">
       <c r="A195" s="3" t="s">
         <v>385</v>
       </c>
@@ -11146,7 +11162,7 @@
         <v>{"name":"新港鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="17">
+    <row r="196" spans="1:7" ht="16.2">
       <c r="A196" s="3" t="s">
         <v>386</v>
       </c>
@@ -11168,7 +11184,7 @@
         <v>{"name":"民雄鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="17">
+    <row r="197" spans="1:7" ht="16.2">
       <c r="A197" s="3" t="s">
         <v>387</v>
       </c>
@@ -11190,7 +11206,7 @@
         <v>{"name":"大林鎮","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="17">
+    <row r="198" spans="1:7" ht="16.2">
       <c r="A198" s="3" t="s">
         <v>388</v>
       </c>
@@ -11212,7 +11228,7 @@
         <v>{"name":"溪口鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="17">
+    <row r="199" spans="1:7" ht="16.2">
       <c r="A199" s="3" t="s">
         <v>389</v>
       </c>
@@ -11234,7 +11250,7 @@
         <v>{"name":"義竹鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="17">
+    <row r="200" spans="1:7" ht="16.2">
       <c r="A200" s="3" t="s">
         <v>390</v>
       </c>
@@ -11256,7 +11272,7 @@
         <v>{"name":"布袋鎮","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="17">
+    <row r="201" spans="1:7" ht="16.2">
       <c r="A201" s="3" t="s">
         <v>391</v>
       </c>
@@ -11278,7 +11294,7 @@
         <v>{"name":"斗南鎮","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="17">
+    <row r="202" spans="1:7" ht="16.2">
       <c r="A202" s="3" t="s">
         <v>392</v>
       </c>
@@ -11300,7 +11316,7 @@
         <v>{"name":"大埤鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="17">
+    <row r="203" spans="1:7" ht="16.2">
       <c r="A203" s="3" t="s">
         <v>393</v>
       </c>
@@ -11322,7 +11338,7 @@
         <v>{"name":"虎尾鎮","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="17">
+    <row r="204" spans="1:7" ht="16.2">
       <c r="A204" s="3" t="s">
         <v>394</v>
       </c>
@@ -11344,7 +11360,7 @@
         <v>{"name":"土庫鎮","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="17">
+    <row r="205" spans="1:7" ht="16.2">
       <c r="A205" s="3" t="s">
         <v>395</v>
       </c>
@@ -11366,7 +11382,7 @@
         <v>{"name":"褒忠鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="17">
+    <row r="206" spans="1:7" ht="16.2">
       <c r="A206" s="3" t="s">
         <v>396</v>
       </c>
@@ -11388,7 +11404,7 @@
         <v>{"name":"東勢鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="17">
+    <row r="207" spans="1:7" ht="16.2">
       <c r="A207" s="3" t="s">
         <v>397</v>
       </c>
@@ -11410,7 +11426,7 @@
         <v>{"name":"台西鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="17">
+    <row r="208" spans="1:7" ht="16.2">
       <c r="A208" s="3" t="s">
         <v>398</v>
       </c>
@@ -11432,7 +11448,7 @@
         <v>{"name":"崙背鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="17">
+    <row r="209" spans="1:7" ht="16.2">
       <c r="A209" s="3" t="s">
         <v>399</v>
       </c>
@@ -11454,7 +11470,7 @@
         <v>{"name":"麥寮鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="17">
+    <row r="210" spans="1:7" ht="16.2">
       <c r="A210" s="3" t="s">
         <v>400</v>
       </c>
@@ -11476,7 +11492,7 @@
         <v>{"name":"斗六市","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="17">
+    <row r="211" spans="1:7" ht="16.2">
       <c r="A211" s="3" t="s">
         <v>401</v>
       </c>
@@ -11498,7 +11514,7 @@
         <v>{"name":"林內鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="17">
+    <row r="212" spans="1:7" ht="16.2">
       <c r="A212" s="3" t="s">
         <v>402</v>
       </c>
@@ -11520,7 +11536,7 @@
         <v>{"name":"古坑鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="17">
+    <row r="213" spans="1:7" ht="16.2">
       <c r="A213" s="3" t="s">
         <v>403</v>
       </c>
@@ -11542,7 +11558,7 @@
         <v>{"name":"莿桐鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="17">
+    <row r="214" spans="1:7" ht="16.2">
       <c r="A214" s="3" t="s">
         <v>404</v>
       </c>
@@ -11564,7 +11580,7 @@
         <v>{"name":"西螺鎮","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="17">
+    <row r="215" spans="1:7" ht="16.2">
       <c r="A215" s="3" t="s">
         <v>405</v>
       </c>
@@ -11586,7 +11602,7 @@
         <v>{"name":"二崙鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="17">
+    <row r="216" spans="1:7" ht="16.2">
       <c r="A216" s="3" t="s">
         <v>406</v>
       </c>
@@ -11608,7 +11624,7 @@
         <v>{"name":"北港鎮","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="17">
+    <row r="217" spans="1:7" ht="16.2">
       <c r="A217" s="3" t="s">
         <v>407</v>
       </c>
@@ -11630,7 +11646,7 @@
         <v>{"name":"水林鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="17">
+    <row r="218" spans="1:7" ht="16.2">
       <c r="A218" s="3" t="s">
         <v>408</v>
       </c>
@@ -11652,7 +11668,7 @@
         <v>{"name":"口湖鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="17">
+    <row r="219" spans="1:7" ht="16.2">
       <c r="A219" s="3" t="s">
         <v>409</v>
       </c>
@@ -11674,7 +11690,7 @@
         <v>{"name":"四湖鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="17">
+    <row r="220" spans="1:7" ht="16.2">
       <c r="A220" s="3" t="s">
         <v>410</v>
       </c>
@@ -11696,7 +11712,7 @@
         <v>{"name":"元長鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="17">
+    <row r="221" spans="1:7" ht="16.2">
       <c r="A221" s="3" t="s">
         <v>411</v>
       </c>
@@ -11718,7 +11734,7 @@
         <v>{"name":"中西區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="17">
+    <row r="222" spans="1:7" ht="16.2">
       <c r="A222" s="3" t="s">
         <v>412</v>
       </c>
@@ -11740,7 +11756,7 @@
         <v>{"name":"東區南","category":"台南市"},</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="17">
+    <row r="223" spans="1:7" ht="16.2">
       <c r="A223" s="3" t="s">
         <v>413</v>
       </c>
@@ -11762,7 +11778,7 @@
         <v>{"name":"南區南","category":"台南市"},</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="17">
+    <row r="224" spans="1:7" ht="16.2">
       <c r="A224" s="3" t="s">
         <v>414</v>
       </c>
@@ -11784,7 +11800,7 @@
         <v>{"name":"北區南","category":"台南市"},</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="17">
+    <row r="225" spans="1:7" ht="16.2">
       <c r="A225" s="3" t="s">
         <v>415</v>
       </c>
@@ -11806,7 +11822,7 @@
         <v>{"name":"安平區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="17">
+    <row r="226" spans="1:7" ht="16.2">
       <c r="A226" s="3" t="s">
         <v>416</v>
       </c>
@@ -11828,7 +11844,7 @@
         <v>{"name":"安南區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="17">
+    <row r="227" spans="1:7" ht="16.2">
       <c r="A227" s="3" t="s">
         <v>417</v>
       </c>
@@ -11850,7 +11866,7 @@
         <v>{"name":"永康區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="17">
+    <row r="228" spans="1:7" ht="16.2">
       <c r="A228" s="3" t="s">
         <v>418</v>
       </c>
@@ -11872,7 +11888,7 @@
         <v>{"name":"歸仁區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="17">
+    <row r="229" spans="1:7" ht="16.2">
       <c r="A229" s="3" t="s">
         <v>419</v>
       </c>
@@ -11894,7 +11910,7 @@
         <v>{"name":"新化區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="17">
+    <row r="230" spans="1:7" ht="16.2">
       <c r="A230" s="3" t="s">
         <v>420</v>
       </c>
@@ -11916,7 +11932,7 @@
         <v>{"name":"左鎮區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="17">
+    <row r="231" spans="1:7" ht="16.2">
       <c r="A231" s="3" t="s">
         <v>421</v>
       </c>
@@ -11938,7 +11954,7 @@
         <v>{"name":"玉井區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="17">
+    <row r="232" spans="1:7" ht="16.2">
       <c r="A232" s="3" t="s">
         <v>422</v>
       </c>
@@ -11960,7 +11976,7 @@
         <v>{"name":"楠西區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="17">
+    <row r="233" spans="1:7" ht="16.2">
       <c r="A233" s="3" t="s">
         <v>423</v>
       </c>
@@ -11982,7 +11998,7 @@
         <v>{"name":"南化區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="17">
+    <row r="234" spans="1:7" ht="16.2">
       <c r="A234" s="3" t="s">
         <v>424</v>
       </c>
@@ -12004,7 +12020,7 @@
         <v>{"name":"仁德區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="17">
+    <row r="235" spans="1:7" ht="16.2">
       <c r="A235" s="3" t="s">
         <v>425</v>
       </c>
@@ -12026,7 +12042,7 @@
         <v>{"name":"關廟區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="17">
+    <row r="236" spans="1:7" ht="16.2">
       <c r="A236" s="3" t="s">
         <v>426</v>
       </c>
@@ -12048,7 +12064,7 @@
         <v>{"name":"龍崎區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="17">
+    <row r="237" spans="1:7" ht="16.2">
       <c r="A237" s="3" t="s">
         <v>427</v>
       </c>
@@ -12070,7 +12086,7 @@
         <v>{"name":"官田區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="17">
+    <row r="238" spans="1:7" ht="16.2">
       <c r="A238" s="3" t="s">
         <v>428</v>
       </c>
@@ -12092,7 +12108,7 @@
         <v>{"name":"麻豆區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="17">
+    <row r="239" spans="1:7" ht="16.2">
       <c r="A239" s="3" t="s">
         <v>429</v>
       </c>
@@ -12114,7 +12130,7 @@
         <v>{"name":"佳里區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="17">
+    <row r="240" spans="1:7" ht="16.2">
       <c r="A240" s="3" t="s">
         <v>430</v>
       </c>
@@ -12136,7 +12152,7 @@
         <v>{"name":"西港區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="17">
+    <row r="241" spans="1:7" ht="16.2">
       <c r="A241" s="3" t="s">
         <v>431</v>
       </c>
@@ -12158,7 +12174,7 @@
         <v>{"name":"七股區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="17">
+    <row r="242" spans="1:7" ht="16.2">
       <c r="A242" s="3" t="s">
         <v>432</v>
       </c>
@@ -12180,7 +12196,7 @@
         <v>{"name":"將軍區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="17">
+    <row r="243" spans="1:7" ht="16.2">
       <c r="A243" s="3" t="s">
         <v>433</v>
       </c>
@@ -12202,7 +12218,7 @@
         <v>{"name":"學甲區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="17">
+    <row r="244" spans="1:7" ht="16.2">
       <c r="A244" s="3" t="s">
         <v>434</v>
       </c>
@@ -12224,7 +12240,7 @@
         <v>{"name":"北門區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="17">
+    <row r="245" spans="1:7" ht="16.2">
       <c r="A245" s="3" t="s">
         <v>435</v>
       </c>
@@ -12246,7 +12262,7 @@
         <v>{"name":"新營區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="17">
+    <row r="246" spans="1:7" ht="16.2">
       <c r="A246" s="3" t="s">
         <v>436</v>
       </c>
@@ -12268,7 +12284,7 @@
         <v>{"name":"後壁區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="17">
+    <row r="247" spans="1:7" ht="16.2">
       <c r="A247" s="3" t="s">
         <v>437</v>
       </c>
@@ -12290,7 +12306,7 @@
         <v>{"name":"白河區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="17">
+    <row r="248" spans="1:7" ht="16.2">
       <c r="A248" s="3" t="s">
         <v>438</v>
       </c>
@@ -12312,7 +12328,7 @@
         <v>{"name":"東山區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="17">
+    <row r="249" spans="1:7" ht="16.2">
       <c r="A249" s="3" t="s">
         <v>439</v>
       </c>
@@ -12334,7 +12350,7 @@
         <v>{"name":"六甲區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="17">
+    <row r="250" spans="1:7" ht="16.2">
       <c r="A250" s="3" t="s">
         <v>440</v>
       </c>
@@ -12356,7 +12372,7 @@
         <v>{"name":"下營區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="17">
+    <row r="251" spans="1:7" ht="16.2">
       <c r="A251" s="3" t="s">
         <v>441</v>
       </c>
@@ -12378,7 +12394,7 @@
         <v>{"name":"柳營區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="17">
+    <row r="252" spans="1:7" ht="16.2">
       <c r="A252" s="3" t="s">
         <v>442</v>
       </c>
@@ -12400,7 +12416,7 @@
         <v>{"name":"鹽水區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="17">
+    <row r="253" spans="1:7" ht="16.2">
       <c r="A253" s="3" t="s">
         <v>443</v>
       </c>
@@ -12422,7 +12438,7 @@
         <v>{"name":"善化區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="17">
+    <row r="254" spans="1:7" ht="16.2">
       <c r="A254" s="3" t="s">
         <v>444</v>
       </c>
@@ -12444,7 +12460,7 @@
         <v>{"name":"大內區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="17">
+    <row r="255" spans="1:7" ht="16.2">
       <c r="A255" s="3" t="s">
         <v>445</v>
       </c>
@@ -12466,7 +12482,7 @@
         <v>{"name":"山上區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="17">
+    <row r="256" spans="1:7" ht="16.2">
       <c r="A256" s="3" t="s">
         <v>446</v>
       </c>
@@ -12488,7 +12504,7 @@
         <v>{"name":"新市區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="17">
+    <row r="257" spans="1:7" ht="16.2">
       <c r="A257" s="3" t="s">
         <v>447</v>
       </c>
@@ -12510,7 +12526,7 @@
         <v>{"name":"安定區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="17">
+    <row r="258" spans="1:7" ht="16.2">
       <c r="A258" s="3" t="s">
         <v>448</v>
       </c>
@@ -12532,7 +12548,7 @@
         <v>{"name":"新興區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="17">
+    <row r="259" spans="1:7" ht="16.2">
       <c r="A259" s="3" t="s">
         <v>449</v>
       </c>
@@ -12554,7 +12570,7 @@
         <v>{"name":"前金區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="17">
+    <row r="260" spans="1:7" ht="16.2">
       <c r="A260" s="3" t="s">
         <v>450</v>
       </c>
@@ -12576,7 +12592,7 @@
         <v>{"name":"苓雅區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="17">
+    <row r="261" spans="1:7" ht="16.2">
       <c r="A261" s="3" t="s">
         <v>451</v>
       </c>
@@ -12598,7 +12614,7 @@
         <v>{"name":"鹽埕區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="17">
+    <row r="262" spans="1:7" ht="16.2">
       <c r="A262" s="3" t="s">
         <v>452</v>
       </c>
@@ -12620,7 +12636,7 @@
         <v>{"name":"鼓山區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="17">
+    <row r="263" spans="1:7" ht="16.2">
       <c r="A263" s="3" t="s">
         <v>453</v>
       </c>
@@ -12642,7 +12658,7 @@
         <v>{"name":"旗津區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="17">
+    <row r="264" spans="1:7" ht="16.2">
       <c r="A264" s="3" t="s">
         <v>454</v>
       </c>
@@ -12664,7 +12680,7 @@
         <v>{"name":"前鎮區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="17">
+    <row r="265" spans="1:7" ht="16.2">
       <c r="A265" s="3" t="s">
         <v>455</v>
       </c>
@@ -12686,7 +12702,7 @@
         <v>{"name":"三民區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="17">
+    <row r="266" spans="1:7" ht="16.2">
       <c r="A266" s="3" t="s">
         <v>456</v>
       </c>
@@ -12708,7 +12724,7 @@
         <v>{"name":"楠梓區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="17">
+    <row r="267" spans="1:7" ht="16.2">
       <c r="A267" s="3" t="s">
         <v>457</v>
       </c>
@@ -12730,7 +12746,7 @@
         <v>{"name":"小港區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="17">
+    <row r="268" spans="1:7" ht="16.2">
       <c r="A268" s="3" t="s">
         <v>458</v>
       </c>
@@ -12752,7 +12768,7 @@
         <v>{"name":"左營區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="17">
+    <row r="269" spans="1:7" ht="16.2">
       <c r="A269" s="3" t="s">
         <v>459</v>
       </c>
@@ -12774,7 +12790,7 @@
         <v>{"name":"仁武區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="17">
+    <row r="270" spans="1:7" ht="16.2">
       <c r="A270" s="3" t="s">
         <v>460</v>
       </c>
@@ -12796,7 +12812,7 @@
         <v>{"name":"大社區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="17">
+    <row r="271" spans="1:7" ht="16.2">
       <c r="A271" s="3" t="s">
         <v>461</v>
       </c>
@@ -12818,7 +12834,7 @@
         <v>{"name":"東沙群島","category":"南海島"},</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="17">
+    <row r="272" spans="1:7" ht="16.2">
       <c r="A272" s="3" t="s">
         <v>462</v>
       </c>
@@ -12840,7 +12856,7 @@
         <v>{"name":"南沙群島","category":"南海島"},</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="17">
+    <row r="273" spans="1:7" ht="16.2">
       <c r="A273" s="3" t="s">
         <v>463</v>
       </c>
@@ -12862,7 +12878,7 @@
         <v>{"name":"岡山區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="17">
+    <row r="274" spans="1:7" ht="16.2">
       <c r="A274" s="3" t="s">
         <v>464</v>
       </c>
@@ -12884,7 +12900,7 @@
         <v>{"name":"路竹區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="17">
+    <row r="275" spans="1:7" ht="16.2">
       <c r="A275" s="3" t="s">
         <v>465</v>
       </c>
@@ -12906,7 +12922,7 @@
         <v>{"name":"阿蓮區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="17">
+    <row r="276" spans="1:7" ht="16.2">
       <c r="A276" s="3" t="s">
         <v>466</v>
       </c>
@@ -12928,7 +12944,7 @@
         <v>{"name":"田寮區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="17">
+    <row r="277" spans="1:7" ht="16.2">
       <c r="A277" s="3" t="s">
         <v>467</v>
       </c>
@@ -12950,7 +12966,7 @@
         <v>{"name":"燕巢區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="17">
+    <row r="278" spans="1:7" ht="16.2">
       <c r="A278" s="3" t="s">
         <v>468</v>
       </c>
@@ -12972,7 +12988,7 @@
         <v>{"name":"橋頭區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="17">
+    <row r="279" spans="1:7" ht="16.2">
       <c r="A279" s="3" t="s">
         <v>469</v>
       </c>
@@ -12994,7 +13010,7 @@
         <v>{"name":"梓官區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="17">
+    <row r="280" spans="1:7" ht="16.2">
       <c r="A280" s="3" t="s">
         <v>470</v>
       </c>
@@ -13016,7 +13032,7 @@
         <v>{"name":"彌陀區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="17">
+    <row r="281" spans="1:7" ht="16.2">
       <c r="A281" s="3" t="s">
         <v>471</v>
       </c>
@@ -13038,7 +13054,7 @@
         <v>{"name":"永安區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="17">
+    <row r="282" spans="1:7" ht="16.2">
       <c r="A282" s="3" t="s">
         <v>472</v>
       </c>
@@ -13060,7 +13076,7 @@
         <v>{"name":"湖內區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="17">
+    <row r="283" spans="1:7" ht="16.2">
       <c r="A283" s="3" t="s">
         <v>473</v>
       </c>
@@ -13082,7 +13098,7 @@
         <v>{"name":"鳳山區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="17">
+    <row r="284" spans="1:7" ht="16.2">
       <c r="A284" s="3" t="s">
         <v>474</v>
       </c>
@@ -13104,7 +13120,7 @@
         <v>{"name":"大寮區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="17">
+    <row r="285" spans="1:7" ht="16.2">
       <c r="A285" s="3" t="s">
         <v>475</v>
       </c>
@@ -13126,7 +13142,7 @@
         <v>{"name":"林園區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="17">
+    <row r="286" spans="1:7" ht="16.2">
       <c r="A286" s="3" t="s">
         <v>476</v>
       </c>
@@ -13148,7 +13164,7 @@
         <v>{"name":"鳥松區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="17">
+    <row r="287" spans="1:7" ht="16.2">
       <c r="A287" s="3" t="s">
         <v>477</v>
       </c>
@@ -13170,7 +13186,7 @@
         <v>{"name":"大樹區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="17">
+    <row r="288" spans="1:7" ht="16.2">
       <c r="A288" s="3" t="s">
         <v>478</v>
       </c>
@@ -13192,7 +13208,7 @@
         <v>{"name":"旗山區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="17">
+    <row r="289" spans="1:7" ht="16.2">
       <c r="A289" s="3" t="s">
         <v>479</v>
       </c>
@@ -13214,7 +13230,7 @@
         <v>{"name":"美濃區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="17">
+    <row r="290" spans="1:7" ht="16.2">
       <c r="A290" s="3" t="s">
         <v>480</v>
       </c>
@@ -13236,7 +13252,7 @@
         <v>{"name":"六龜區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="17">
+    <row r="291" spans="1:7" ht="16.2">
       <c r="A291" s="3" t="s">
         <v>481</v>
       </c>
@@ -13258,7 +13274,7 @@
         <v>{"name":"內門區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="17">
+    <row r="292" spans="1:7" ht="16.2">
       <c r="A292" s="3" t="s">
         <v>482</v>
       </c>
@@ -13280,7 +13296,7 @@
         <v>{"name":"杉林區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="17">
+    <row r="293" spans="1:7" ht="16.2">
       <c r="A293" s="3" t="s">
         <v>483</v>
       </c>
@@ -13302,7 +13318,7 @@
         <v>{"name":"甲仙區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="17">
+    <row r="294" spans="1:7" ht="16.2">
       <c r="A294" s="3" t="s">
         <v>484</v>
       </c>
@@ -13324,7 +13340,7 @@
         <v>{"name":"桃源區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="17">
+    <row r="295" spans="1:7" ht="16.2">
       <c r="A295" s="3" t="s">
         <v>485</v>
       </c>
@@ -13346,7 +13362,7 @@
         <v>{"name":"那瑪夏區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="17">
+    <row r="296" spans="1:7" ht="16.2">
       <c r="A296" s="3" t="s">
         <v>486</v>
       </c>
@@ -13368,7 +13384,7 @@
         <v>{"name":"茂林區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="17">
+    <row r="297" spans="1:7" ht="16.2">
       <c r="A297" s="3" t="s">
         <v>487</v>
       </c>
@@ -13390,7 +13406,7 @@
         <v>{"name":"茄萣區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="17">
+    <row r="298" spans="1:7" ht="16.2">
       <c r="A298" s="3" t="s">
         <v>488</v>
       </c>
@@ -13412,7 +13428,7 @@
         <v>{"name":"馬公市","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="17">
+    <row r="299" spans="1:7" ht="16.2">
       <c r="A299" s="3" t="s">
         <v>489</v>
       </c>
@@ -13434,7 +13450,7 @@
         <v>{"name":"西嶼鄉","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="17">
+    <row r="300" spans="1:7" ht="16.2">
       <c r="A300" s="3" t="s">
         <v>490</v>
       </c>
@@ -13456,7 +13472,7 @@
         <v>{"name":"望安鄉","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="17">
+    <row r="301" spans="1:7" ht="16.2">
       <c r="A301" s="3" t="s">
         <v>491</v>
       </c>
@@ -13478,7 +13494,7 @@
         <v>{"name":"七美鄉","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="17">
+    <row r="302" spans="1:7" ht="16.2">
       <c r="A302" s="3" t="s">
         <v>492</v>
       </c>
@@ -13500,7 +13516,7 @@
         <v>{"name":"白沙鄉","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="17">
+    <row r="303" spans="1:7" ht="16.2">
       <c r="A303" s="3" t="s">
         <v>493</v>
       </c>
@@ -13522,7 +13538,7 @@
         <v>{"name":"湖西鄉","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="17">
+    <row r="304" spans="1:7" ht="16.2">
       <c r="A304" s="3" t="s">
         <v>494</v>
       </c>
@@ -13544,7 +13560,7 @@
         <v>{"name":"金沙鎮","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="17">
+    <row r="305" spans="1:7" ht="16.2">
       <c r="A305" s="3" t="s">
         <v>495</v>
       </c>
@@ -13566,7 +13582,7 @@
         <v>{"name":"金湖鎮","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="17">
+    <row r="306" spans="1:7" ht="16.2">
       <c r="A306" s="3" t="s">
         <v>496</v>
       </c>
@@ -13588,7 +13604,7 @@
         <v>{"name":"金寧鄉","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="17">
+    <row r="307" spans="1:7" ht="16.2">
       <c r="A307" s="3" t="s">
         <v>497</v>
       </c>
@@ -13610,7 +13626,7 @@
         <v>{"name":"金城鎮","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="17">
+    <row r="308" spans="1:7" ht="16.2">
       <c r="A308" s="3" t="s">
         <v>498</v>
       </c>
@@ -13632,7 +13648,7 @@
         <v>{"name":"烈嶼鄉","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="17">
+    <row r="309" spans="1:7" ht="16.2">
       <c r="A309" s="3" t="s">
         <v>499</v>
       </c>
@@ -13654,7 +13670,7 @@
         <v>{"name":"烏坵鄉","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="17">
+    <row r="310" spans="1:7" ht="16.2">
       <c r="A310" s="3" t="s">
         <v>500</v>
       </c>
@@ -13676,7 +13692,7 @@
         <v>{"name":"屏東市","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="17">
+    <row r="311" spans="1:7" ht="16.2">
       <c r="A311" s="3" t="s">
         <v>501</v>
       </c>
@@ -13698,7 +13714,7 @@
         <v>{"name":"三地門鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="17">
+    <row r="312" spans="1:7" ht="16.2">
       <c r="A312" s="3" t="s">
         <v>502</v>
       </c>
@@ -13720,7 +13736,7 @@
         <v>{"name":"霧台鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="17">
+    <row r="313" spans="1:7" ht="16.2">
       <c r="A313" s="3" t="s">
         <v>503</v>
       </c>
@@ -13742,7 +13758,7 @@
         <v>{"name":"瑪家鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="17">
+    <row r="314" spans="1:7" ht="16.2">
       <c r="A314" s="3" t="s">
         <v>504</v>
       </c>
@@ -13764,7 +13780,7 @@
         <v>{"name":"九如鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="17">
+    <row r="315" spans="1:7" ht="16.2">
       <c r="A315" s="3" t="s">
         <v>505</v>
       </c>
@@ -13786,7 +13802,7 @@
         <v>{"name":"里港鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="17">
+    <row r="316" spans="1:7" ht="16.2">
       <c r="A316" s="3" t="s">
         <v>506</v>
       </c>
@@ -13808,7 +13824,7 @@
         <v>{"name":"高樹鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="17">
+    <row r="317" spans="1:7" ht="16.2">
       <c r="A317" s="3" t="s">
         <v>507</v>
       </c>
@@ -13830,7 +13846,7 @@
         <v>{"name":"鹽埔鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="17">
+    <row r="318" spans="1:7" ht="16.2">
       <c r="A318" s="3" t="s">
         <v>508</v>
       </c>
@@ -13852,7 +13868,7 @@
         <v>{"name":"長治鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="17">
+    <row r="319" spans="1:7" ht="16.2">
       <c r="A319" s="3" t="s">
         <v>509</v>
       </c>
@@ -13874,7 +13890,7 @@
         <v>{"name":"麟洛鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="17">
+    <row r="320" spans="1:7" ht="16.2">
       <c r="A320" s="3" t="s">
         <v>510</v>
       </c>
@@ -13896,7 +13912,7 @@
         <v>{"name":"竹田鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="17">
+    <row r="321" spans="1:7" ht="16.2">
       <c r="A321" s="3" t="s">
         <v>511</v>
       </c>
@@ -13918,7 +13934,7 @@
         <v>{"name":"內埔鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="17">
+    <row r="322" spans="1:7" ht="16.2">
       <c r="A322" s="3" t="s">
         <v>512</v>
       </c>
@@ -13940,7 +13956,7 @@
         <v>{"name":"萬丹鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="17">
+    <row r="323" spans="1:7" ht="16.2">
       <c r="A323" s="3" t="s">
         <v>513</v>
       </c>
@@ -13962,7 +13978,7 @@
         <v>{"name":"潮州鎮","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="17">
+    <row r="324" spans="1:7" ht="16.2">
       <c r="A324" s="3" t="s">
         <v>514</v>
       </c>
@@ -13984,7 +14000,7 @@
         <v>{"name":"泰武鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="17">
+    <row r="325" spans="1:7" ht="16.2">
       <c r="A325" s="3" t="s">
         <v>515</v>
       </c>
@@ -14006,7 +14022,7 @@
         <v>{"name":"來義鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="17">
+    <row r="326" spans="1:7" ht="16.2">
       <c r="A326" s="3" t="s">
         <v>516</v>
       </c>
@@ -14028,7 +14044,7 @@
         <v>{"name":"萬巒鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="17">
+    <row r="327" spans="1:7" ht="16.2">
       <c r="A327" s="3" t="s">
         <v>517</v>
       </c>
@@ -14050,7 +14066,7 @@
         <v>{"name":"崁頂鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="17">
+    <row r="328" spans="1:7" ht="16.2">
       <c r="A328" s="3" t="s">
         <v>518</v>
       </c>
@@ -14072,7 +14088,7 @@
         <v>{"name":"新埤鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="17">
+    <row r="329" spans="1:7" ht="16.2">
       <c r="A329" s="3" t="s">
         <v>519</v>
       </c>
@@ -14094,7 +14110,7 @@
         <v>{"name":"南州鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="17">
+    <row r="330" spans="1:7" ht="16.2">
       <c r="A330" s="3" t="s">
         <v>520</v>
       </c>
@@ -14116,7 +14132,7 @@
         <v>{"name":"林邊鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="17">
+    <row r="331" spans="1:7" ht="16.2">
       <c r="A331" s="3" t="s">
         <v>521</v>
       </c>
@@ -14138,7 +14154,7 @@
         <v>{"name":"東港鎮","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="17">
+    <row r="332" spans="1:7" ht="16.2">
       <c r="A332" s="3" t="s">
         <v>522</v>
       </c>
@@ -14160,7 +14176,7 @@
         <v>{"name":"琉球鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="17">
+    <row r="333" spans="1:7" ht="16.2">
       <c r="A333" s="3" t="s">
         <v>523</v>
       </c>
@@ -14182,7 +14198,7 @@
         <v>{"name":"佳冬鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="17">
+    <row r="334" spans="1:7" ht="16.2">
       <c r="A334" s="3" t="s">
         <v>524</v>
       </c>
@@ -14204,7 +14220,7 @@
         <v>{"name":"新園鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="17">
+    <row r="335" spans="1:7" ht="16.2">
       <c r="A335" s="3" t="s">
         <v>525</v>
       </c>
@@ -14226,7 +14242,7 @@
         <v>{"name":"枋寮鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="17">
+    <row r="336" spans="1:7" ht="16.2">
       <c r="A336" s="3" t="s">
         <v>526</v>
       </c>
@@ -14248,7 +14264,7 @@
         <v>{"name":"枋山鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="17">
+    <row r="337" spans="1:7" ht="16.2">
       <c r="A337" s="3" t="s">
         <v>527</v>
       </c>
@@ -14270,7 +14286,7 @@
         <v>{"name":"春日鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="17">
+    <row r="338" spans="1:7" ht="16.2">
       <c r="A338" s="3" t="s">
         <v>528</v>
       </c>
@@ -14292,7 +14308,7 @@
         <v>{"name":"獅子鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="17">
+    <row r="339" spans="1:7" ht="16.2">
       <c r="A339" s="3" t="s">
         <v>529</v>
       </c>
@@ -14314,7 +14330,7 @@
         <v>{"name":"車城鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="17">
+    <row r="340" spans="1:7" ht="16.2">
       <c r="A340" s="3" t="s">
         <v>530</v>
       </c>
@@ -14336,7 +14352,7 @@
         <v>{"name":"牡丹鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="17">
+    <row r="341" spans="1:7" ht="16.2">
       <c r="A341" s="3" t="s">
         <v>531</v>
       </c>
@@ -14358,7 +14374,7 @@
         <v>{"name":"恆春鎮","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="17">
+    <row r="342" spans="1:7" ht="16.2">
       <c r="A342" s="3" t="s">
         <v>532</v>
       </c>
@@ -14380,7 +14396,7 @@
         <v>{"name":"滿州鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="17">
+    <row r="343" spans="1:7" ht="16.2">
       <c r="A343" s="3" t="s">
         <v>533</v>
       </c>
@@ -14402,7 +14418,7 @@
         <v>{"name":"台東市","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="17">
+    <row r="344" spans="1:7" ht="16.2">
       <c r="A344" s="3" t="s">
         <v>534</v>
       </c>
@@ -14424,7 +14440,7 @@
         <v>{"name":"綠島鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="17">
+    <row r="345" spans="1:7" ht="16.2">
       <c r="A345" s="3" t="s">
         <v>535</v>
       </c>
@@ -14446,7 +14462,7 @@
         <v>{"name":"蘭嶼鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="17">
+    <row r="346" spans="1:7" ht="16.2">
       <c r="A346" s="3" t="s">
         <v>536</v>
       </c>
@@ -14468,7 +14484,7 @@
         <v>{"name":"延平鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="17">
+    <row r="347" spans="1:7" ht="16.2">
       <c r="A347" s="3" t="s">
         <v>537</v>
       </c>
@@ -14490,7 +14506,7 @@
         <v>{"name":"卑南鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="17">
+    <row r="348" spans="1:7" ht="16.2">
       <c r="A348" s="3" t="s">
         <v>538</v>
       </c>
@@ -14512,7 +14528,7 @@
         <v>{"name":"鹿野鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="17">
+    <row r="349" spans="1:7" ht="16.2">
       <c r="A349" s="3" t="s">
         <v>539</v>
       </c>
@@ -14534,7 +14550,7 @@
         <v>{"name":"關山鎮","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="17">
+    <row r="350" spans="1:7" ht="16.2">
       <c r="A350" s="3" t="s">
         <v>540</v>
       </c>
@@ -14556,7 +14572,7 @@
         <v>{"name":"海端鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="17">
+    <row r="351" spans="1:7" ht="16.2">
       <c r="A351" s="3" t="s">
         <v>541</v>
       </c>
@@ -14578,7 +14594,7 @@
         <v>{"name":"池上鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="17">
+    <row r="352" spans="1:7" ht="16.2">
       <c r="A352" s="3" t="s">
         <v>542</v>
       </c>
@@ -14600,7 +14616,7 @@
         <v>{"name":"東河鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="17">
+    <row r="353" spans="1:7" ht="16.2">
       <c r="A353" s="3" t="s">
         <v>543</v>
       </c>
@@ -14622,7 +14638,7 @@
         <v>{"name":"成功鎮","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="17">
+    <row r="354" spans="1:7" ht="16.2">
       <c r="A354" s="3" t="s">
         <v>544</v>
       </c>
@@ -14644,7 +14660,7 @@
         <v>{"name":"長濱鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="17">
+    <row r="355" spans="1:7" ht="16.2">
       <c r="A355" s="3" t="s">
         <v>545</v>
       </c>
@@ -14666,7 +14682,7 @@
         <v>{"name":"太麻里鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="17">
+    <row r="356" spans="1:7" ht="16.2">
       <c r="A356" s="3" t="s">
         <v>546</v>
       </c>
@@ -14688,7 +14704,7 @@
         <v>{"name":"金峰鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="17">
+    <row r="357" spans="1:7" ht="16.2">
       <c r="A357" s="3" t="s">
         <v>547</v>
       </c>
@@ -14710,7 +14726,7 @@
         <v>{"name":"大武鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="17">
+    <row r="358" spans="1:7" ht="16.2">
       <c r="A358" s="3" t="s">
         <v>548</v>
       </c>
@@ -14732,7 +14748,7 @@
         <v>{"name":"達仁鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="17">
+    <row r="359" spans="1:7" ht="16.2">
       <c r="A359" s="3" t="s">
         <v>549</v>
       </c>
@@ -14754,7 +14770,7 @@
         <v>{"name":"花蓮市","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="17">
+    <row r="360" spans="1:7" ht="16.2">
       <c r="A360" s="3" t="s">
         <v>550</v>
       </c>
@@ -14776,7 +14792,7 @@
         <v>{"name":"新城鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="17">
+    <row r="361" spans="1:7" ht="16.2">
       <c r="A361" s="3" t="s">
         <v>551</v>
       </c>
@@ -14798,7 +14814,7 @@
         <v>{"name":"秀林鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="17">
+    <row r="362" spans="1:7" ht="16.2">
       <c r="A362" s="3" t="s">
         <v>552</v>
       </c>
@@ -14820,7 +14836,7 @@
         <v>{"name":"吉安鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="17">
+    <row r="363" spans="1:7" ht="16.2">
       <c r="A363" s="3" t="s">
         <v>553</v>
       </c>
@@ -14842,7 +14858,7 @@
         <v>{"name":"壽豐鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="17">
+    <row r="364" spans="1:7" ht="16.2">
       <c r="A364" s="3" t="s">
         <v>554</v>
       </c>
@@ -14864,7 +14880,7 @@
         <v>{"name":"鳳林鎮","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="17">
+    <row r="365" spans="1:7" ht="16.2">
       <c r="A365" s="3" t="s">
         <v>555</v>
       </c>
@@ -14886,7 +14902,7 @@
         <v>{"name":"光復鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="17">
+    <row r="366" spans="1:7" ht="16.2">
       <c r="A366" s="3" t="s">
         <v>556</v>
       </c>
@@ -14908,7 +14924,7 @@
         <v>{"name":"豐濱鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="17">
+    <row r="367" spans="1:7" ht="16.2">
       <c r="A367" s="3" t="s">
         <v>557</v>
       </c>
@@ -14930,7 +14946,7 @@
         <v>{"name":"瑞穗鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="17">
+    <row r="368" spans="1:7" ht="16.2">
       <c r="A368" s="3" t="s">
         <v>558</v>
       </c>
@@ -14952,7 +14968,7 @@
         <v>{"name":"萬榮鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="17">
+    <row r="369" spans="1:7" ht="16.2">
       <c r="A369" s="3" t="s">
         <v>559</v>
       </c>
@@ -14974,7 +14990,7 @@
         <v>{"name":"玉里鎮","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="17">
+    <row r="370" spans="1:7" ht="16.2">
       <c r="A370" s="3" t="s">
         <v>560</v>
       </c>
@@ -14996,7 +15012,7 @@
         <v>{"name":"卓溪鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="17">
+    <row r="371" spans="1:7" ht="16.2">
       <c r="A371" s="3" t="s">
         <v>561</v>
       </c>
@@ -15025,16 +15041,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2B262F-F69A-4E0D-919E-CAC2300CFCC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17">
+    <row r="1" spans="1:7" ht="16.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15055,7 +15071,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="4" t="s">
         <v>585</v>
       </c>
@@ -15063,7 +15079,7 @@
         <v>127</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D5" si="0">B2&amp;C2&amp;".jpg"</f>
+        <f t="shared" ref="D2" si="0">B2&amp;C2&amp;".jpg"</f>
         <v>images/動物/.jpg</v>
       </c>
       <c r="E2" t="b">
@@ -15077,7 +15093,7 @@
         <v>{"name":"口腔","category":"正確"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="4" t="s">
         <v>586</v>
       </c>
@@ -15099,7 +15115,7 @@
         <v>{"name":"食道","category":"正確"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="4" t="s">
         <v>587</v>
       </c>
@@ -15121,7 +15137,7 @@
         <v>{"name":"賁門","category":"正確"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5">
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="4" t="s">
         <v>588</v>
       </c>
@@ -15143,7 +15159,7 @@
         <v>{"name":"胃","category":"正確"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="4" t="s">
         <v>589</v>
       </c>
@@ -15165,7 +15181,7 @@
         <v>{"name":"幽門","category":"正確"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="4" t="s">
         <v>590</v>
       </c>
@@ -15187,7 +15203,7 @@
         <v>{"name":"小腸","category":"正確"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="4" t="s">
         <v>591</v>
       </c>
@@ -15209,7 +15225,7 @@
         <v>{"name":"大腸","category":"正確"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="4" t="s">
         <v>592</v>
       </c>
@@ -15231,7 +15247,7 @@
         <v>{"name":"肛門","category":"正確"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="4" t="s">
         <v>593</v>
       </c>
@@ -15253,7 +15269,7 @@
         <v>{"name":"肝臟","category":"錯誤"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="4" t="s">
         <v>594</v>
       </c>
@@ -15275,7 +15291,7 @@
         <v>{"name":"胰臟","category":"錯誤"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="4" t="s">
         <v>595</v>
       </c>
@@ -15297,7 +15313,7 @@
         <v>{"name":"腎臟","category":"錯誤"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="4" t="s">
         <v>596</v>
       </c>
@@ -15319,7 +15335,7 @@
         <v>{"name":"唾腺","category":"錯誤"},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.5">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="4" t="s">
         <v>597</v>
       </c>
@@ -15341,7 +15357,7 @@
         <v>{"name":"胃腺","category":"錯誤"},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="4" t="s">
         <v>598</v>
       </c>

--- a/cardGame/cards.xlsx
+++ b/cardGame/cards.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\chihhsiangchien.github.io\cardGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\chihhsiangchien.github.io\cardGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9C0879-1641-4D2E-B8AC-9BB4FD418F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="7872" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="生物交互關係" sheetId="7" r:id="rId1"/>
@@ -23,6 +24,7 @@
     <sheet name="消化管" sheetId="11" r:id="rId9"/>
     <sheet name="動物界" sheetId="4" r:id="rId10"/>
     <sheet name="植物界" sheetId="8" r:id="rId11"/>
+    <sheet name="原核原生真菌" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
@@ -32,13 +34,24 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="4">"無脊椎動物"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="5">"顯微鏡"</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <webPublishing css="0" allowPng="1" codePage="1252"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="644">
   <si>
     <t>name</t>
   </si>
@@ -1913,11 +1926,179 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>藍綠藻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>金黃色葡萄球菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核桿菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉤端螺旋體菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘤胃球菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳酸菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>色球藻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>顫藻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>念珠藻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨來菇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>單胞藻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼蟲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>裸藻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>石蓴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海帶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>矽藻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨藻</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>石花菜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>草履蟲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>線鞭蟲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘧原蟲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>變形蟲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黏菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原核生物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生動物</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>酵母菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黴菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>足癬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑黴菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>青黴菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕈類</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>木耳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹蓀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈芝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒蠅傘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒瓢蕈</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟲草菌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -1992,7 +2173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2011,6 +2192,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2326,16 +2510,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2540,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="6" t="s">
         <v>110</v>
       </c>
@@ -2379,7 +2563,7 @@
         <v>{"name":"山貓與兔","category":"掠食"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="4" t="s">
         <v>111</v>
       </c>
@@ -2402,7 +2586,7 @@
         <v>{"name":"獵豹與羚羊","category":"掠食"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -2425,7 +2609,7 @@
         <v>{"name":"榕樹與小草","category":"競爭"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="4" t="s">
         <v>115</v>
       </c>
@@ -2448,7 +2632,7 @@
         <v>{"name":"腸道菌之間","category":"競爭"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="4" t="s">
         <v>114</v>
       </c>
@@ -2471,7 +2655,7 @@
         <v>{"name":"人與共生菌","category":"互利共生"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2494,7 +2678,7 @@
         <v>{"name":"海葵與寄居蟹","category":"互利共生"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="4" t="s">
         <v>118</v>
       </c>
@@ -2517,7 +2701,7 @@
         <v>{"name":"蚜蟲與螞蟻","category":"互利共生"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6">
+    <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="4" t="s">
         <v>122</v>
       </c>
@@ -2540,7 +2724,7 @@
         <v>{"name":"蚜蟲與植物","category":"掠食"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6">
+    <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="4" t="s">
         <v>121</v>
       </c>
@@ -2563,7 +2747,7 @@
         <v>{"name":"鮣魚與鯊魚","category":"片利共生"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.6">
+    <row r="11" spans="1:7" ht="15.5">
       <c r="A11" s="4" t="s">
         <v>123</v>
       </c>
@@ -2586,7 +2770,7 @@
         <v>{"name":"鳥巢蕨與樹","category":"片利共生"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6">
+    <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="4" t="s">
         <v>124</v>
       </c>
@@ -2609,7 +2793,7 @@
         <v>{"name":"菟絲子與樹","category":"寄生"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="15.5">
       <c r="A13" s="4" t="s">
         <v>125</v>
       </c>
@@ -2639,23 +2823,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="92" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.21875" style="3"/>
+    <col min="8" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3587,19 +3771,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G33"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3810,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="16.2">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -3643,7 +3833,7 @@
         <v>{"name":"地錢","category":"蘚苔"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="7" t="s">
         <v>129</v>
       </c>
@@ -3666,7 +3856,7 @@
         <v>{"name":"土馬騌","category":"蘚苔"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="7" t="s">
         <v>130</v>
       </c>
@@ -3689,7 +3879,7 @@
         <v>{"name":"水苔","category":"蘚苔"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="7" t="s">
         <v>128</v>
       </c>
@@ -3712,7 +3902,7 @@
         <v>{"name":"地錢","category":"蘚苔"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="7" t="s">
         <v>131</v>
       </c>
@@ -3735,7 +3925,7 @@
         <v>{"name":"鐵線蕨","category":"蕨類"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="7" t="s">
         <v>132</v>
       </c>
@@ -3758,7 +3948,7 @@
         <v>{"name":"鳥巢蕨","category":"蕨類"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="7" t="s">
         <v>133</v>
       </c>
@@ -3781,7 +3971,7 @@
         <v>{"name":"臺灣水韭","category":"蕨類"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="7" t="s">
         <v>134</v>
       </c>
@@ -3804,7 +3994,7 @@
         <v>{"name":"腎蕨","category":"蕨類"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="7" t="s">
         <v>135</v>
       </c>
@@ -3827,7 +4017,7 @@
         <v>{"name":"矮松","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="7" t="s">
         <v>136</v>
       </c>
@@ -3850,7 +4040,7 @@
         <v>{"name":"臺灣二葉松","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="7" t="s">
         <v>137</v>
       </c>
@@ -3873,7 +4063,7 @@
         <v>{"name":"歐洲赤松","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="7" t="s">
         <v>138</v>
       </c>
@@ -3896,7 +4086,7 @@
         <v>{"name":"剛葉松","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="7" t="s">
         <v>139</v>
       </c>
@@ -3919,7 +4109,7 @@
         <v>{"name":"銀杏","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="7" t="s">
         <v>140</v>
       </c>
@@ -3942,7 +4132,7 @@
         <v>{"name":"蘇鐵","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="7" t="s">
         <v>141</v>
       </c>
@@ -3965,7 +4155,7 @@
         <v>{"name":"紅檜","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.2">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="7" t="s">
         <v>161</v>
       </c>
@@ -3988,7 +4178,7 @@
         <v>{"name":"松樹","category":"裸子植物"},</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="7" t="s">
         <v>142</v>
       </c>
@@ -4011,7 +4201,7 @@
         <v>{"name":"花生","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.2">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="7" t="s">
         <v>143</v>
       </c>
@@ -4034,7 +4224,7 @@
         <v>{"name":"綠豆","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="7" t="s">
         <v>144</v>
       </c>
@@ -4057,7 +4247,7 @@
         <v>{"name":"向日葵","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2">
+    <row r="21" spans="1:7" ht="17">
       <c r="A21" s="7" t="s">
         <v>145</v>
       </c>
@@ -4080,7 +4270,7 @@
         <v>{"name":"菩提","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="7" t="s">
         <v>146</v>
       </c>
@@ -4103,7 +4293,7 @@
         <v>{"name":"油菜","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="7" t="s">
         <v>147</v>
       </c>
@@ -4126,7 +4316,7 @@
         <v>{"name":"油桐","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="7" t="s">
         <v>148</v>
       </c>
@@ -4149,7 +4339,7 @@
         <v>{"name":"櫻花","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.2">
+    <row r="25" spans="1:7" ht="17">
       <c r="A25" s="7" t="s">
         <v>149</v>
       </c>
@@ -4172,7 +4362,7 @@
         <v>{"name":"臺灣百合","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="7" t="s">
         <v>150</v>
       </c>
@@ -4195,7 +4385,7 @@
         <v>{"name":"竹子","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="7" t="s">
         <v>151</v>
       </c>
@@ -4218,7 +4408,7 @@
         <v>{"name":"玉米","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.2">
+    <row r="28" spans="1:7" ht="17">
       <c r="A28" s="7" t="s">
         <v>152</v>
       </c>
@@ -4241,7 +4431,7 @@
         <v>{"name":"蔥","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.2">
+    <row r="29" spans="1:7" ht="17">
       <c r="A29" s="7" t="s">
         <v>153</v>
       </c>
@@ -4264,7 +4454,7 @@
         <v>{"name":"紫錦草","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.2">
+    <row r="30" spans="1:7" ht="17">
       <c r="A30" s="7" t="s">
         <v>154</v>
       </c>
@@ -4287,7 +4477,7 @@
         <v>{"name":"稻","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.2">
+    <row r="31" spans="1:7" ht="17">
       <c r="A31" s="7" t="s">
         <v>155</v>
       </c>
@@ -4310,7 +4500,7 @@
         <v>{"name":"蘭花","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.2">
+    <row r="32" spans="1:7" ht="17">
       <c r="A32" s="7" t="s">
         <v>156</v>
       </c>
@@ -4333,7 +4523,7 @@
         <v>{"name":"橘子","category":"被子植物"},</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.2">
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="7" t="s">
         <v>162</v>
       </c>
@@ -4354,6 +4544,1065 @@
       <c r="G33" s="1" t="str">
         <f t="shared" ref="G33" si="7">"{""name"":"""&amp;A33&amp;IF(E33,""",""img"":"""&amp;D33,"")&amp;""",""category"":"""&amp;F33&amp;"""},"</f>
         <v>{"name":"榕樹","category":"被子植物"},</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A55CCB-3FA7-45DD-B076-4062B921253C}">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D33" si="0">B2&amp;C2&amp;".jpg"</f>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f t="shared" ref="G2:G33" si="1">"{""name"":"""&amp;A2&amp;IF(E2,""",""img"":"""&amp;D2,"")&amp;""",""category"":"""&amp;F2&amp;"""},"</f>
+        <v>{"name":"藍綠菌","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17">
+      <c r="A3" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D30" si="2">B3&amp;C3&amp;".jpg"</f>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G30" si="3">"{""name"":"""&amp;A3&amp;IF(E3,""",""img"":"""&amp;D3,"")&amp;""",""category"":"""&amp;F3&amp;"""},"</f>
+        <v>{"name":"藍綠藻","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"藍菌","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"細菌","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"金黃色葡萄球菌","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"結核桿菌","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"鉤端螺旋體菌","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"瘤胃球菌","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"乳酸菌","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17">
+      <c r="A11" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"色球藻","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"顫藻","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"念珠藻","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"雨來菇","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"原核生物","category":"原核"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"單胞藻","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17">
+      <c r="A17" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"眼蟲","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17">
+      <c r="A18" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"裸藻","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"石蓴","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17">
+      <c r="A20" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"昆布","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17">
+      <c r="A21" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"海帶","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17">
+      <c r="A22" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"矽藻","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17">
+      <c r="A23" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"巨藻","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17">
+      <c r="A24" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"石花菜","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17">
+      <c r="A25" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"草履蟲","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17">
+      <c r="A26" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"線鞭蟲","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17">
+      <c r="A27" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"瘧原蟲","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17">
+      <c r="A28" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"變形蟲","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17">
+      <c r="A29" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"黏菌","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17">
+      <c r="A30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>{"name":"原生菌","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17">
+      <c r="A31" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="str">
+        <f t="shared" ref="D31:D33" si="4">B31&amp;C31&amp;".jpg"</f>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" ref="G31:G33" si="5">"{""name"":"""&amp;A31&amp;IF(E31,""",""img"":"""&amp;D31,"")&amp;""",""category"":"""&amp;F31&amp;"""},"</f>
+        <v>{"name":"原生動物","category":"原生"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17">
+      <c r="A32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"真菌","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17">
+      <c r="A33" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>{"name":"酵母菌","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17">
+      <c r="A34" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="str">
+        <f t="shared" ref="D34:D45" si="6">B34&amp;C34&amp;".jpg"</f>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" ref="G34:G45" si="7">"{""name"":"""&amp;A34&amp;IF(E34,""",""img"":"""&amp;D34,"")&amp;""",""category"":"""&amp;F34&amp;"""},"</f>
+        <v>{"name":"黴菌","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17">
+      <c r="A35" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"足癬","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17">
+      <c r="A36" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"黑黴菌","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17">
+      <c r="A37" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"青黴菌","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17">
+      <c r="A38" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"蕈類","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17">
+      <c r="A39" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"木耳","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17">
+      <c r="A40" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"竹蓀","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17">
+      <c r="A41" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"靈芝","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17">
+      <c r="A42" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"毒蠅傘","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17">
+      <c r="A43" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"毒瓢蕈","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17">
+      <c r="A44" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"香菇","category":"真菌"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17">
+      <c r="A45" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>folder/.jpg</v>
+      </c>
+      <c r="E45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>{"name":"蟲草菌","category":"真菌"},</v>
       </c>
     </row>
   </sheetData>
@@ -4364,16 +5613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +5643,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="2" t="s">
         <v>98</v>
       </c>
@@ -4417,7 +5666,7 @@
         <v>{"name":"綠色植物","category":"生產者"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="4" t="s">
         <v>99</v>
       </c>
@@ -4440,7 +5689,7 @@
         <v>{"name":"藻類","category":"生產者"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="4" t="s">
         <v>100</v>
       </c>
@@ -4463,7 +5712,7 @@
         <v>{"name":"藍綠菌","category":"生產者"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="4" t="s">
         <v>101</v>
       </c>
@@ -4486,7 +5735,7 @@
         <v>{"name":"動物","category":"消費者"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="4" t="s">
         <v>102</v>
       </c>
@@ -4509,7 +5758,7 @@
         <v>{"name":"人類","category":"消費者"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="4" t="s">
         <v>103</v>
       </c>
@@ -4532,7 +5781,7 @@
         <v>{"name":"蜜蜂","category":"消費者"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="4" t="s">
         <v>104</v>
       </c>
@@ -4555,7 +5804,7 @@
         <v>{"name":"細菌","category":"分解者"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6">
+    <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="4" t="s">
         <v>105</v>
       </c>
@@ -4578,7 +5827,7 @@
         <v>{"name":"真菌","category":"分解者"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6">
+    <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="4" t="s">
         <v>106</v>
       </c>
@@ -4608,16 +5857,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4638,7 +5887,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -4661,7 +5910,7 @@
         <v>{"name":"DNA","category":"正確"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="4" t="s">
         <v>87</v>
       </c>
@@ -4684,7 +5933,7 @@
         <v>{"name":"細胞核","category":"正確"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="4" t="s">
         <v>88</v>
       </c>
@@ -4707,7 +5956,7 @@
         <v>{"name":"細胞","category":"正確"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="4" t="s">
         <v>89</v>
       </c>
@@ -4730,7 +5979,7 @@
         <v>{"name":"組織","category":"正確"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
@@ -4753,7 +6002,7 @@
         <v>{"name":"器官","category":"正確"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="4" t="s">
         <v>91</v>
       </c>
@@ -4776,7 +6025,7 @@
         <v>{"name":"器官系統","category":"正確"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
@@ -4799,7 +6048,7 @@
         <v>{"name":"個體","category":"正確"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="4" t="s">
         <v>93</v>
       </c>
@@ -4822,7 +6071,7 @@
         <v>{"name":"族群","category":"正確"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
@@ -4845,7 +6094,7 @@
         <v>{"name":"群集","category":"正確"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" ht="15.5">
       <c r="A11" s="4" t="s">
         <v>95</v>
       </c>
@@ -4868,7 +6117,7 @@
         <v>{"name":"生態系","category":"正確"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="4" t="s">
         <v>96</v>
       </c>
@@ -4891,7 +6140,7 @@
         <v>{"name":"生物圈","category":"正確"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="15.5">
       <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
@@ -4921,16 +6170,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4951,7 +6200,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -4974,7 +6223,7 @@
         <v>{"name":"肺靜脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -4997,7 +6246,7 @@
         <v>{"name":"左心房","category":"正確"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5020,7 +6269,7 @@
         <v>{"name":"左心室","category":"正確"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -5043,7 +6292,7 @@
         <v>{"name":"主動脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -5066,7 +6315,7 @@
         <v>{"name":"小動脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -5089,7 +6338,7 @@
         <v>{"name":"組織微血管","category":"正確"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -5112,7 +6361,7 @@
         <v>{"name":"小靜脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" ht="15.5">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -5135,7 +6384,7 @@
         <v>{"name":"大靜脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" ht="15.5">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -5158,7 +6407,7 @@
         <v>{"name":"右心房","category":"正確"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" ht="15.5">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -5181,7 +6430,7 @@
         <v>{"name":"右心室","category":"正確"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="15.5">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -5204,7 +6453,7 @@
         <v>{"name":"肺動脈","category":"正確"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="15.5">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5240,23 +6489,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.21875" style="2"/>
+    <col min="7" max="7" width="58.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5910,18 +7159,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="24.54296875" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="7" width="24.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="24.5546875" style="2"/>
+    <col min="1" max="7" width="24.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="24.54296875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6211,16 +7460,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6241,7 +7490,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="16.2">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="7" t="s">
         <v>163</v>
       </c>
@@ -6263,7 +7512,7 @@
         <v>{"name":"魟魚","category":"魚類"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="7" t="s">
         <v>77</v>
       </c>
@@ -6285,7 +7534,7 @@
         <v>{"name":"鯊魚","category":"魚類"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="7" t="s">
         <v>164</v>
       </c>
@@ -6307,7 +7556,7 @@
         <v>{"name":"小丑魚","category":"魚類"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="7" t="s">
         <v>165</v>
       </c>
@@ -6329,7 +7578,7 @@
         <v>{"name":"海馬","category":"魚類"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="7" t="s">
         <v>166</v>
       </c>
@@ -6351,7 +7600,7 @@
         <v>{"name":"吳郭魚","category":"魚類"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="7" t="s">
         <v>184</v>
       </c>
@@ -6373,7 +7622,7 @@
         <v>{"name":"鯉魚","category":"魚類"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="7" t="s">
         <v>190</v>
       </c>
@@ -6395,7 +7644,7 @@
         <v>{"name":"蟾蜍","category":"兩生類"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="7" t="s">
         <v>189</v>
       </c>
@@ -6417,7 +7666,7 @@
         <v>{"name":"山椒魚","category":"兩生類"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="7" t="s">
         <v>188</v>
       </c>
@@ -6439,7 +7688,7 @@
         <v>{"name":"蠑螈","category":"兩生類"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="7" t="s">
         <v>191</v>
       </c>
@@ -6461,7 +7710,7 @@
         <v>{"name":"娃娃魚","category":"兩生類"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="7" t="s">
         <v>185</v>
       </c>
@@ -6483,7 +7732,7 @@
         <v>{"name":"赤蛙","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="7" t="s">
         <v>186</v>
       </c>
@@ -6505,7 +7754,7 @@
         <v>{"name":"南蛇","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="7" t="s">
         <v>187</v>
       </c>
@@ -6527,7 +7776,7 @@
         <v>{"name":"攀蜥","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="7" t="s">
         <v>167</v>
       </c>
@@ -6549,7 +7798,7 @@
         <v>{"name":"短吻鱷","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="7" t="s">
         <v>168</v>
       </c>
@@ -6571,7 +7820,7 @@
         <v>{"name":"斑龜","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.2">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="7" t="s">
         <v>192</v>
       </c>
@@ -6593,7 +7842,7 @@
         <v>{"name":"蜥蜴","category":"爬蟲類"},</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="7" t="s">
         <v>169</v>
       </c>
@@ -6615,7 +7864,7 @@
         <v>{"name":"小白鷺","category":"鳥類"},</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.2">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="7" t="s">
         <v>170</v>
       </c>
@@ -6637,7 +7886,7 @@
         <v>{"name":"臺灣藍鵲","category":"鳥類"},</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="7" t="s">
         <v>171</v>
       </c>
@@ -6659,7 +7908,7 @@
         <v>{"name":"五色鳥","category":"鳥類"},</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2">
+    <row r="21" spans="1:7" ht="17">
       <c r="A21" s="7" t="s">
         <v>84</v>
       </c>
@@ -6681,7 +7930,7 @@
         <v>{"name":"企鵝","category":"鳥類"},</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="7" t="s">
         <v>172</v>
       </c>
@@ -6703,7 +7952,7 @@
         <v>{"name":"象","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="7" t="s">
         <v>173</v>
       </c>
@@ -6725,7 +7974,7 @@
         <v>{"name":"蝙蝠","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="7" t="s">
         <v>174</v>
       </c>
@@ -6747,7 +7996,7 @@
         <v>{"name":"鴨嘴獸","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.2">
+    <row r="25" spans="1:7" ht="17">
       <c r="A25" s="7" t="s">
         <v>175</v>
       </c>
@@ -6769,7 +8018,7 @@
         <v>{"name":"針鼴","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="7" t="s">
         <v>176</v>
       </c>
@@ -6791,7 +8040,7 @@
         <v>{"name":"袋鼠","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="7" t="s">
         <v>177</v>
       </c>
@@ -6813,7 +8062,7 @@
         <v>{"name":"無尾熊","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.2">
+    <row r="28" spans="1:7" ht="17">
       <c r="A28" s="7" t="s">
         <v>178</v>
       </c>
@@ -6835,7 +8084,7 @@
         <v>{"name":"虎鯨","category":"哺乳類"},</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.2">
+    <row r="29" spans="1:7" ht="17">
       <c r="A29" s="7" t="s">
         <v>193</v>
       </c>
@@ -6864,16 +8113,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G371"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
+    <sheetView topLeftCell="A277" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6894,7 +8143,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="16.2">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="3" t="s">
         <v>194</v>
       </c>
@@ -6916,7 +8165,7 @@
         <v>{"name":"中正區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.2">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="3" t="s">
         <v>195</v>
       </c>
@@ -6938,7 +8187,7 @@
         <v>{"name":"大同區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="3" t="s">
         <v>196</v>
       </c>
@@ -6960,7 +8209,7 @@
         <v>{"name":"中山區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="3" t="s">
         <v>197</v>
       </c>
@@ -6982,7 +8231,7 @@
         <v>{"name":"松山區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="3" t="s">
         <v>198</v>
       </c>
@@ -7004,7 +8253,7 @@
         <v>{"name":"大安區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2">
+    <row r="7" spans="1:7" ht="17">
       <c r="A7" s="3" t="s">
         <v>199</v>
       </c>
@@ -7026,7 +8275,7 @@
         <v>{"name":"萬華區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="3" t="s">
         <v>200</v>
       </c>
@@ -7048,7 +8297,7 @@
         <v>{"name":"信義區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="3" t="s">
         <v>201</v>
       </c>
@@ -7070,7 +8319,7 @@
         <v>{"name":"士林區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="3" t="s">
         <v>202</v>
       </c>
@@ -7092,7 +8341,7 @@
         <v>{"name":"北投區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="3" t="s">
         <v>203</v>
       </c>
@@ -7114,7 +8363,7 @@
         <v>{"name":"內湖區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="3" t="s">
         <v>204</v>
       </c>
@@ -7136,7 +8385,7 @@
         <v>{"name":"南港區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="3" t="s">
         <v>205</v>
       </c>
@@ -7158,7 +8407,7 @@
         <v>{"name":"文山區","category":"台北市"},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="3" t="s">
         <v>206</v>
       </c>
@@ -7180,7 +8429,7 @@
         <v>{"name":"仁愛區","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="3" t="s">
         <v>200</v>
       </c>
@@ -7202,7 +8451,7 @@
         <v>{"name":"信義區","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="3" t="s">
         <v>207</v>
       </c>
@@ -7224,7 +8473,7 @@
         <v>{"name":"中正區基","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.2">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="3" t="s">
         <v>208</v>
       </c>
@@ -7246,7 +8495,7 @@
         <v>{"name":"中山區基","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="3" t="s">
         <v>209</v>
       </c>
@@ -7268,7 +8517,7 @@
         <v>{"name":"安樂區","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.2">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="3" t="s">
         <v>210</v>
       </c>
@@ -7290,7 +8539,7 @@
         <v>{"name":"暖暖區","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.2">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="3" t="s">
         <v>211</v>
       </c>
@@ -7312,7 +8561,7 @@
         <v>{"name":"七堵區","category":"基隆市"},</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2">
+    <row r="21" spans="1:7" ht="17">
       <c r="A21" s="3" t="s">
         <v>212</v>
       </c>
@@ -7334,7 +8583,7 @@
         <v>{"name":"萬里區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="3" t="s">
         <v>213</v>
       </c>
@@ -7356,7 +8605,7 @@
         <v>{"name":"金山區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="3" t="s">
         <v>214</v>
       </c>
@@ -7378,7 +8627,7 @@
         <v>{"name":"南竿鄉","category":"連江縣"},</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="3" t="s">
         <v>215</v>
       </c>
@@ -7400,7 +8649,7 @@
         <v>{"name":"北竿鄉","category":"連江縣"},</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.2">
+    <row r="25" spans="1:7" ht="17">
       <c r="A25" s="3" t="s">
         <v>216</v>
       </c>
@@ -7422,7 +8671,7 @@
         <v>{"name":"莒光鄉","category":"連江縣"},</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="3" t="s">
         <v>217</v>
       </c>
@@ -7444,7 +8693,7 @@
         <v>{"name":"東引鄉","category":"連江縣"},</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2">
+    <row r="27" spans="1:7" ht="17">
       <c r="A27" s="3" t="s">
         <v>218</v>
       </c>
@@ -7466,7 +8715,7 @@
         <v>{"name":"板橋區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.2">
+    <row r="28" spans="1:7" ht="17">
       <c r="A28" s="3" t="s">
         <v>219</v>
       </c>
@@ -7488,7 +8737,7 @@
         <v>{"name":"汐止區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.2">
+    <row r="29" spans="1:7" ht="17">
       <c r="A29" s="3" t="s">
         <v>220</v>
       </c>
@@ -7510,7 +8759,7 @@
         <v>{"name":"深坑區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.2">
+    <row r="30" spans="1:7" ht="17">
       <c r="A30" s="3" t="s">
         <v>221</v>
       </c>
@@ -7532,7 +8781,7 @@
         <v>{"name":"石碇區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.2">
+    <row r="31" spans="1:7" ht="17">
       <c r="A31" s="3" t="s">
         <v>222</v>
       </c>
@@ -7554,7 +8803,7 @@
         <v>{"name":"瑞芳區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16.2">
+    <row r="32" spans="1:7" ht="17">
       <c r="A32" s="3" t="s">
         <v>223</v>
       </c>
@@ -7576,7 +8825,7 @@
         <v>{"name":"平溪區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.2">
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="3" t="s">
         <v>224</v>
       </c>
@@ -7598,7 +8847,7 @@
         <v>{"name":"雙溪區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.2">
+    <row r="34" spans="1:7" ht="17">
       <c r="A34" s="3" t="s">
         <v>225</v>
       </c>
@@ -7620,7 +8869,7 @@
         <v>{"name":"貢寮區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.2">
+    <row r="35" spans="1:7" ht="17">
       <c r="A35" s="3" t="s">
         <v>226</v>
       </c>
@@ -7642,7 +8891,7 @@
         <v>{"name":"新店區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.2">
+    <row r="36" spans="1:7" ht="17">
       <c r="A36" s="3" t="s">
         <v>227</v>
       </c>
@@ -7664,7 +8913,7 @@
         <v>{"name":"坪林區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.2">
+    <row r="37" spans="1:7" ht="17">
       <c r="A37" s="3" t="s">
         <v>228</v>
       </c>
@@ -7686,7 +8935,7 @@
         <v>{"name":"烏來區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.2">
+    <row r="38" spans="1:7" ht="17">
       <c r="A38" s="3" t="s">
         <v>229</v>
       </c>
@@ -7708,7 +8957,7 @@
         <v>{"name":"永和區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.2">
+    <row r="39" spans="1:7" ht="17">
       <c r="A39" s="3" t="s">
         <v>230</v>
       </c>
@@ -7730,7 +8979,7 @@
         <v>{"name":"中和區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.2">
+    <row r="40" spans="1:7" ht="17">
       <c r="A40" s="3" t="s">
         <v>231</v>
       </c>
@@ -7752,7 +9001,7 @@
         <v>{"name":"土城區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.2">
+    <row r="41" spans="1:7" ht="17">
       <c r="A41" s="3" t="s">
         <v>232</v>
       </c>
@@ -7774,7 +9023,7 @@
         <v>{"name":"三峽區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.2">
+    <row r="42" spans="1:7" ht="17">
       <c r="A42" s="3" t="s">
         <v>233</v>
       </c>
@@ -7796,7 +9045,7 @@
         <v>{"name":"樹林區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.2">
+    <row r="43" spans="1:7" ht="17">
       <c r="A43" s="3" t="s">
         <v>234</v>
       </c>
@@ -7818,7 +9067,7 @@
         <v>{"name":"鶯歌區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.2">
+    <row r="44" spans="1:7" ht="17">
       <c r="A44" s="3" t="s">
         <v>235</v>
       </c>
@@ -7840,7 +9089,7 @@
         <v>{"name":"三重區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.2">
+    <row r="45" spans="1:7" ht="17">
       <c r="A45" s="3" t="s">
         <v>236</v>
       </c>
@@ -7862,7 +9111,7 @@
         <v>{"name":"新莊區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.2">
+    <row r="46" spans="1:7" ht="17">
       <c r="A46" s="3" t="s">
         <v>237</v>
       </c>
@@ -7884,7 +9133,7 @@
         <v>{"name":"泰山區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.2">
+    <row r="47" spans="1:7" ht="17">
       <c r="A47" s="3" t="s">
         <v>238</v>
       </c>
@@ -7906,7 +9155,7 @@
         <v>{"name":"林口區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.2">
+    <row r="48" spans="1:7" ht="17">
       <c r="A48" s="3" t="s">
         <v>239</v>
       </c>
@@ -7928,7 +9177,7 @@
         <v>{"name":"蘆洲區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.2">
+    <row r="49" spans="1:7" ht="17">
       <c r="A49" s="3" t="s">
         <v>240</v>
       </c>
@@ -7950,7 +9199,7 @@
         <v>{"name":"五股區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.2">
+    <row r="50" spans="1:7" ht="17">
       <c r="A50" s="3" t="s">
         <v>241</v>
       </c>
@@ -7972,7 +9221,7 @@
         <v>{"name":"八里區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.2">
+    <row r="51" spans="1:7" ht="17">
       <c r="A51" s="3" t="s">
         <v>242</v>
       </c>
@@ -7994,7 +9243,7 @@
         <v>{"name":"淡水區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.2">
+    <row r="52" spans="1:7" ht="17">
       <c r="A52" s="3" t="s">
         <v>243</v>
       </c>
@@ -8016,7 +9265,7 @@
         <v>{"name":"三芝區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.2">
+    <row r="53" spans="1:7" ht="17">
       <c r="A53" s="3" t="s">
         <v>244</v>
       </c>
@@ -8038,7 +9287,7 @@
         <v>{"name":"石門區","category":"新北市"},</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.2">
+    <row r="54" spans="1:7" ht="17">
       <c r="A54" s="3" t="s">
         <v>245</v>
       </c>
@@ -8060,7 +9309,7 @@
         <v>{"name":"宜蘭市","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.2">
+    <row r="55" spans="1:7" ht="17">
       <c r="A55" s="3" t="s">
         <v>246</v>
       </c>
@@ -8082,7 +9331,7 @@
         <v>{"name":"頭城鎮","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.2">
+    <row r="56" spans="1:7" ht="17">
       <c r="A56" s="3" t="s">
         <v>247</v>
       </c>
@@ -8104,7 +9353,7 @@
         <v>{"name":"礁溪鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.2">
+    <row r="57" spans="1:7" ht="17">
       <c r="A57" s="3" t="s">
         <v>248</v>
       </c>
@@ -8126,7 +9375,7 @@
         <v>{"name":"壯圍鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.2">
+    <row r="58" spans="1:7" ht="17">
       <c r="A58" s="3" t="s">
         <v>249</v>
       </c>
@@ -8148,7 +9397,7 @@
         <v>{"name":"員山鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.2">
+    <row r="59" spans="1:7" ht="17">
       <c r="A59" s="3" t="s">
         <v>250</v>
       </c>
@@ -8170,7 +9419,7 @@
         <v>{"name":"羅東鎮","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.2">
+    <row r="60" spans="1:7" ht="17">
       <c r="A60" s="3" t="s">
         <v>251</v>
       </c>
@@ -8192,7 +9441,7 @@
         <v>{"name":"三星鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.2">
+    <row r="61" spans="1:7" ht="17">
       <c r="A61" s="3" t="s">
         <v>252</v>
       </c>
@@ -8214,7 +9463,7 @@
         <v>{"name":"大同鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.2">
+    <row r="62" spans="1:7" ht="17">
       <c r="A62" s="3" t="s">
         <v>253</v>
       </c>
@@ -8236,7 +9485,7 @@
         <v>{"name":"五結鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.2">
+    <row r="63" spans="1:7" ht="17">
       <c r="A63" s="3" t="s">
         <v>254</v>
       </c>
@@ -8258,7 +9507,7 @@
         <v>{"name":"冬山鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.2">
+    <row r="64" spans="1:7" ht="17">
       <c r="A64" s="3" t="s">
         <v>255</v>
       </c>
@@ -8280,7 +9529,7 @@
         <v>{"name":"蘇澳鎮","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.2">
+    <row r="65" spans="1:7" ht="17">
       <c r="A65" s="3" t="s">
         <v>256</v>
       </c>
@@ -8302,7 +9551,7 @@
         <v>{"name":"南澳鄉","category":"宜蘭縣"},</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.2">
+    <row r="66" spans="1:7" ht="17">
       <c r="A66" s="3" t="s">
         <v>257</v>
       </c>
@@ -8324,7 +9573,7 @@
         <v>{"name":"東區竹","category":"新竹市"},</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.2">
+    <row r="67" spans="1:7" ht="17">
       <c r="A67" s="3" t="s">
         <v>258</v>
       </c>
@@ -8346,7 +9595,7 @@
         <v>{"name":"北區竹","category":"新竹市"},</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.2">
+    <row r="68" spans="1:7" ht="17">
       <c r="A68" s="3" t="s">
         <v>259</v>
       </c>
@@ -8368,7 +9617,7 @@
         <v>{"name":"香山區","category":"新竹市"},</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.2">
+    <row r="69" spans="1:7" ht="17">
       <c r="A69" s="3" t="s">
         <v>260</v>
       </c>
@@ -8390,7 +9639,7 @@
         <v>{"name":"竹北市","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.2">
+    <row r="70" spans="1:7" ht="17">
       <c r="A70" s="3" t="s">
         <v>261</v>
       </c>
@@ -8412,7 +9661,7 @@
         <v>{"name":"湖口鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.2">
+    <row r="71" spans="1:7" ht="17">
       <c r="A71" s="3" t="s">
         <v>262</v>
       </c>
@@ -8434,7 +9683,7 @@
         <v>{"name":"新豐鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.2">
+    <row r="72" spans="1:7" ht="17">
       <c r="A72" s="3" t="s">
         <v>263</v>
       </c>
@@ -8456,7 +9705,7 @@
         <v>{"name":"新埔鎮","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.2">
+    <row r="73" spans="1:7" ht="17">
       <c r="A73" s="3" t="s">
         <v>264</v>
       </c>
@@ -8478,7 +9727,7 @@
         <v>{"name":"關西鎮","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.2">
+    <row r="74" spans="1:7" ht="17">
       <c r="A74" s="3" t="s">
         <v>265</v>
       </c>
@@ -8500,7 +9749,7 @@
         <v>{"name":"芎林鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.2">
+    <row r="75" spans="1:7" ht="17">
       <c r="A75" s="3" t="s">
         <v>266</v>
       </c>
@@ -8522,7 +9771,7 @@
         <v>{"name":"寶山鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.2">
+    <row r="76" spans="1:7" ht="17">
       <c r="A76" s="3" t="s">
         <v>267</v>
       </c>
@@ -8544,7 +9793,7 @@
         <v>{"name":"竹東鎮","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.2">
+    <row r="77" spans="1:7" ht="17">
       <c r="A77" s="3" t="s">
         <v>268</v>
       </c>
@@ -8566,7 +9815,7 @@
         <v>{"name":"五峰鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.2">
+    <row r="78" spans="1:7" ht="17">
       <c r="A78" s="3" t="s">
         <v>269</v>
       </c>
@@ -8588,7 +9837,7 @@
         <v>{"name":"橫山鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.2">
+    <row r="79" spans="1:7" ht="17">
       <c r="A79" s="3" t="s">
         <v>270</v>
       </c>
@@ -8610,7 +9859,7 @@
         <v>{"name":"尖石鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.2">
+    <row r="80" spans="1:7" ht="17">
       <c r="A80" s="3" t="s">
         <v>271</v>
       </c>
@@ -8632,7 +9881,7 @@
         <v>{"name":"北埔鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.2">
+    <row r="81" spans="1:7" ht="17">
       <c r="A81" s="3" t="s">
         <v>272</v>
       </c>
@@ -8654,7 +9903,7 @@
         <v>{"name":"峨眉鄉","category":"新竹縣"},</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.2">
+    <row r="82" spans="1:7" ht="17">
       <c r="A82" s="3" t="s">
         <v>273</v>
       </c>
@@ -8676,7 +9925,7 @@
         <v>{"name":"中壢區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.2">
+    <row r="83" spans="1:7" ht="17">
       <c r="A83" s="3" t="s">
         <v>274</v>
       </c>
@@ -8698,7 +9947,7 @@
         <v>{"name":"平鎮區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16.2">
+    <row r="84" spans="1:7" ht="17">
       <c r="A84" s="3" t="s">
         <v>275</v>
       </c>
@@ -8720,7 +9969,7 @@
         <v>{"name":"龍潭區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.2">
+    <row r="85" spans="1:7" ht="17">
       <c r="A85" s="3" t="s">
         <v>276</v>
       </c>
@@ -8742,7 +9991,7 @@
         <v>{"name":"楊梅區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.2">
+    <row r="86" spans="1:7" ht="17">
       <c r="A86" s="3" t="s">
         <v>277</v>
       </c>
@@ -8764,7 +10013,7 @@
         <v>{"name":"新屋區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.2">
+    <row r="87" spans="1:7" ht="17">
       <c r="A87" s="3" t="s">
         <v>278</v>
       </c>
@@ -8786,7 +10035,7 @@
         <v>{"name":"觀音區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.2">
+    <row r="88" spans="1:7" ht="17">
       <c r="A88" s="3" t="s">
         <v>279</v>
       </c>
@@ -8808,7 +10057,7 @@
         <v>{"name":"桃園區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.2">
+    <row r="89" spans="1:7" ht="17">
       <c r="A89" s="3" t="s">
         <v>280</v>
       </c>
@@ -8830,7 +10079,7 @@
         <v>{"name":"龜山區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.2">
+    <row r="90" spans="1:7" ht="17">
       <c r="A90" s="3" t="s">
         <v>281</v>
       </c>
@@ -8852,7 +10101,7 @@
         <v>{"name":"八德區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.2">
+    <row r="91" spans="1:7" ht="17">
       <c r="A91" s="3" t="s">
         <v>282</v>
       </c>
@@ -8874,7 +10123,7 @@
         <v>{"name":"大溪區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.2">
+    <row r="92" spans="1:7" ht="17">
       <c r="A92" s="3" t="s">
         <v>283</v>
       </c>
@@ -8896,7 +10145,7 @@
         <v>{"name":"復興區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.2">
+    <row r="93" spans="1:7" ht="17">
       <c r="A93" s="3" t="s">
         <v>284</v>
       </c>
@@ -8918,7 +10167,7 @@
         <v>{"name":"大園區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.2">
+    <row r="94" spans="1:7" ht="17">
       <c r="A94" s="3" t="s">
         <v>285</v>
       </c>
@@ -8940,7 +10189,7 @@
         <v>{"name":"蘆竹區","category":"桃園市"},</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.2">
+    <row r="95" spans="1:7" ht="17">
       <c r="A95" s="3" t="s">
         <v>286</v>
       </c>
@@ -8962,7 +10211,7 @@
         <v>{"name":"竹南鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.2">
+    <row r="96" spans="1:7" ht="17">
       <c r="A96" s="3" t="s">
         <v>287</v>
       </c>
@@ -8984,7 +10233,7 @@
         <v>{"name":"頭份鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.2">
+    <row r="97" spans="1:7" ht="17">
       <c r="A97" s="3" t="s">
         <v>288</v>
       </c>
@@ -9006,7 +10255,7 @@
         <v>{"name":"三灣鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.2">
+    <row r="98" spans="1:7" ht="17">
       <c r="A98" s="3" t="s">
         <v>289</v>
       </c>
@@ -9028,7 +10277,7 @@
         <v>{"name":"南庄鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.2">
+    <row r="99" spans="1:7" ht="17">
       <c r="A99" s="3" t="s">
         <v>290</v>
       </c>
@@ -9050,7 +10299,7 @@
         <v>{"name":"獅潭鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.2">
+    <row r="100" spans="1:7" ht="17">
       <c r="A100" s="3" t="s">
         <v>291</v>
       </c>
@@ -9072,7 +10321,7 @@
         <v>{"name":"後龍鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.2">
+    <row r="101" spans="1:7" ht="17">
       <c r="A101" s="3" t="s">
         <v>292</v>
       </c>
@@ -9094,7 +10343,7 @@
         <v>{"name":"通霄鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.2">
+    <row r="102" spans="1:7" ht="17">
       <c r="A102" s="3" t="s">
         <v>293</v>
       </c>
@@ -9116,7 +10365,7 @@
         <v>{"name":"苑裡鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.2">
+    <row r="103" spans="1:7" ht="17">
       <c r="A103" s="3" t="s">
         <v>294</v>
       </c>
@@ -9138,7 +10387,7 @@
         <v>{"name":"苗栗市","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.2">
+    <row r="104" spans="1:7" ht="17">
       <c r="A104" s="3" t="s">
         <v>295</v>
       </c>
@@ -9160,7 +10409,7 @@
         <v>{"name":"造橋鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.2">
+    <row r="105" spans="1:7" ht="17">
       <c r="A105" s="3" t="s">
         <v>296</v>
       </c>
@@ -9182,7 +10431,7 @@
         <v>{"name":"頭屋鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.2">
+    <row r="106" spans="1:7" ht="17">
       <c r="A106" s="3" t="s">
         <v>297</v>
       </c>
@@ -9204,7 +10453,7 @@
         <v>{"name":"公館鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.2">
+    <row r="107" spans="1:7" ht="17">
       <c r="A107" s="3" t="s">
         <v>298</v>
       </c>
@@ -9226,7 +10475,7 @@
         <v>{"name":"大湖鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.2">
+    <row r="108" spans="1:7" ht="17">
       <c r="A108" s="3" t="s">
         <v>299</v>
       </c>
@@ -9248,7 +10497,7 @@
         <v>{"name":"泰安鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.2">
+    <row r="109" spans="1:7" ht="17">
       <c r="A109" s="3" t="s">
         <v>300</v>
       </c>
@@ -9270,7 +10519,7 @@
         <v>{"name":"銅鑼鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="16.2">
+    <row r="110" spans="1:7" ht="17">
       <c r="A110" s="3" t="s">
         <v>301</v>
       </c>
@@ -9292,7 +10541,7 @@
         <v>{"name":"三義鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="16.2">
+    <row r="111" spans="1:7" ht="17">
       <c r="A111" s="3" t="s">
         <v>302</v>
       </c>
@@ -9314,7 +10563,7 @@
         <v>{"name":"西湖鄉","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16.2">
+    <row r="112" spans="1:7" ht="17">
       <c r="A112" s="3" t="s">
         <v>303</v>
       </c>
@@ -9336,7 +10585,7 @@
         <v>{"name":"卓蘭鎮","category":"苗栗縣"},</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="16.2">
+    <row r="113" spans="1:7" ht="17">
       <c r="A113" s="3" t="s">
         <v>304</v>
       </c>
@@ -9358,7 +10607,7 @@
         <v>{"name":"中區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="16.2">
+    <row r="114" spans="1:7" ht="17">
       <c r="A114" s="3" t="s">
         <v>305</v>
       </c>
@@ -9380,7 +10629,7 @@
         <v>{"name":"東區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.2">
+    <row r="115" spans="1:7" ht="17">
       <c r="A115" s="3" t="s">
         <v>306</v>
       </c>
@@ -9402,7 +10651,7 @@
         <v>{"name":"南區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="16.2">
+    <row r="116" spans="1:7" ht="17">
       <c r="A116" s="3" t="s">
         <v>307</v>
       </c>
@@ -9424,7 +10673,7 @@
         <v>{"name":"西區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="16.2">
+    <row r="117" spans="1:7" ht="17">
       <c r="A117" s="3" t="s">
         <v>308</v>
       </c>
@@ -9446,7 +10695,7 @@
         <v>{"name":"北區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="16.2">
+    <row r="118" spans="1:7" ht="17">
       <c r="A118" s="3" t="s">
         <v>309</v>
       </c>
@@ -9468,7 +10717,7 @@
         <v>{"name":"北屯區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="16.2">
+    <row r="119" spans="1:7" ht="17">
       <c r="A119" s="3" t="s">
         <v>310</v>
       </c>
@@ -9490,7 +10739,7 @@
         <v>{"name":"西屯區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="16.2">
+    <row r="120" spans="1:7" ht="17">
       <c r="A120" s="3" t="s">
         <v>311</v>
       </c>
@@ -9512,7 +10761,7 @@
         <v>{"name":"南屯區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="16.2">
+    <row r="121" spans="1:7" ht="17">
       <c r="A121" s="3" t="s">
         <v>312</v>
       </c>
@@ -9534,7 +10783,7 @@
         <v>{"name":"太平區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="16.2">
+    <row r="122" spans="1:7" ht="17">
       <c r="A122" s="3" t="s">
         <v>313</v>
       </c>
@@ -9556,7 +10805,7 @@
         <v>{"name":"大里區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="16.2">
+    <row r="123" spans="1:7" ht="17">
       <c r="A123" s="3" t="s">
         <v>314</v>
       </c>
@@ -9578,7 +10827,7 @@
         <v>{"name":"霧峰區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16.2">
+    <row r="124" spans="1:7" ht="17">
       <c r="A124" s="3" t="s">
         <v>315</v>
       </c>
@@ -9600,7 +10849,7 @@
         <v>{"name":"烏日區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="16.2">
+    <row r="125" spans="1:7" ht="17">
       <c r="A125" s="3" t="s">
         <v>316</v>
       </c>
@@ -9622,7 +10871,7 @@
         <v>{"name":"豐原區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="16.2">
+    <row r="126" spans="1:7" ht="17">
       <c r="A126" s="3" t="s">
         <v>317</v>
       </c>
@@ -9644,7 +10893,7 @@
         <v>{"name":"后里區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="16.2">
+    <row r="127" spans="1:7" ht="17">
       <c r="A127" s="3" t="s">
         <v>318</v>
       </c>
@@ -9666,7 +10915,7 @@
         <v>{"name":"石岡區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="16.2">
+    <row r="128" spans="1:7" ht="17">
       <c r="A128" s="3" t="s">
         <v>319</v>
       </c>
@@ -9688,7 +10937,7 @@
         <v>{"name":"東勢區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="16.2">
+    <row r="129" spans="1:7" ht="17">
       <c r="A129" s="3" t="s">
         <v>320</v>
       </c>
@@ -9710,7 +10959,7 @@
         <v>{"name":"和平區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="16.2">
+    <row r="130" spans="1:7" ht="17">
       <c r="A130" s="3" t="s">
         <v>321</v>
       </c>
@@ -9732,7 +10981,7 @@
         <v>{"name":"新社區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="16.2">
+    <row r="131" spans="1:7" ht="17">
       <c r="A131" s="3" t="s">
         <v>322</v>
       </c>
@@ -9754,7 +11003,7 @@
         <v>{"name":"潭子區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="16.2">
+    <row r="132" spans="1:7" ht="17">
       <c r="A132" s="3" t="s">
         <v>323</v>
       </c>
@@ -9776,7 +11025,7 @@
         <v>{"name":"大雅區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="16.2">
+    <row r="133" spans="1:7" ht="17">
       <c r="A133" s="3" t="s">
         <v>324</v>
       </c>
@@ -9798,7 +11047,7 @@
         <v>{"name":"神岡區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="16.2">
+    <row r="134" spans="1:7" ht="17">
       <c r="A134" s="3" t="s">
         <v>325</v>
       </c>
@@ -9820,7 +11069,7 @@
         <v>{"name":"大肚區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="16.2">
+    <row r="135" spans="1:7" ht="17">
       <c r="A135" s="3" t="s">
         <v>326</v>
       </c>
@@ -9842,7 +11091,7 @@
         <v>{"name":"沙鹿區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="16.2">
+    <row r="136" spans="1:7" ht="17">
       <c r="A136" s="3" t="s">
         <v>327</v>
       </c>
@@ -9864,7 +11113,7 @@
         <v>{"name":"龍井區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="16.2">
+    <row r="137" spans="1:7" ht="17">
       <c r="A137" s="3" t="s">
         <v>328</v>
       </c>
@@ -9886,7 +11135,7 @@
         <v>{"name":"梧棲區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="16.2">
+    <row r="138" spans="1:7" ht="17">
       <c r="A138" s="3" t="s">
         <v>329</v>
       </c>
@@ -9908,7 +11157,7 @@
         <v>{"name":"清水區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="16.2">
+    <row r="139" spans="1:7" ht="17">
       <c r="A139" s="3" t="s">
         <v>330</v>
       </c>
@@ -9930,7 +11179,7 @@
         <v>{"name":"大甲區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="16.2">
+    <row r="140" spans="1:7" ht="17">
       <c r="A140" s="3" t="s">
         <v>331</v>
       </c>
@@ -9952,7 +11201,7 @@
         <v>{"name":"外埔區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="16.2">
+    <row r="141" spans="1:7" ht="17">
       <c r="A141" s="3" t="s">
         <v>198</v>
       </c>
@@ -9974,7 +11223,7 @@
         <v>{"name":"大安區","category":"台中市"},</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="16.2">
+    <row r="142" spans="1:7" ht="17">
       <c r="A142" s="3" t="s">
         <v>332</v>
       </c>
@@ -9996,7 +11245,7 @@
         <v>{"name":"彰化市","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="16.2">
+    <row r="143" spans="1:7" ht="17">
       <c r="A143" s="3" t="s">
         <v>333</v>
       </c>
@@ -10018,7 +11267,7 @@
         <v>{"name":"芬園鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="16.2">
+    <row r="144" spans="1:7" ht="17">
       <c r="A144" s="3" t="s">
         <v>334</v>
       </c>
@@ -10040,7 +11289,7 @@
         <v>{"name":"花壇鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="16.2">
+    <row r="145" spans="1:7" ht="17">
       <c r="A145" s="3" t="s">
         <v>335</v>
       </c>
@@ -10062,7 +11311,7 @@
         <v>{"name":"秀水鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="16.2">
+    <row r="146" spans="1:7" ht="17">
       <c r="A146" s="3" t="s">
         <v>336</v>
       </c>
@@ -10084,7 +11333,7 @@
         <v>{"name":"鹿港鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="16.2">
+    <row r="147" spans="1:7" ht="17">
       <c r="A147" s="3" t="s">
         <v>337</v>
       </c>
@@ -10106,7 +11355,7 @@
         <v>{"name":"福興鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="16.2">
+    <row r="148" spans="1:7" ht="17">
       <c r="A148" s="3" t="s">
         <v>338</v>
       </c>
@@ -10128,7 +11377,7 @@
         <v>{"name":"線西鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="16.2">
+    <row r="149" spans="1:7" ht="17">
       <c r="A149" s="3" t="s">
         <v>339</v>
       </c>
@@ -10150,7 +11399,7 @@
         <v>{"name":"和美鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="16.2">
+    <row r="150" spans="1:7" ht="17">
       <c r="A150" s="3" t="s">
         <v>340</v>
       </c>
@@ -10172,7 +11421,7 @@
         <v>{"name":"伸港鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="16.2">
+    <row r="151" spans="1:7" ht="17">
       <c r="A151" s="3" t="s">
         <v>341</v>
       </c>
@@ -10194,7 +11443,7 @@
         <v>{"name":"員林鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="16.2">
+    <row r="152" spans="1:7" ht="17">
       <c r="A152" s="3" t="s">
         <v>342</v>
       </c>
@@ -10216,7 +11465,7 @@
         <v>{"name":"社頭鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="16.2">
+    <row r="153" spans="1:7" ht="17">
       <c r="A153" s="3" t="s">
         <v>343</v>
       </c>
@@ -10238,7 +11487,7 @@
         <v>{"name":"永靖鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="16.2">
+    <row r="154" spans="1:7" ht="17">
       <c r="A154" s="3" t="s">
         <v>344</v>
       </c>
@@ -10260,7 +11509,7 @@
         <v>{"name":"埔心鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="16.2">
+    <row r="155" spans="1:7" ht="17">
       <c r="A155" s="3" t="s">
         <v>345</v>
       </c>
@@ -10282,7 +11531,7 @@
         <v>{"name":"溪湖鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="16.2">
+    <row r="156" spans="1:7" ht="17">
       <c r="A156" s="3" t="s">
         <v>346</v>
       </c>
@@ -10304,7 +11553,7 @@
         <v>{"name":"大村鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="16.2">
+    <row r="157" spans="1:7" ht="17">
       <c r="A157" s="3" t="s">
         <v>347</v>
       </c>
@@ -10326,7 +11575,7 @@
         <v>{"name":"埔鹽鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="16.2">
+    <row r="158" spans="1:7" ht="17">
       <c r="A158" s="3" t="s">
         <v>348</v>
       </c>
@@ -10348,7 +11597,7 @@
         <v>{"name":"田中鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="16.2">
+    <row r="159" spans="1:7" ht="17">
       <c r="A159" s="3" t="s">
         <v>349</v>
       </c>
@@ -10370,7 +11619,7 @@
         <v>{"name":"北斗鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="16.2">
+    <row r="160" spans="1:7" ht="17">
       <c r="A160" s="3" t="s">
         <v>350</v>
       </c>
@@ -10392,7 +11641,7 @@
         <v>{"name":"田尾鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="16.2">
+    <row r="161" spans="1:7" ht="17">
       <c r="A161" s="3" t="s">
         <v>351</v>
       </c>
@@ -10414,7 +11663,7 @@
         <v>{"name":"埤頭鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="16.2">
+    <row r="162" spans="1:7" ht="17">
       <c r="A162" s="3" t="s">
         <v>352</v>
       </c>
@@ -10436,7 +11685,7 @@
         <v>{"name":"溪州鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="16.2">
+    <row r="163" spans="1:7" ht="17">
       <c r="A163" s="3" t="s">
         <v>353</v>
       </c>
@@ -10458,7 +11707,7 @@
         <v>{"name":"竹塘鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="16.2">
+    <row r="164" spans="1:7" ht="17">
       <c r="A164" s="3" t="s">
         <v>354</v>
       </c>
@@ -10480,7 +11729,7 @@
         <v>{"name":"二林鎮","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="16.2">
+    <row r="165" spans="1:7" ht="17">
       <c r="A165" s="3" t="s">
         <v>355</v>
       </c>
@@ -10502,7 +11751,7 @@
         <v>{"name":"大城鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="16.2">
+    <row r="166" spans="1:7" ht="17">
       <c r="A166" s="3" t="s">
         <v>356</v>
       </c>
@@ -10524,7 +11773,7 @@
         <v>{"name":"芳苑鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16.2">
+    <row r="167" spans="1:7" ht="17">
       <c r="A167" s="3" t="s">
         <v>357</v>
       </c>
@@ -10546,7 +11795,7 @@
         <v>{"name":"二水鄉","category":"彰化縣"},</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="16.2">
+    <row r="168" spans="1:7" ht="17">
       <c r="A168" s="3" t="s">
         <v>358</v>
       </c>
@@ -10568,7 +11817,7 @@
         <v>{"name":"南投市","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="16.2">
+    <row r="169" spans="1:7" ht="17">
       <c r="A169" s="3" t="s">
         <v>359</v>
       </c>
@@ -10590,7 +11839,7 @@
         <v>{"name":"中寮鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="16.2">
+    <row r="170" spans="1:7" ht="17">
       <c r="A170" s="3" t="s">
         <v>360</v>
       </c>
@@ -10612,7 +11861,7 @@
         <v>{"name":"草屯鎮","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16.2">
+    <row r="171" spans="1:7" ht="17">
       <c r="A171" s="3" t="s">
         <v>361</v>
       </c>
@@ -10634,7 +11883,7 @@
         <v>{"name":"國姓鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16.2">
+    <row r="172" spans="1:7" ht="17">
       <c r="A172" s="3" t="s">
         <v>362</v>
       </c>
@@ -10656,7 +11905,7 @@
         <v>{"name":"埔里鎮","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="16.2">
+    <row r="173" spans="1:7" ht="17">
       <c r="A173" s="3" t="s">
         <v>363</v>
       </c>
@@ -10678,7 +11927,7 @@
         <v>{"name":"仁愛鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="16.2">
+    <row r="174" spans="1:7" ht="17">
       <c r="A174" s="3" t="s">
         <v>364</v>
       </c>
@@ -10700,7 +11949,7 @@
         <v>{"name":"名間鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16.2">
+    <row r="175" spans="1:7" ht="17">
       <c r="A175" s="3" t="s">
         <v>365</v>
       </c>
@@ -10722,7 +11971,7 @@
         <v>{"name":"集集鎮","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16.2">
+    <row r="176" spans="1:7" ht="17">
       <c r="A176" s="3" t="s">
         <v>366</v>
       </c>
@@ -10744,7 +11993,7 @@
         <v>{"name":"水里鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="16.2">
+    <row r="177" spans="1:7" ht="17">
       <c r="A177" s="3" t="s">
         <v>367</v>
       </c>
@@ -10766,7 +12015,7 @@
         <v>{"name":"魚池鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="16.2">
+    <row r="178" spans="1:7" ht="17">
       <c r="A178" s="3" t="s">
         <v>368</v>
       </c>
@@ -10788,7 +12037,7 @@
         <v>{"name":"信義鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="16.2">
+    <row r="179" spans="1:7" ht="17">
       <c r="A179" s="3" t="s">
         <v>369</v>
       </c>
@@ -10810,7 +12059,7 @@
         <v>{"name":"竹山鎮","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="16.2">
+    <row r="180" spans="1:7" ht="17">
       <c r="A180" s="3" t="s">
         <v>370</v>
       </c>
@@ -10832,7 +12081,7 @@
         <v>{"name":"鹿谷鄉","category":"南投縣"},</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="16.2">
+    <row r="181" spans="1:7" ht="17">
       <c r="A181" s="3" t="s">
         <v>371</v>
       </c>
@@ -10854,7 +12103,7 @@
         <v>{"name":"東區嘉","category":"嘉義市"},</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="16.2">
+    <row r="182" spans="1:7" ht="17">
       <c r="A182" s="3" t="s">
         <v>372</v>
       </c>
@@ -10876,7 +12125,7 @@
         <v>{"name":"西區嘉","category":"嘉義市"},</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="16.2">
+    <row r="183" spans="1:7" ht="17">
       <c r="A183" s="3" t="s">
         <v>373</v>
       </c>
@@ -10898,7 +12147,7 @@
         <v>{"name":"番路鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="16.2">
+    <row r="184" spans="1:7" ht="17">
       <c r="A184" s="3" t="s">
         <v>374</v>
       </c>
@@ -10920,7 +12169,7 @@
         <v>{"name":"梅山鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16.2">
+    <row r="185" spans="1:7" ht="17">
       <c r="A185" s="3" t="s">
         <v>375</v>
       </c>
@@ -10942,7 +12191,7 @@
         <v>{"name":"竹崎鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16.2">
+    <row r="186" spans="1:7" ht="17">
       <c r="A186" s="3" t="s">
         <v>376</v>
       </c>
@@ -10964,7 +12213,7 @@
         <v>{"name":"阿里山鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="16.2">
+    <row r="187" spans="1:7" ht="17">
       <c r="A187" s="3" t="s">
         <v>377</v>
       </c>
@@ -10986,7 +12235,7 @@
         <v>{"name":"中埔鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.2">
+    <row r="188" spans="1:7" ht="17">
       <c r="A188" s="3" t="s">
         <v>378</v>
       </c>
@@ -11008,7 +12257,7 @@
         <v>{"name":"大埔鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="16.2">
+    <row r="189" spans="1:7" ht="17">
       <c r="A189" s="3" t="s">
         <v>379</v>
       </c>
@@ -11030,7 +12279,7 @@
         <v>{"name":"水上鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.2">
+    <row r="190" spans="1:7" ht="17">
       <c r="A190" s="3" t="s">
         <v>380</v>
       </c>
@@ -11052,7 +12301,7 @@
         <v>{"name":"鹿草鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16.2">
+    <row r="191" spans="1:7" ht="17">
       <c r="A191" s="3" t="s">
         <v>381</v>
       </c>
@@ -11074,7 +12323,7 @@
         <v>{"name":"太保市","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="16.2">
+    <row r="192" spans="1:7" ht="17">
       <c r="A192" s="3" t="s">
         <v>382</v>
       </c>
@@ -11096,7 +12345,7 @@
         <v>{"name":"朴子市","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="16.2">
+    <row r="193" spans="1:7" ht="17">
       <c r="A193" s="3" t="s">
         <v>383</v>
       </c>
@@ -11118,7 +12367,7 @@
         <v>{"name":"東石鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="16.2">
+    <row r="194" spans="1:7" ht="17">
       <c r="A194" s="3" t="s">
         <v>384</v>
       </c>
@@ -11140,7 +12389,7 @@
         <v>{"name":"六腳鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="16.2">
+    <row r="195" spans="1:7" ht="17">
       <c r="A195" s="3" t="s">
         <v>385</v>
       </c>
@@ -11162,7 +12411,7 @@
         <v>{"name":"新港鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="16.2">
+    <row r="196" spans="1:7" ht="17">
       <c r="A196" s="3" t="s">
         <v>386</v>
       </c>
@@ -11184,7 +12433,7 @@
         <v>{"name":"民雄鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="16.2">
+    <row r="197" spans="1:7" ht="17">
       <c r="A197" s="3" t="s">
         <v>387</v>
       </c>
@@ -11206,7 +12455,7 @@
         <v>{"name":"大林鎮","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="16.2">
+    <row r="198" spans="1:7" ht="17">
       <c r="A198" s="3" t="s">
         <v>388</v>
       </c>
@@ -11228,7 +12477,7 @@
         <v>{"name":"溪口鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16.2">
+    <row r="199" spans="1:7" ht="17">
       <c r="A199" s="3" t="s">
         <v>389</v>
       </c>
@@ -11250,7 +12499,7 @@
         <v>{"name":"義竹鄉","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="16.2">
+    <row r="200" spans="1:7" ht="17">
       <c r="A200" s="3" t="s">
         <v>390</v>
       </c>
@@ -11272,7 +12521,7 @@
         <v>{"name":"布袋鎮","category":"嘉義縣"},</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="16.2">
+    <row r="201" spans="1:7" ht="17">
       <c r="A201" s="3" t="s">
         <v>391</v>
       </c>
@@ -11294,7 +12543,7 @@
         <v>{"name":"斗南鎮","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="16.2">
+    <row r="202" spans="1:7" ht="17">
       <c r="A202" s="3" t="s">
         <v>392</v>
       </c>
@@ -11316,7 +12565,7 @@
         <v>{"name":"大埤鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="16.2">
+    <row r="203" spans="1:7" ht="17">
       <c r="A203" s="3" t="s">
         <v>393</v>
       </c>
@@ -11338,7 +12587,7 @@
         <v>{"name":"虎尾鎮","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="16.2">
+    <row r="204" spans="1:7" ht="17">
       <c r="A204" s="3" t="s">
         <v>394</v>
       </c>
@@ -11360,7 +12609,7 @@
         <v>{"name":"土庫鎮","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="16.2">
+    <row r="205" spans="1:7" ht="17">
       <c r="A205" s="3" t="s">
         <v>395</v>
       </c>
@@ -11382,7 +12631,7 @@
         <v>{"name":"褒忠鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="16.2">
+    <row r="206" spans="1:7" ht="17">
       <c r="A206" s="3" t="s">
         <v>396</v>
       </c>
@@ -11404,7 +12653,7 @@
         <v>{"name":"東勢鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="16.2">
+    <row r="207" spans="1:7" ht="17">
       <c r="A207" s="3" t="s">
         <v>397</v>
       </c>
@@ -11426,7 +12675,7 @@
         <v>{"name":"台西鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="16.2">
+    <row r="208" spans="1:7" ht="17">
       <c r="A208" s="3" t="s">
         <v>398</v>
       </c>
@@ -11448,7 +12697,7 @@
         <v>{"name":"崙背鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="16.2">
+    <row r="209" spans="1:7" ht="17">
       <c r="A209" s="3" t="s">
         <v>399</v>
       </c>
@@ -11470,7 +12719,7 @@
         <v>{"name":"麥寮鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="16.2">
+    <row r="210" spans="1:7" ht="17">
       <c r="A210" s="3" t="s">
         <v>400</v>
       </c>
@@ -11492,7 +12741,7 @@
         <v>{"name":"斗六市","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="16.2">
+    <row r="211" spans="1:7" ht="17">
       <c r="A211" s="3" t="s">
         <v>401</v>
       </c>
@@ -11514,7 +12763,7 @@
         <v>{"name":"林內鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="16.2">
+    <row r="212" spans="1:7" ht="17">
       <c r="A212" s="3" t="s">
         <v>402</v>
       </c>
@@ -11536,7 +12785,7 @@
         <v>{"name":"古坑鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="16.2">
+    <row r="213" spans="1:7" ht="17">
       <c r="A213" s="3" t="s">
         <v>403</v>
       </c>
@@ -11558,7 +12807,7 @@
         <v>{"name":"莿桐鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="16.2">
+    <row r="214" spans="1:7" ht="17">
       <c r="A214" s="3" t="s">
         <v>404</v>
       </c>
@@ -11580,7 +12829,7 @@
         <v>{"name":"西螺鎮","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="16.2">
+    <row r="215" spans="1:7" ht="17">
       <c r="A215" s="3" t="s">
         <v>405</v>
       </c>
@@ -11602,7 +12851,7 @@
         <v>{"name":"二崙鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="16.2">
+    <row r="216" spans="1:7" ht="17">
       <c r="A216" s="3" t="s">
         <v>406</v>
       </c>
@@ -11624,7 +12873,7 @@
         <v>{"name":"北港鎮","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="16.2">
+    <row r="217" spans="1:7" ht="17">
       <c r="A217" s="3" t="s">
         <v>407</v>
       </c>
@@ -11646,7 +12895,7 @@
         <v>{"name":"水林鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="16.2">
+    <row r="218" spans="1:7" ht="17">
       <c r="A218" s="3" t="s">
         <v>408</v>
       </c>
@@ -11668,7 +12917,7 @@
         <v>{"name":"口湖鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="16.2">
+    <row r="219" spans="1:7" ht="17">
       <c r="A219" s="3" t="s">
         <v>409</v>
       </c>
@@ -11690,7 +12939,7 @@
         <v>{"name":"四湖鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="16.2">
+    <row r="220" spans="1:7" ht="17">
       <c r="A220" s="3" t="s">
         <v>410</v>
       </c>
@@ -11712,7 +12961,7 @@
         <v>{"name":"元長鄉","category":"雲林縣"},</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="16.2">
+    <row r="221" spans="1:7" ht="17">
       <c r="A221" s="3" t="s">
         <v>411</v>
       </c>
@@ -11734,7 +12983,7 @@
         <v>{"name":"中西區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="16.2">
+    <row r="222" spans="1:7" ht="17">
       <c r="A222" s="3" t="s">
         <v>412</v>
       </c>
@@ -11756,7 +13005,7 @@
         <v>{"name":"東區南","category":"台南市"},</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="16.2">
+    <row r="223" spans="1:7" ht="17">
       <c r="A223" s="3" t="s">
         <v>413</v>
       </c>
@@ -11778,7 +13027,7 @@
         <v>{"name":"南區南","category":"台南市"},</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="16.2">
+    <row r="224" spans="1:7" ht="17">
       <c r="A224" s="3" t="s">
         <v>414</v>
       </c>
@@ -11800,7 +13049,7 @@
         <v>{"name":"北區南","category":"台南市"},</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="16.2">
+    <row r="225" spans="1:7" ht="17">
       <c r="A225" s="3" t="s">
         <v>415</v>
       </c>
@@ -11822,7 +13071,7 @@
         <v>{"name":"安平區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="16.2">
+    <row r="226" spans="1:7" ht="17">
       <c r="A226" s="3" t="s">
         <v>416</v>
       </c>
@@ -11844,7 +13093,7 @@
         <v>{"name":"安南區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="16.2">
+    <row r="227" spans="1:7" ht="17">
       <c r="A227" s="3" t="s">
         <v>417</v>
       </c>
@@ -11866,7 +13115,7 @@
         <v>{"name":"永康區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="16.2">
+    <row r="228" spans="1:7" ht="17">
       <c r="A228" s="3" t="s">
         <v>418</v>
       </c>
@@ -11888,7 +13137,7 @@
         <v>{"name":"歸仁區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="16.2">
+    <row r="229" spans="1:7" ht="17">
       <c r="A229" s="3" t="s">
         <v>419</v>
       </c>
@@ -11910,7 +13159,7 @@
         <v>{"name":"新化區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="16.2">
+    <row r="230" spans="1:7" ht="17">
       <c r="A230" s="3" t="s">
         <v>420</v>
       </c>
@@ -11932,7 +13181,7 @@
         <v>{"name":"左鎮區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="16.2">
+    <row r="231" spans="1:7" ht="17">
       <c r="A231" s="3" t="s">
         <v>421</v>
       </c>
@@ -11954,7 +13203,7 @@
         <v>{"name":"玉井區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="16.2">
+    <row r="232" spans="1:7" ht="17">
       <c r="A232" s="3" t="s">
         <v>422</v>
       </c>
@@ -11976,7 +13225,7 @@
         <v>{"name":"楠西區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="16.2">
+    <row r="233" spans="1:7" ht="17">
       <c r="A233" s="3" t="s">
         <v>423</v>
       </c>
@@ -11998,7 +13247,7 @@
         <v>{"name":"南化區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="16.2">
+    <row r="234" spans="1:7" ht="17">
       <c r="A234" s="3" t="s">
         <v>424</v>
       </c>
@@ -12020,7 +13269,7 @@
         <v>{"name":"仁德區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="16.2">
+    <row r="235" spans="1:7" ht="17">
       <c r="A235" s="3" t="s">
         <v>425</v>
       </c>
@@ -12042,7 +13291,7 @@
         <v>{"name":"關廟區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="16.2">
+    <row r="236" spans="1:7" ht="17">
       <c r="A236" s="3" t="s">
         <v>426</v>
       </c>
@@ -12064,7 +13313,7 @@
         <v>{"name":"龍崎區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="16.2">
+    <row r="237" spans="1:7" ht="17">
       <c r="A237" s="3" t="s">
         <v>427</v>
       </c>
@@ -12086,7 +13335,7 @@
         <v>{"name":"官田區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="16.2">
+    <row r="238" spans="1:7" ht="17">
       <c r="A238" s="3" t="s">
         <v>428</v>
       </c>
@@ -12108,7 +13357,7 @@
         <v>{"name":"麻豆區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="16.2">
+    <row r="239" spans="1:7" ht="17">
       <c r="A239" s="3" t="s">
         <v>429</v>
       </c>
@@ -12130,7 +13379,7 @@
         <v>{"name":"佳里區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="16.2">
+    <row r="240" spans="1:7" ht="17">
       <c r="A240" s="3" t="s">
         <v>430</v>
       </c>
@@ -12152,7 +13401,7 @@
         <v>{"name":"西港區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="16.2">
+    <row r="241" spans="1:7" ht="17">
       <c r="A241" s="3" t="s">
         <v>431</v>
       </c>
@@ -12174,7 +13423,7 @@
         <v>{"name":"七股區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="16.2">
+    <row r="242" spans="1:7" ht="17">
       <c r="A242" s="3" t="s">
         <v>432</v>
       </c>
@@ -12196,7 +13445,7 @@
         <v>{"name":"將軍區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="16.2">
+    <row r="243" spans="1:7" ht="17">
       <c r="A243" s="3" t="s">
         <v>433</v>
       </c>
@@ -12218,7 +13467,7 @@
         <v>{"name":"學甲區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="16.2">
+    <row r="244" spans="1:7" ht="17">
       <c r="A244" s="3" t="s">
         <v>434</v>
       </c>
@@ -12240,7 +13489,7 @@
         <v>{"name":"北門區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="16.2">
+    <row r="245" spans="1:7" ht="17">
       <c r="A245" s="3" t="s">
         <v>435</v>
       </c>
@@ -12262,7 +13511,7 @@
         <v>{"name":"新營區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="16.2">
+    <row r="246" spans="1:7" ht="17">
       <c r="A246" s="3" t="s">
         <v>436</v>
       </c>
@@ -12284,7 +13533,7 @@
         <v>{"name":"後壁區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="16.2">
+    <row r="247" spans="1:7" ht="17">
       <c r="A247" s="3" t="s">
         <v>437</v>
       </c>
@@ -12306,7 +13555,7 @@
         <v>{"name":"白河區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="16.2">
+    <row r="248" spans="1:7" ht="17">
       <c r="A248" s="3" t="s">
         <v>438</v>
       </c>
@@ -12328,7 +13577,7 @@
         <v>{"name":"東山區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="16.2">
+    <row r="249" spans="1:7" ht="17">
       <c r="A249" s="3" t="s">
         <v>439</v>
       </c>
@@ -12350,7 +13599,7 @@
         <v>{"name":"六甲區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="16.2">
+    <row r="250" spans="1:7" ht="17">
       <c r="A250" s="3" t="s">
         <v>440</v>
       </c>
@@ -12372,7 +13621,7 @@
         <v>{"name":"下營區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="16.2">
+    <row r="251" spans="1:7" ht="17">
       <c r="A251" s="3" t="s">
         <v>441</v>
       </c>
@@ -12394,7 +13643,7 @@
         <v>{"name":"柳營區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="16.2">
+    <row r="252" spans="1:7" ht="17">
       <c r="A252" s="3" t="s">
         <v>442</v>
       </c>
@@ -12416,7 +13665,7 @@
         <v>{"name":"鹽水區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="16.2">
+    <row r="253" spans="1:7" ht="17">
       <c r="A253" s="3" t="s">
         <v>443</v>
       </c>
@@ -12438,7 +13687,7 @@
         <v>{"name":"善化區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="16.2">
+    <row r="254" spans="1:7" ht="17">
       <c r="A254" s="3" t="s">
         <v>444</v>
       </c>
@@ -12460,7 +13709,7 @@
         <v>{"name":"大內區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="16.2">
+    <row r="255" spans="1:7" ht="17">
       <c r="A255" s="3" t="s">
         <v>445</v>
       </c>
@@ -12482,7 +13731,7 @@
         <v>{"name":"山上區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="16.2">
+    <row r="256" spans="1:7" ht="17">
       <c r="A256" s="3" t="s">
         <v>446</v>
       </c>
@@ -12504,7 +13753,7 @@
         <v>{"name":"新市區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="16.2">
+    <row r="257" spans="1:7" ht="17">
       <c r="A257" s="3" t="s">
         <v>447</v>
       </c>
@@ -12526,7 +13775,7 @@
         <v>{"name":"安定區","category":"台南市"},</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="16.2">
+    <row r="258" spans="1:7" ht="17">
       <c r="A258" s="3" t="s">
         <v>448</v>
       </c>
@@ -12548,7 +13797,7 @@
         <v>{"name":"新興區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="16.2">
+    <row r="259" spans="1:7" ht="17">
       <c r="A259" s="3" t="s">
         <v>449</v>
       </c>
@@ -12570,7 +13819,7 @@
         <v>{"name":"前金區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="16.2">
+    <row r="260" spans="1:7" ht="17">
       <c r="A260" s="3" t="s">
         <v>450</v>
       </c>
@@ -12592,7 +13841,7 @@
         <v>{"name":"苓雅區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="16.2">
+    <row r="261" spans="1:7" ht="17">
       <c r="A261" s="3" t="s">
         <v>451</v>
       </c>
@@ -12614,7 +13863,7 @@
         <v>{"name":"鹽埕區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="16.2">
+    <row r="262" spans="1:7" ht="17">
       <c r="A262" s="3" t="s">
         <v>452</v>
       </c>
@@ -12636,7 +13885,7 @@
         <v>{"name":"鼓山區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="16.2">
+    <row r="263" spans="1:7" ht="17">
       <c r="A263" s="3" t="s">
         <v>453</v>
       </c>
@@ -12658,7 +13907,7 @@
         <v>{"name":"旗津區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="16.2">
+    <row r="264" spans="1:7" ht="17">
       <c r="A264" s="3" t="s">
         <v>454</v>
       </c>
@@ -12680,7 +13929,7 @@
         <v>{"name":"前鎮區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="16.2">
+    <row r="265" spans="1:7" ht="17">
       <c r="A265" s="3" t="s">
         <v>455</v>
       </c>
@@ -12702,7 +13951,7 @@
         <v>{"name":"三民區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="16.2">
+    <row r="266" spans="1:7" ht="17">
       <c r="A266" s="3" t="s">
         <v>456</v>
       </c>
@@ -12724,7 +13973,7 @@
         <v>{"name":"楠梓區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="16.2">
+    <row r="267" spans="1:7" ht="17">
       <c r="A267" s="3" t="s">
         <v>457</v>
       </c>
@@ -12746,7 +13995,7 @@
         <v>{"name":"小港區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="16.2">
+    <row r="268" spans="1:7" ht="17">
       <c r="A268" s="3" t="s">
         <v>458</v>
       </c>
@@ -12768,7 +14017,7 @@
         <v>{"name":"左營區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="16.2">
+    <row r="269" spans="1:7" ht="17">
       <c r="A269" s="3" t="s">
         <v>459</v>
       </c>
@@ -12790,7 +14039,7 @@
         <v>{"name":"仁武區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="16.2">
+    <row r="270" spans="1:7" ht="17">
       <c r="A270" s="3" t="s">
         <v>460</v>
       </c>
@@ -12812,7 +14061,7 @@
         <v>{"name":"大社區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="16.2">
+    <row r="271" spans="1:7" ht="17">
       <c r="A271" s="3" t="s">
         <v>461</v>
       </c>
@@ -12834,7 +14083,7 @@
         <v>{"name":"東沙群島","category":"南海島"},</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="16.2">
+    <row r="272" spans="1:7" ht="17">
       <c r="A272" s="3" t="s">
         <v>462</v>
       </c>
@@ -12856,7 +14105,7 @@
         <v>{"name":"南沙群島","category":"南海島"},</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="16.2">
+    <row r="273" spans="1:7" ht="17">
       <c r="A273" s="3" t="s">
         <v>463</v>
       </c>
@@ -12878,7 +14127,7 @@
         <v>{"name":"岡山區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="16.2">
+    <row r="274" spans="1:7" ht="17">
       <c r="A274" s="3" t="s">
         <v>464</v>
       </c>
@@ -12900,7 +14149,7 @@
         <v>{"name":"路竹區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="16.2">
+    <row r="275" spans="1:7" ht="17">
       <c r="A275" s="3" t="s">
         <v>465</v>
       </c>
@@ -12922,7 +14171,7 @@
         <v>{"name":"阿蓮區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="16.2">
+    <row r="276" spans="1:7" ht="17">
       <c r="A276" s="3" t="s">
         <v>466</v>
       </c>
@@ -12944,7 +14193,7 @@
         <v>{"name":"田寮區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="16.2">
+    <row r="277" spans="1:7" ht="17">
       <c r="A277" s="3" t="s">
         <v>467</v>
       </c>
@@ -12966,7 +14215,7 @@
         <v>{"name":"燕巢區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="16.2">
+    <row r="278" spans="1:7" ht="17">
       <c r="A278" s="3" t="s">
         <v>468</v>
       </c>
@@ -12988,7 +14237,7 @@
         <v>{"name":"橋頭區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="16.2">
+    <row r="279" spans="1:7" ht="17">
       <c r="A279" s="3" t="s">
         <v>469</v>
       </c>
@@ -13010,7 +14259,7 @@
         <v>{"name":"梓官區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="16.2">
+    <row r="280" spans="1:7" ht="17">
       <c r="A280" s="3" t="s">
         <v>470</v>
       </c>
@@ -13032,7 +14281,7 @@
         <v>{"name":"彌陀區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="16.2">
+    <row r="281" spans="1:7" ht="17">
       <c r="A281" s="3" t="s">
         <v>471</v>
       </c>
@@ -13054,7 +14303,7 @@
         <v>{"name":"永安區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="16.2">
+    <row r="282" spans="1:7" ht="17">
       <c r="A282" s="3" t="s">
         <v>472</v>
       </c>
@@ -13076,7 +14325,7 @@
         <v>{"name":"湖內區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="16.2">
+    <row r="283" spans="1:7" ht="17">
       <c r="A283" s="3" t="s">
         <v>473</v>
       </c>
@@ -13098,7 +14347,7 @@
         <v>{"name":"鳳山區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="16.2">
+    <row r="284" spans="1:7" ht="17">
       <c r="A284" s="3" t="s">
         <v>474</v>
       </c>
@@ -13120,7 +14369,7 @@
         <v>{"name":"大寮區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="16.2">
+    <row r="285" spans="1:7" ht="17">
       <c r="A285" s="3" t="s">
         <v>475</v>
       </c>
@@ -13142,7 +14391,7 @@
         <v>{"name":"林園區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="16.2">
+    <row r="286" spans="1:7" ht="17">
       <c r="A286" s="3" t="s">
         <v>476</v>
       </c>
@@ -13164,7 +14413,7 @@
         <v>{"name":"鳥松區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="16.2">
+    <row r="287" spans="1:7" ht="17">
       <c r="A287" s="3" t="s">
         <v>477</v>
       </c>
@@ -13186,7 +14435,7 @@
         <v>{"name":"大樹區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="16.2">
+    <row r="288" spans="1:7" ht="17">
       <c r="A288" s="3" t="s">
         <v>478</v>
       </c>
@@ -13208,7 +14457,7 @@
         <v>{"name":"旗山區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="16.2">
+    <row r="289" spans="1:7" ht="17">
       <c r="A289" s="3" t="s">
         <v>479</v>
       </c>
@@ -13230,7 +14479,7 @@
         <v>{"name":"美濃區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="16.2">
+    <row r="290" spans="1:7" ht="17">
       <c r="A290" s="3" t="s">
         <v>480</v>
       </c>
@@ -13252,7 +14501,7 @@
         <v>{"name":"六龜區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="16.2">
+    <row r="291" spans="1:7" ht="17">
       <c r="A291" s="3" t="s">
         <v>481</v>
       </c>
@@ -13274,7 +14523,7 @@
         <v>{"name":"內門區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="16.2">
+    <row r="292" spans="1:7" ht="17">
       <c r="A292" s="3" t="s">
         <v>482</v>
       </c>
@@ -13296,7 +14545,7 @@
         <v>{"name":"杉林區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="16.2">
+    <row r="293" spans="1:7" ht="17">
       <c r="A293" s="3" t="s">
         <v>483</v>
       </c>
@@ -13318,7 +14567,7 @@
         <v>{"name":"甲仙區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="16.2">
+    <row r="294" spans="1:7" ht="17">
       <c r="A294" s="3" t="s">
         <v>484</v>
       </c>
@@ -13340,7 +14589,7 @@
         <v>{"name":"桃源區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="16.2">
+    <row r="295" spans="1:7" ht="17">
       <c r="A295" s="3" t="s">
         <v>485</v>
       </c>
@@ -13362,7 +14611,7 @@
         <v>{"name":"那瑪夏區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="16.2">
+    <row r="296" spans="1:7" ht="17">
       <c r="A296" s="3" t="s">
         <v>486</v>
       </c>
@@ -13384,7 +14633,7 @@
         <v>{"name":"茂林區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="16.2">
+    <row r="297" spans="1:7" ht="17">
       <c r="A297" s="3" t="s">
         <v>487</v>
       </c>
@@ -13406,7 +14655,7 @@
         <v>{"name":"茄萣區","category":"高雄市"},</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="16.2">
+    <row r="298" spans="1:7" ht="17">
       <c r="A298" s="3" t="s">
         <v>488</v>
       </c>
@@ -13428,7 +14677,7 @@
         <v>{"name":"馬公市","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="16.2">
+    <row r="299" spans="1:7" ht="17">
       <c r="A299" s="3" t="s">
         <v>489</v>
       </c>
@@ -13450,7 +14699,7 @@
         <v>{"name":"西嶼鄉","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="16.2">
+    <row r="300" spans="1:7" ht="17">
       <c r="A300" s="3" t="s">
         <v>490</v>
       </c>
@@ -13472,7 +14721,7 @@
         <v>{"name":"望安鄉","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="16.2">
+    <row r="301" spans="1:7" ht="17">
       <c r="A301" s="3" t="s">
         <v>491</v>
       </c>
@@ -13494,7 +14743,7 @@
         <v>{"name":"七美鄉","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="16.2">
+    <row r="302" spans="1:7" ht="17">
       <c r="A302" s="3" t="s">
         <v>492</v>
       </c>
@@ -13516,7 +14765,7 @@
         <v>{"name":"白沙鄉","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="16.2">
+    <row r="303" spans="1:7" ht="17">
       <c r="A303" s="3" t="s">
         <v>493</v>
       </c>
@@ -13538,7 +14787,7 @@
         <v>{"name":"湖西鄉","category":"澎湖縣"},</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="16.2">
+    <row r="304" spans="1:7" ht="17">
       <c r="A304" s="3" t="s">
         <v>494</v>
       </c>
@@ -13560,7 +14809,7 @@
         <v>{"name":"金沙鎮","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="16.2">
+    <row r="305" spans="1:7" ht="17">
       <c r="A305" s="3" t="s">
         <v>495</v>
       </c>
@@ -13582,7 +14831,7 @@
         <v>{"name":"金湖鎮","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="16.2">
+    <row r="306" spans="1:7" ht="17">
       <c r="A306" s="3" t="s">
         <v>496</v>
       </c>
@@ -13604,7 +14853,7 @@
         <v>{"name":"金寧鄉","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="16.2">
+    <row r="307" spans="1:7" ht="17">
       <c r="A307" s="3" t="s">
         <v>497</v>
       </c>
@@ -13626,7 +14875,7 @@
         <v>{"name":"金城鎮","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="16.2">
+    <row r="308" spans="1:7" ht="17">
       <c r="A308" s="3" t="s">
         <v>498</v>
       </c>
@@ -13648,7 +14897,7 @@
         <v>{"name":"烈嶼鄉","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="16.2">
+    <row r="309" spans="1:7" ht="17">
       <c r="A309" s="3" t="s">
         <v>499</v>
       </c>
@@ -13670,7 +14919,7 @@
         <v>{"name":"烏坵鄉","category":"金門縣"},</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="16.2">
+    <row r="310" spans="1:7" ht="17">
       <c r="A310" s="3" t="s">
         <v>500</v>
       </c>
@@ -13692,7 +14941,7 @@
         <v>{"name":"屏東市","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="16.2">
+    <row r="311" spans="1:7" ht="17">
       <c r="A311" s="3" t="s">
         <v>501</v>
       </c>
@@ -13714,7 +14963,7 @@
         <v>{"name":"三地門鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="16.2">
+    <row r="312" spans="1:7" ht="17">
       <c r="A312" s="3" t="s">
         <v>502</v>
       </c>
@@ -13736,7 +14985,7 @@
         <v>{"name":"霧台鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="16.2">
+    <row r="313" spans="1:7" ht="17">
       <c r="A313" s="3" t="s">
         <v>503</v>
       </c>
@@ -13758,7 +15007,7 @@
         <v>{"name":"瑪家鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="16.2">
+    <row r="314" spans="1:7" ht="17">
       <c r="A314" s="3" t="s">
         <v>504</v>
       </c>
@@ -13780,7 +15029,7 @@
         <v>{"name":"九如鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="16.2">
+    <row r="315" spans="1:7" ht="17">
       <c r="A315" s="3" t="s">
         <v>505</v>
       </c>
@@ -13802,7 +15051,7 @@
         <v>{"name":"里港鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="16.2">
+    <row r="316" spans="1:7" ht="17">
       <c r="A316" s="3" t="s">
         <v>506</v>
       </c>
@@ -13824,7 +15073,7 @@
         <v>{"name":"高樹鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="16.2">
+    <row r="317" spans="1:7" ht="17">
       <c r="A317" s="3" t="s">
         <v>507</v>
       </c>
@@ -13846,7 +15095,7 @@
         <v>{"name":"鹽埔鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="16.2">
+    <row r="318" spans="1:7" ht="17">
       <c r="A318" s="3" t="s">
         <v>508</v>
       </c>
@@ -13868,7 +15117,7 @@
         <v>{"name":"長治鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="16.2">
+    <row r="319" spans="1:7" ht="17">
       <c r="A319" s="3" t="s">
         <v>509</v>
       </c>
@@ -13890,7 +15139,7 @@
         <v>{"name":"麟洛鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="16.2">
+    <row r="320" spans="1:7" ht="17">
       <c r="A320" s="3" t="s">
         <v>510</v>
       </c>
@@ -13912,7 +15161,7 @@
         <v>{"name":"竹田鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="16.2">
+    <row r="321" spans="1:7" ht="17">
       <c r="A321" s="3" t="s">
         <v>511</v>
       </c>
@@ -13934,7 +15183,7 @@
         <v>{"name":"內埔鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="16.2">
+    <row r="322" spans="1:7" ht="17">
       <c r="A322" s="3" t="s">
         <v>512</v>
       </c>
@@ -13956,7 +15205,7 @@
         <v>{"name":"萬丹鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16.2">
+    <row r="323" spans="1:7" ht="17">
       <c r="A323" s="3" t="s">
         <v>513</v>
       </c>
@@ -13978,7 +15227,7 @@
         <v>{"name":"潮州鎮","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="16.2">
+    <row r="324" spans="1:7" ht="17">
       <c r="A324" s="3" t="s">
         <v>514</v>
       </c>
@@ -14000,7 +15249,7 @@
         <v>{"name":"泰武鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="16.2">
+    <row r="325" spans="1:7" ht="17">
       <c r="A325" s="3" t="s">
         <v>515</v>
       </c>
@@ -14022,7 +15271,7 @@
         <v>{"name":"來義鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="16.2">
+    <row r="326" spans="1:7" ht="17">
       <c r="A326" s="3" t="s">
         <v>516</v>
       </c>
@@ -14044,7 +15293,7 @@
         <v>{"name":"萬巒鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="16.2">
+    <row r="327" spans="1:7" ht="17">
       <c r="A327" s="3" t="s">
         <v>517</v>
       </c>
@@ -14066,7 +15315,7 @@
         <v>{"name":"崁頂鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="16.2">
+    <row r="328" spans="1:7" ht="17">
       <c r="A328" s="3" t="s">
         <v>518</v>
       </c>
@@ -14088,7 +15337,7 @@
         <v>{"name":"新埤鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="16.2">
+    <row r="329" spans="1:7" ht="17">
       <c r="A329" s="3" t="s">
         <v>519</v>
       </c>
@@ -14110,7 +15359,7 @@
         <v>{"name":"南州鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="16.2">
+    <row r="330" spans="1:7" ht="17">
       <c r="A330" s="3" t="s">
         <v>520</v>
       </c>
@@ -14132,7 +15381,7 @@
         <v>{"name":"林邊鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="16.2">
+    <row r="331" spans="1:7" ht="17">
       <c r="A331" s="3" t="s">
         <v>521</v>
       </c>
@@ -14154,7 +15403,7 @@
         <v>{"name":"東港鎮","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="16.2">
+    <row r="332" spans="1:7" ht="17">
       <c r="A332" s="3" t="s">
         <v>522</v>
       </c>
@@ -14176,7 +15425,7 @@
         <v>{"name":"琉球鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="16.2">
+    <row r="333" spans="1:7" ht="17">
       <c r="A333" s="3" t="s">
         <v>523</v>
       </c>
@@ -14198,7 +15447,7 @@
         <v>{"name":"佳冬鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="16.2">
+    <row r="334" spans="1:7" ht="17">
       <c r="A334" s="3" t="s">
         <v>524</v>
       </c>
@@ -14220,7 +15469,7 @@
         <v>{"name":"新園鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="16.2">
+    <row r="335" spans="1:7" ht="17">
       <c r="A335" s="3" t="s">
         <v>525</v>
       </c>
@@ -14242,7 +15491,7 @@
         <v>{"name":"枋寮鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="16.2">
+    <row r="336" spans="1:7" ht="17">
       <c r="A336" s="3" t="s">
         <v>526</v>
       </c>
@@ -14264,7 +15513,7 @@
         <v>{"name":"枋山鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16.2">
+    <row r="337" spans="1:7" ht="17">
       <c r="A337" s="3" t="s">
         <v>527</v>
       </c>
@@ -14286,7 +15535,7 @@
         <v>{"name":"春日鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="16.2">
+    <row r="338" spans="1:7" ht="17">
       <c r="A338" s="3" t="s">
         <v>528</v>
       </c>
@@ -14308,7 +15557,7 @@
         <v>{"name":"獅子鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="16.2">
+    <row r="339" spans="1:7" ht="17">
       <c r="A339" s="3" t="s">
         <v>529</v>
       </c>
@@ -14330,7 +15579,7 @@
         <v>{"name":"車城鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16.2">
+    <row r="340" spans="1:7" ht="17">
       <c r="A340" s="3" t="s">
         <v>530</v>
       </c>
@@ -14352,7 +15601,7 @@
         <v>{"name":"牡丹鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="16.2">
+    <row r="341" spans="1:7" ht="17">
       <c r="A341" s="3" t="s">
         <v>531</v>
       </c>
@@ -14374,7 +15623,7 @@
         <v>{"name":"恆春鎮","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="16.2">
+    <row r="342" spans="1:7" ht="17">
       <c r="A342" s="3" t="s">
         <v>532</v>
       </c>
@@ -14396,7 +15645,7 @@
         <v>{"name":"滿州鄉","category":"屏東縣"},</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="16.2">
+    <row r="343" spans="1:7" ht="17">
       <c r="A343" s="3" t="s">
         <v>533</v>
       </c>
@@ -14418,7 +15667,7 @@
         <v>{"name":"台東市","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="16.2">
+    <row r="344" spans="1:7" ht="17">
       <c r="A344" s="3" t="s">
         <v>534</v>
       </c>
@@ -14440,7 +15689,7 @@
         <v>{"name":"綠島鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="16.2">
+    <row r="345" spans="1:7" ht="17">
       <c r="A345" s="3" t="s">
         <v>535</v>
       </c>
@@ -14462,7 +15711,7 @@
         <v>{"name":"蘭嶼鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="16.2">
+    <row r="346" spans="1:7" ht="17">
       <c r="A346" s="3" t="s">
         <v>536</v>
       </c>
@@ -14484,7 +15733,7 @@
         <v>{"name":"延平鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="16.2">
+    <row r="347" spans="1:7" ht="17">
       <c r="A347" s="3" t="s">
         <v>537</v>
       </c>
@@ -14506,7 +15755,7 @@
         <v>{"name":"卑南鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="16.2">
+    <row r="348" spans="1:7" ht="17">
       <c r="A348" s="3" t="s">
         <v>538</v>
       </c>
@@ -14528,7 +15777,7 @@
         <v>{"name":"鹿野鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="16.2">
+    <row r="349" spans="1:7" ht="17">
       <c r="A349" s="3" t="s">
         <v>539</v>
       </c>
@@ -14550,7 +15799,7 @@
         <v>{"name":"關山鎮","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="16.2">
+    <row r="350" spans="1:7" ht="17">
       <c r="A350" s="3" t="s">
         <v>540</v>
       </c>
@@ -14572,7 +15821,7 @@
         <v>{"name":"海端鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="16.2">
+    <row r="351" spans="1:7" ht="17">
       <c r="A351" s="3" t="s">
         <v>541</v>
       </c>
@@ -14594,7 +15843,7 @@
         <v>{"name":"池上鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="16.2">
+    <row r="352" spans="1:7" ht="17">
       <c r="A352" s="3" t="s">
         <v>542</v>
       </c>
@@ -14616,7 +15865,7 @@
         <v>{"name":"東河鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="16.2">
+    <row r="353" spans="1:7" ht="17">
       <c r="A353" s="3" t="s">
         <v>543</v>
       </c>
@@ -14638,7 +15887,7 @@
         <v>{"name":"成功鎮","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="16.2">
+    <row r="354" spans="1:7" ht="17">
       <c r="A354" s="3" t="s">
         <v>544</v>
       </c>
@@ -14660,7 +15909,7 @@
         <v>{"name":"長濱鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="16.2">
+    <row r="355" spans="1:7" ht="17">
       <c r="A355" s="3" t="s">
         <v>545</v>
       </c>
@@ -14682,7 +15931,7 @@
         <v>{"name":"太麻里鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="16.2">
+    <row r="356" spans="1:7" ht="17">
       <c r="A356" s="3" t="s">
         <v>546</v>
       </c>
@@ -14704,7 +15953,7 @@
         <v>{"name":"金峰鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="16.2">
+    <row r="357" spans="1:7" ht="17">
       <c r="A357" s="3" t="s">
         <v>547</v>
       </c>
@@ -14726,7 +15975,7 @@
         <v>{"name":"大武鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="16.2">
+    <row r="358" spans="1:7" ht="17">
       <c r="A358" s="3" t="s">
         <v>548</v>
       </c>
@@ -14748,7 +15997,7 @@
         <v>{"name":"達仁鄉","category":"台東縣"},</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="16.2">
+    <row r="359" spans="1:7" ht="17">
       <c r="A359" s="3" t="s">
         <v>549</v>
       </c>
@@ -14770,7 +16019,7 @@
         <v>{"name":"花蓮市","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="16.2">
+    <row r="360" spans="1:7" ht="17">
       <c r="A360" s="3" t="s">
         <v>550</v>
       </c>
@@ -14792,7 +16041,7 @@
         <v>{"name":"新城鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="16.2">
+    <row r="361" spans="1:7" ht="17">
       <c r="A361" s="3" t="s">
         <v>551</v>
       </c>
@@ -14814,7 +16063,7 @@
         <v>{"name":"秀林鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="16.2">
+    <row r="362" spans="1:7" ht="17">
       <c r="A362" s="3" t="s">
         <v>552</v>
       </c>
@@ -14836,7 +16085,7 @@
         <v>{"name":"吉安鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="16.2">
+    <row r="363" spans="1:7" ht="17">
       <c r="A363" s="3" t="s">
         <v>553</v>
       </c>
@@ -14858,7 +16107,7 @@
         <v>{"name":"壽豐鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="16.2">
+    <row r="364" spans="1:7" ht="17">
       <c r="A364" s="3" t="s">
         <v>554</v>
       </c>
@@ -14880,7 +16129,7 @@
         <v>{"name":"鳳林鎮","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="16.2">
+    <row r="365" spans="1:7" ht="17">
       <c r="A365" s="3" t="s">
         <v>555</v>
       </c>
@@ -14902,7 +16151,7 @@
         <v>{"name":"光復鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="16.2">
+    <row r="366" spans="1:7" ht="17">
       <c r="A366" s="3" t="s">
         <v>556</v>
       </c>
@@ -14924,7 +16173,7 @@
         <v>{"name":"豐濱鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="16.2">
+    <row r="367" spans="1:7" ht="17">
       <c r="A367" s="3" t="s">
         <v>557</v>
       </c>
@@ -14946,7 +16195,7 @@
         <v>{"name":"瑞穗鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="16.2">
+    <row r="368" spans="1:7" ht="17">
       <c r="A368" s="3" t="s">
         <v>558</v>
       </c>
@@ -14968,7 +16217,7 @@
         <v>{"name":"萬榮鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="16.2">
+    <row r="369" spans="1:7" ht="17">
       <c r="A369" s="3" t="s">
         <v>559</v>
       </c>
@@ -14990,7 +16239,7 @@
         <v>{"name":"玉里鎮","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="370" spans="1:7" ht="16.2">
+    <row r="370" spans="1:7" ht="17">
       <c r="A370" s="3" t="s">
         <v>560</v>
       </c>
@@ -15012,7 +16261,7 @@
         <v>{"name":"卓溪鄉","category":"花蓮縣"},</v>
       </c>
     </row>
-    <row r="371" spans="1:7" ht="16.2">
+    <row r="371" spans="1:7" ht="17">
       <c r="A371" s="3" t="s">
         <v>561</v>
       </c>
@@ -15041,16 +16290,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15071,7 +16320,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="4" t="s">
         <v>585</v>
       </c>
@@ -15093,7 +16342,7 @@
         <v>{"name":"口腔","category":"正確"},</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="4" t="s">
         <v>586</v>
       </c>
@@ -15115,7 +16364,7 @@
         <v>{"name":"食道","category":"正確"},</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="4" t="s">
         <v>587</v>
       </c>
@@ -15137,7 +16386,7 @@
         <v>{"name":"賁門","category":"正確"},</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15">
+    <row r="5" spans="1:7" ht="15.5">
       <c r="A5" s="4" t="s">
         <v>588</v>
       </c>
@@ -15159,7 +16408,7 @@
         <v>{"name":"胃","category":"正確"},</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15">
+    <row r="6" spans="1:7" ht="15.5">
       <c r="A6" s="4" t="s">
         <v>589</v>
       </c>
@@ -15181,7 +16430,7 @@
         <v>{"name":"幽門","category":"正確"},</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="4" t="s">
         <v>590</v>
       </c>
@@ -15203,7 +16452,7 @@
         <v>{"name":"小腸","category":"正確"},</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="4" t="s">
         <v>591</v>
       </c>
@@ -15225,7 +16474,7 @@
         <v>{"name":"大腸","category":"正確"},</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15">
+    <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="4" t="s">
         <v>592</v>
       </c>
@@ -15247,7 +16496,7 @@
         <v>{"name":"肛門","category":"正確"},</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
+    <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="4" t="s">
         <v>593</v>
       </c>
@@ -15269,7 +16518,7 @@
         <v>{"name":"肝臟","category":"錯誤"},</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15">
+    <row r="11" spans="1:7" ht="15.5">
       <c r="A11" s="4" t="s">
         <v>594</v>
       </c>
@@ -15291,7 +16540,7 @@
         <v>{"name":"胰臟","category":"錯誤"},</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="4" t="s">
         <v>595</v>
       </c>
@@ -15313,7 +16562,7 @@
         <v>{"name":"腎臟","category":"錯誤"},</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
+    <row r="13" spans="1:7" ht="15.5">
       <c r="A13" s="4" t="s">
         <v>596</v>
       </c>
@@ -15335,7 +16584,7 @@
         <v>{"name":"唾腺","category":"錯誤"},</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
+    <row r="14" spans="1:7" ht="15.5">
       <c r="A14" s="4" t="s">
         <v>597</v>
       </c>
@@ -15357,7 +16606,7 @@
         <v>{"name":"胃腺","category":"錯誤"},</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
+    <row r="15" spans="1:7" ht="15.5">
       <c r="A15" s="4" t="s">
         <v>598</v>
       </c>
